--- a/TestData/Web_POS/Order/mode_of_payment_order_test_data.xlsx
+++ b/TestData/Web_POS/Order/mode_of_payment_order_test_data.xlsx
@@ -1,20 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Indexnine\PycharmProjects\zwing-qa-automation\TestData\Web_POS\Order\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullPrecision="1" calcId="125725"/>
+  <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="60" count="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <si>
     <t>TC_Id</t>
   </si>
@@ -85,10 +90,10 @@
     <t>userone_p1</t>
   </si>
   <si>
-    <t>1000</t>
+    <t>2000 : 1</t>
   </si>
   <si>
-    <t>500</t>
+    <t>500 : 1</t>
   </si>
   <si>
     <t>Index9QA</t>
@@ -121,13 +126,7 @@
     <t>TC_98</t>
   </si>
   <si>
-    <t>300</t>
-  </si>
-  <si>
     <t>TC_100</t>
-  </si>
-  <si>
-    <t>600</t>
   </si>
   <si>
     <t>m2mrIM</t>
@@ -140,6 +139,12 @@
   </si>
   <si>
     <t>TC_102</t>
+  </si>
+  <si>
+    <t>3072606245nJ</t>
+  </si>
+  <si>
+    <t>userone_p3</t>
   </si>
   <si>
     <t>wkgVcw</t>
@@ -186,79 +191,41 @@
   <si>
     <t>TC_118</t>
   </si>
-  <si>
-    <t>3072606245nJ</t>
-  </si>
-  <si>
-    <t>userone_p3</t>
-  </si>
-  <si>
-    <t>02-04-2024</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <charset val="0"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
-      <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <u val="single"/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <u val="single"/>
-      <sz val="10"/>
-      <color indexed="12"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF2B579A"/>
-      <name val="Arial"/>
-      <charset val="0"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color rgb="FF2B579A"/>
       <name val="Arial"/>
-      <charset val="0"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
     <fill>
       <patternFill patternType="none">
-        <fgColor indexed="64"/>
-        <bgColor indexed="65"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="gray125">
         <fgColor indexed="64"/>
         <bgColor indexed="65"/>
       </patternFill>
@@ -270,51 +237,61 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
+    <border/>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
+      <left>
+        <color indexed="64"/>
+      </left>
+      <right>
+        <color indexed="64"/>
+      </right>
+      <top>
+        <color indexed="64"/>
+      </top>
+      <bottom>
+        <color indexed="64"/>
+      </bottom>
+      <diagonal>
+        <color indexed="64"/>
+      </diagonal>
     </border>
     <border>
-      <left/>
       <right style="medium">
         <color rgb="FF2B579A"/>
       </right>
-      <top/>
       <bottom style="medium">
         <color rgb="FF2B579A"/>
       </bottom>
-      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="7">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1">
+  <cellStyleXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="0" applyBorder="0" applyNumberFormat="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyNumberFormat="1"/>
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="ConditionalFormatStyle" xfId="1"/>
     <cellStyle name="HeaderStyle" xfId="2"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
   </cellStyles>
-  <dxfs xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="0"/>
+  <dxfs count="0"/>
+  <tableStyles count="0"/>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -396,6 +373,7 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
+          <a:tileRect/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -422,24 +400,25 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
+          <a:tileRect/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="19050" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -500,6 +479,7 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
+          <a:tileRect/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
@@ -508,19 +488,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryRight="0" summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:S994"/>
   <sheetViews>
-    <sheetView view="normal" tabSelected="1" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.63" customHeight="true" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.63" defaultRowHeight="15.75" customHeight="1"/>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -577,7 +556,7 @@
       </c>
       <c r="S1" s="2"/>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>18</v>
       </c>
@@ -596,10 +575,10 @@
       <c r="F2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="3" t="s">
         <v>24</v>
       </c>
       <c r="I2" s="1" t="s">
@@ -630,7 +609,7 @@
       </c>
       <c r="S2" s="2"/>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>33</v>
       </c>
@@ -649,10 +628,10 @@
       <c r="F3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="3" t="s">
         <v>24</v>
       </c>
       <c r="I3" s="1" t="s">
@@ -683,7 +662,7 @@
       </c>
       <c r="S3" s="2"/>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>34</v>
       </c>
@@ -702,11 +681,11 @@
       <c r="F4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>35</v>
+      <c r="H4" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="I4" s="1" t="s">
         <v>25</v>
@@ -736,9 +715,9 @@
       </c>
       <c r="S4" s="2"/>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>19</v>
@@ -755,11 +734,11 @@
       <c r="F5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>37</v>
+      <c r="H5" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="I5" s="1" t="s">
         <v>25</v>
@@ -783,7 +762,7 @@
         <v>31</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" s="1" t="s">
@@ -791,9 +770,9 @@
       </c>
       <c r="S5" s="2"/>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>19</v>
@@ -810,11 +789,11 @@
       <c r="F6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G6" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H6" s="1" t="s">
-        <v>37</v>
+      <c r="H6" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>25</v>
@@ -838,7 +817,7 @@
         <v>31</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" s="1" t="s">
@@ -846,12 +825,12 @@
       </c>
       <c r="S6" s="2"/>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>20</v>
@@ -860,16 +839,16 @@
         <v>21</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>37</v>
+      <c r="H7" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>25</v>
@@ -901,7 +880,7 @@
       </c>
       <c r="S7" s="2"/>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>43</v>
       </c>
@@ -920,11 +899,11 @@
       <c r="F8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="G8" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H8" s="1" t="s">
-        <v>37</v>
+      <c r="H8" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>25</v>
@@ -954,7 +933,7 @@
       </c>
       <c r="S8" s="2"/>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>44</v>
       </c>
@@ -973,11 +952,11 @@
       <c r="F9" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="G9" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H9" s="1" t="s">
-        <v>37</v>
+      <c r="H9" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>25</v>
@@ -1007,7 +986,7 @@
       </c>
       <c r="S9" s="2"/>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>45</v>
       </c>
@@ -1026,11 +1005,11 @@
       <c r="F10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="G10" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H10" s="1" t="s">
-        <v>37</v>
+      <c r="H10" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="I10" s="1" t="s">
         <v>25</v>
@@ -1060,7 +1039,7 @@
       </c>
       <c r="S10" s="2"/>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="1" t="s">
         <v>47</v>
       </c>
@@ -1079,11 +1058,11 @@
       <c r="F11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="G11" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H11" s="1" t="s">
-        <v>37</v>
+      <c r="H11" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>25</v>
@@ -1113,7 +1092,7 @@
       </c>
       <c r="S11" s="2"/>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="1" t="s">
         <v>48</v>
       </c>
@@ -1132,11 +1111,11 @@
       <c r="F12" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="G12" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H12" s="1" t="s">
-        <v>37</v>
+      <c r="H12" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="I12" s="1" t="s">
         <v>25</v>
@@ -1166,7 +1145,7 @@
       </c>
       <c r="S12" s="2"/>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="1" t="s">
         <v>49</v>
       </c>
@@ -1185,11 +1164,11 @@
       <c r="F13" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="G13" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H13" s="1" t="s">
-        <v>37</v>
+      <c r="H13" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>25</v>
@@ -1219,7 +1198,7 @@
       </c>
       <c r="S13" s="2"/>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="1" t="s">
         <v>50</v>
       </c>
@@ -1238,11 +1217,11 @@
       <c r="F14" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="G14" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H14" s="1" t="s">
-        <v>37</v>
+      <c r="H14" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>25</v>
@@ -1272,7 +1251,7 @@
       </c>
       <c r="S14" s="2"/>
     </row>
-    <row r="15" spans="1:19">
+    <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>51</v>
       </c>
@@ -1291,11 +1270,11 @@
       <c r="F15" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="G15" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H15" s="1" t="s">
-        <v>37</v>
+      <c r="H15" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>25</v>
@@ -1325,7 +1304,7 @@
       </c>
       <c r="S15" s="2"/>
     </row>
-    <row r="16" spans="1:19">
+    <row r="16" ht="15.75" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>52</v>
       </c>
@@ -1344,11 +1323,11 @@
       <c r="F16" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="G16" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H16" s="1" t="s">
-        <v>37</v>
+      <c r="H16" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="I16" s="1" t="s">
         <v>25</v>
@@ -1378,7 +1357,7 @@
       </c>
       <c r="S16" s="2"/>
     </row>
-    <row r="17" spans="1:19">
+    <row r="17" ht="15.75" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>53</v>
       </c>
@@ -1397,11 +1376,11 @@
       <c r="F17" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="G17" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H17" s="1" t="s">
-        <v>37</v>
+      <c r="H17" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>25</v>
@@ -1431,7 +1410,7 @@
       </c>
       <c r="S17" s="2"/>
     </row>
-    <row r="18" spans="1:19">
+    <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="1" t="s">
         <v>54</v>
       </c>
@@ -1450,11 +1429,11 @@
       <c r="F18" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="G18" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="H18" s="1" t="s">
-        <v>37</v>
+      <c r="H18" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>25</v>
@@ -1484,7 +1463,7 @@
       </c>
       <c r="S18" s="2"/>
     </row>
-    <row r="19" spans="1:19">
+    <row r="19" ht="15.75" customHeight="1">
       <c r="A19" s="1" t="s">
         <v>55</v>
       </c>
@@ -1507,7 +1486,7 @@
       <c r="R19" s="2"/>
       <c r="S19" s="2"/>
     </row>
-    <row r="20" spans="1:19">
+    <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="1" t="s">
         <v>56</v>
       </c>
@@ -1530,7 +1509,7 @@
       <c r="R20" s="2"/>
       <c r="S20" s="2"/>
     </row>
-    <row r="21" spans="1:19">
+    <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -1551,7 +1530,7 @@
       <c r="R21" s="2"/>
       <c r="S21" s="2"/>
     </row>
-    <row r="22" spans="1:19">
+    <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -1572,7 +1551,7 @@
       <c r="R22" s="2"/>
       <c r="S22" s="2"/>
     </row>
-    <row r="23" spans="1:19">
+    <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -1593,7 +1572,7 @@
       <c r="R23" s="2"/>
       <c r="S23" s="2"/>
     </row>
-    <row r="24" spans="1:19">
+    <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -1614,7 +1593,7 @@
       <c r="R24" s="2"/>
       <c r="S24" s="2"/>
     </row>
-    <row r="25" spans="1:19">
+    <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -1635,7 +1614,7 @@
       <c r="R25" s="2"/>
       <c r="S25" s="2"/>
     </row>
-    <row r="26" spans="1:19">
+    <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -1656,7 +1635,7 @@
       <c r="R26" s="2"/>
       <c r="S26" s="2"/>
     </row>
-    <row r="27" spans="1:19">
+    <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -1677,7 +1656,7 @@
       <c r="R27" s="2"/>
       <c r="S27" s="2"/>
     </row>
-    <row r="28" spans="1:19">
+    <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -1698,7 +1677,7 @@
       <c r="R28" s="2"/>
       <c r="S28" s="2"/>
     </row>
-    <row r="29" spans="1:19">
+    <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -1719,7 +1698,7 @@
       <c r="R29" s="2"/>
       <c r="S29" s="2"/>
     </row>
-    <row r="30" spans="1:19">
+    <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -1740,7 +1719,7 @@
       <c r="R30" s="2"/>
       <c r="S30" s="2"/>
     </row>
-    <row r="31" spans="1:19">
+    <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -1761,7 +1740,7 @@
       <c r="R31" s="2"/>
       <c r="S31" s="2"/>
     </row>
-    <row r="32" spans="1:19">
+    <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -1782,7 +1761,7 @@
       <c r="R32" s="2"/>
       <c r="S32" s="2"/>
     </row>
-    <row r="33" spans="1:19">
+    <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -1803,7 +1782,7 @@
       <c r="R33" s="2"/>
       <c r="S33" s="2"/>
     </row>
-    <row r="34" spans="1:19">
+    <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -1824,7 +1803,7 @@
       <c r="R34" s="2"/>
       <c r="S34" s="2"/>
     </row>
-    <row r="35" spans="1:19">
+    <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -1845,7 +1824,7 @@
       <c r="R35" s="2"/>
       <c r="S35" s="2"/>
     </row>
-    <row r="36" spans="1:19">
+    <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -1866,7 +1845,7 @@
       <c r="R36" s="2"/>
       <c r="S36" s="2"/>
     </row>
-    <row r="37" spans="1:19">
+    <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -1887,7 +1866,7 @@
       <c r="R37" s="2"/>
       <c r="S37" s="2"/>
     </row>
-    <row r="38" spans="1:19">
+    <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -1908,7 +1887,7 @@
       <c r="R38" s="2"/>
       <c r="S38" s="2"/>
     </row>
-    <row r="39" spans="1:19">
+    <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -1929,7 +1908,7 @@
       <c r="R39" s="2"/>
       <c r="S39" s="2"/>
     </row>
-    <row r="40" spans="1:19">
+    <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -1950,7 +1929,7 @@
       <c r="R40" s="2"/>
       <c r="S40" s="2"/>
     </row>
-    <row r="41" spans="1:19">
+    <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -1971,7 +1950,7 @@
       <c r="R41" s="2"/>
       <c r="S41" s="2"/>
     </row>
-    <row r="42" spans="1:19">
+    <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -1992,7 +1971,7 @@
       <c r="R42" s="2"/>
       <c r="S42" s="2"/>
     </row>
-    <row r="43" spans="1:19">
+    <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -2013,7 +1992,7 @@
       <c r="R43" s="2"/>
       <c r="S43" s="2"/>
     </row>
-    <row r="44" spans="1:19">
+    <row r="44" ht="15.75" customHeight="1">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -2034,7 +2013,7 @@
       <c r="R44" s="2"/>
       <c r="S44" s="2"/>
     </row>
-    <row r="45" spans="1:19">
+    <row r="45" ht="15.75" customHeight="1">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -2055,7 +2034,7 @@
       <c r="R45" s="2"/>
       <c r="S45" s="2"/>
     </row>
-    <row r="46" spans="1:19">
+    <row r="46" ht="15.75" customHeight="1">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -2076,7 +2055,7 @@
       <c r="R46" s="2"/>
       <c r="S46" s="2"/>
     </row>
-    <row r="47" spans="1:19">
+    <row r="47" ht="15.75" customHeight="1">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -2097,7 +2076,7 @@
       <c r="R47" s="2"/>
       <c r="S47" s="2"/>
     </row>
-    <row r="48" spans="1:19">
+    <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -2118,7 +2097,7 @@
       <c r="R48" s="2"/>
       <c r="S48" s="2"/>
     </row>
-    <row r="49" spans="1:19">
+    <row r="49" ht="15.75" customHeight="1">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -2139,7 +2118,7 @@
       <c r="R49" s="2"/>
       <c r="S49" s="2"/>
     </row>
-    <row r="50" spans="1:19">
+    <row r="50" ht="15.75" customHeight="1">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -2160,7 +2139,7 @@
       <c r="R50" s="2"/>
       <c r="S50" s="2"/>
     </row>
-    <row r="51" spans="1:19">
+    <row r="51" ht="15.75" customHeight="1">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -2181,7 +2160,7 @@
       <c r="R51" s="2"/>
       <c r="S51" s="2"/>
     </row>
-    <row r="52" spans="1:19">
+    <row r="52" ht="15.75" customHeight="1">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -2202,7 +2181,7 @@
       <c r="R52" s="2"/>
       <c r="S52" s="2"/>
     </row>
-    <row r="53" spans="1:19">
+    <row r="53" ht="15.75" customHeight="1">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -2223,7 +2202,7 @@
       <c r="R53" s="2"/>
       <c r="S53" s="2"/>
     </row>
-    <row r="54" spans="1:19">
+    <row r="54" ht="15.75" customHeight="1">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -2244,7 +2223,7 @@
       <c r="R54" s="2"/>
       <c r="S54" s="2"/>
     </row>
-    <row r="55" spans="1:19">
+    <row r="55" ht="15.75" customHeight="1">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -2265,7 +2244,7 @@
       <c r="R55" s="2"/>
       <c r="S55" s="2"/>
     </row>
-    <row r="56" spans="1:19">
+    <row r="56" ht="15.75" customHeight="1">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -2286,7 +2265,7 @@
       <c r="R56" s="2"/>
       <c r="S56" s="2"/>
     </row>
-    <row r="57" spans="1:19">
+    <row r="57" ht="15.75" customHeight="1">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -2307,7 +2286,7 @@
       <c r="R57" s="2"/>
       <c r="S57" s="2"/>
     </row>
-    <row r="58" spans="1:19">
+    <row r="58" ht="15.75" customHeight="1">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
@@ -2328,7 +2307,7 @@
       <c r="R58" s="2"/>
       <c r="S58" s="2"/>
     </row>
-    <row r="59" spans="1:19">
+    <row r="59" ht="15.75" customHeight="1">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -2349,7 +2328,7 @@
       <c r="R59" s="2"/>
       <c r="S59" s="2"/>
     </row>
-    <row r="60" spans="1:19">
+    <row r="60" ht="15.75" customHeight="1">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -2370,7 +2349,7 @@
       <c r="R60" s="2"/>
       <c r="S60" s="2"/>
     </row>
-    <row r="61" spans="1:19">
+    <row r="61" ht="15.75" customHeight="1">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -2391,7 +2370,7 @@
       <c r="R61" s="2"/>
       <c r="S61" s="2"/>
     </row>
-    <row r="62" spans="1:19">
+    <row r="62" ht="15.75" customHeight="1">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -2412,7 +2391,7 @@
       <c r="R62" s="2"/>
       <c r="S62" s="2"/>
     </row>
-    <row r="63" spans="1:19">
+    <row r="63" ht="15.75" customHeight="1">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -2433,7 +2412,7 @@
       <c r="R63" s="2"/>
       <c r="S63" s="2"/>
     </row>
-    <row r="64" spans="1:19">
+    <row r="64" ht="15.75" customHeight="1">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -2454,7 +2433,7 @@
       <c r="R64" s="2"/>
       <c r="S64" s="2"/>
     </row>
-    <row r="65" spans="1:19">
+    <row r="65" ht="15.75" customHeight="1">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
@@ -2475,7 +2454,7 @@
       <c r="R65" s="2"/>
       <c r="S65" s="2"/>
     </row>
-    <row r="66" spans="1:19">
+    <row r="66" ht="15.75" customHeight="1">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -2496,7 +2475,7 @@
       <c r="R66" s="2"/>
       <c r="S66" s="2"/>
     </row>
-    <row r="67" spans="1:19">
+    <row r="67" ht="15.75" customHeight="1">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -2517,7 +2496,7 @@
       <c r="R67" s="2"/>
       <c r="S67" s="2"/>
     </row>
-    <row r="68" spans="1:19">
+    <row r="68" ht="15.75" customHeight="1">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -2538,7 +2517,7 @@
       <c r="R68" s="2"/>
       <c r="S68" s="2"/>
     </row>
-    <row r="69" spans="1:19">
+    <row r="69" ht="15.75" customHeight="1">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -2559,7 +2538,7 @@
       <c r="R69" s="2"/>
       <c r="S69" s="2"/>
     </row>
-    <row r="70" spans="1:19">
+    <row r="70" ht="15.75" customHeight="1">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
@@ -2580,7 +2559,7 @@
       <c r="R70" s="2"/>
       <c r="S70" s="2"/>
     </row>
-    <row r="71" spans="1:19">
+    <row r="71" ht="15.75" customHeight="1">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -2601,7 +2580,7 @@
       <c r="R71" s="2"/>
       <c r="S71" s="2"/>
     </row>
-    <row r="72" spans="1:19">
+    <row r="72" ht="15.75" customHeight="1">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -2622,7 +2601,7 @@
       <c r="R72" s="2"/>
       <c r="S72" s="2"/>
     </row>
-    <row r="73" spans="1:19">
+    <row r="73" ht="15.75" customHeight="1">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -2643,7 +2622,7 @@
       <c r="R73" s="2"/>
       <c r="S73" s="2"/>
     </row>
-    <row r="74" spans="1:19">
+    <row r="74" ht="15.75" customHeight="1">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -2664,7 +2643,7 @@
       <c r="R74" s="2"/>
       <c r="S74" s="2"/>
     </row>
-    <row r="75" spans="1:19">
+    <row r="75" ht="15.75" customHeight="1">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -2685,7 +2664,7 @@
       <c r="R75" s="2"/>
       <c r="S75" s="2"/>
     </row>
-    <row r="76" spans="1:19">
+    <row r="76" ht="15.75" customHeight="1">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -2706,7 +2685,7 @@
       <c r="R76" s="2"/>
       <c r="S76" s="2"/>
     </row>
-    <row r="77" spans="1:19">
+    <row r="77" ht="15.75" customHeight="1">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -2727,7 +2706,7 @@
       <c r="R77" s="2"/>
       <c r="S77" s="2"/>
     </row>
-    <row r="78" spans="1:19">
+    <row r="78" ht="15.75" customHeight="1">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -2748,7 +2727,7 @@
       <c r="R78" s="2"/>
       <c r="S78" s="2"/>
     </row>
-    <row r="79" spans="1:19">
+    <row r="79" ht="15.75" customHeight="1">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -2769,7 +2748,7 @@
       <c r="R79" s="2"/>
       <c r="S79" s="2"/>
     </row>
-    <row r="80" spans="1:19">
+    <row r="80" ht="15.75" customHeight="1">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -2790,7 +2769,7 @@
       <c r="R80" s="2"/>
       <c r="S80" s="2"/>
     </row>
-    <row r="81" spans="1:19">
+    <row r="81" ht="15.75" customHeight="1">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -2811,7 +2790,7 @@
       <c r="R81" s="2"/>
       <c r="S81" s="2"/>
     </row>
-    <row r="82" spans="1:19">
+    <row r="82" ht="15.75" customHeight="1">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -2832,7 +2811,7 @@
       <c r="R82" s="2"/>
       <c r="S82" s="2"/>
     </row>
-    <row r="83" spans="1:19">
+    <row r="83" ht="15.75" customHeight="1">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -2853,7 +2832,7 @@
       <c r="R83" s="2"/>
       <c r="S83" s="2"/>
     </row>
-    <row r="84" spans="1:19">
+    <row r="84" ht="15.75" customHeight="1">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -2874,7 +2853,7 @@
       <c r="R84" s="2"/>
       <c r="S84" s="2"/>
     </row>
-    <row r="85" spans="1:19">
+    <row r="85" ht="15.75" customHeight="1">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -2895,7 +2874,7 @@
       <c r="R85" s="2"/>
       <c r="S85" s="2"/>
     </row>
-    <row r="86" spans="1:19">
+    <row r="86" ht="15.75" customHeight="1">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -2916,7 +2895,7 @@
       <c r="R86" s="2"/>
       <c r="S86" s="2"/>
     </row>
-    <row r="87" spans="1:19">
+    <row r="87" ht="15.75" customHeight="1">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -2937,7 +2916,7 @@
       <c r="R87" s="2"/>
       <c r="S87" s="2"/>
     </row>
-    <row r="88" spans="1:19">
+    <row r="88" ht="15.75" customHeight="1">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
@@ -2958,7 +2937,7 @@
       <c r="R88" s="2"/>
       <c r="S88" s="2"/>
     </row>
-    <row r="89" spans="1:19">
+    <row r="89" ht="15.75" customHeight="1">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
@@ -2979,7 +2958,7 @@
       <c r="R89" s="2"/>
       <c r="S89" s="2"/>
     </row>
-    <row r="90" spans="1:19">
+    <row r="90" ht="15.75" customHeight="1">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
@@ -3000,7 +2979,7 @@
       <c r="R90" s="2"/>
       <c r="S90" s="2"/>
     </row>
-    <row r="91" spans="1:19">
+    <row r="91" ht="15.75" customHeight="1">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -3021,7 +3000,7 @@
       <c r="R91" s="2"/>
       <c r="S91" s="2"/>
     </row>
-    <row r="92" spans="1:19">
+    <row r="92" ht="15.75" customHeight="1">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -3042,7 +3021,7 @@
       <c r="R92" s="2"/>
       <c r="S92" s="2"/>
     </row>
-    <row r="93" spans="1:19">
+    <row r="93" ht="15.75" customHeight="1">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
@@ -3063,7 +3042,7 @@
       <c r="R93" s="2"/>
       <c r="S93" s="2"/>
     </row>
-    <row r="94" spans="1:19">
+    <row r="94" ht="15.75" customHeight="1">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -3084,7 +3063,7 @@
       <c r="R94" s="2"/>
       <c r="S94" s="2"/>
     </row>
-    <row r="95" spans="1:19">
+    <row r="95" ht="15.75" customHeight="1">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
@@ -3105,7 +3084,7 @@
       <c r="R95" s="2"/>
       <c r="S95" s="2"/>
     </row>
-    <row r="96" spans="1:19">
+    <row r="96" ht="15.75" customHeight="1">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -3126,7 +3105,7 @@
       <c r="R96" s="2"/>
       <c r="S96" s="2"/>
     </row>
-    <row r="97" spans="1:19">
+    <row r="97" ht="15.75" customHeight="1">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -3147,7 +3126,7 @@
       <c r="R97" s="2"/>
       <c r="S97" s="2"/>
     </row>
-    <row r="98" spans="1:19">
+    <row r="98" ht="15.75" customHeight="1">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -3168,7 +3147,7 @@
       <c r="R98" s="2"/>
       <c r="S98" s="2"/>
     </row>
-    <row r="99" spans="1:19">
+    <row r="99" ht="15.75" customHeight="1">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -3189,7 +3168,7 @@
       <c r="R99" s="2"/>
       <c r="S99" s="2"/>
     </row>
-    <row r="100" spans="1:19">
+    <row r="100" ht="15.75" customHeight="1">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -3210,7 +3189,7 @@
       <c r="R100" s="2"/>
       <c r="S100" s="2"/>
     </row>
-    <row r="101" spans="1:19">
+    <row r="101" ht="15.75" customHeight="1">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
@@ -3231,7 +3210,7 @@
       <c r="R101" s="2"/>
       <c r="S101" s="2"/>
     </row>
-    <row r="102" spans="1:19">
+    <row r="102" ht="15.75" customHeight="1">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -3252,7 +3231,7 @@
       <c r="R102" s="2"/>
       <c r="S102" s="2"/>
     </row>
-    <row r="103" spans="1:19">
+    <row r="103" ht="15.75" customHeight="1">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -3273,7 +3252,7 @@
       <c r="R103" s="2"/>
       <c r="S103" s="2"/>
     </row>
-    <row r="104" spans="1:19">
+    <row r="104" ht="15.75" customHeight="1">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -3294,7 +3273,7 @@
       <c r="R104" s="2"/>
       <c r="S104" s="2"/>
     </row>
-    <row r="105" spans="1:19">
+    <row r="105" ht="15.75" customHeight="1">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -3315,7 +3294,7 @@
       <c r="R105" s="2"/>
       <c r="S105" s="2"/>
     </row>
-    <row r="106" spans="1:19">
+    <row r="106" ht="15.75" customHeight="1">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -3336,7 +3315,7 @@
       <c r="R106" s="2"/>
       <c r="S106" s="2"/>
     </row>
-    <row r="107" spans="1:19">
+    <row r="107" ht="15.75" customHeight="1">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -3357,7 +3336,7 @@
       <c r="R107" s="2"/>
       <c r="S107" s="2"/>
     </row>
-    <row r="108" spans="1:19">
+    <row r="108" ht="15.75" customHeight="1">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -3378,7 +3357,7 @@
       <c r="R108" s="2"/>
       <c r="S108" s="2"/>
     </row>
-    <row r="109" spans="1:19">
+    <row r="109" ht="15.75" customHeight="1">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -3399,7 +3378,7 @@
       <c r="R109" s="2"/>
       <c r="S109" s="2"/>
     </row>
-    <row r="110" spans="1:19">
+    <row r="110" ht="15.75" customHeight="1">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -3420,7 +3399,7 @@
       <c r="R110" s="2"/>
       <c r="S110" s="2"/>
     </row>
-    <row r="111" spans="1:19">
+    <row r="111" ht="15.75" customHeight="1">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
@@ -3441,7 +3420,7 @@
       <c r="R111" s="2"/>
       <c r="S111" s="2"/>
     </row>
-    <row r="112" spans="1:19">
+    <row r="112" ht="15.75" customHeight="1">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -3462,7 +3441,7 @@
       <c r="R112" s="2"/>
       <c r="S112" s="2"/>
     </row>
-    <row r="113" spans="1:19">
+    <row r="113" ht="15.75" customHeight="1">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -3483,7 +3462,7 @@
       <c r="R113" s="2"/>
       <c r="S113" s="2"/>
     </row>
-    <row r="114" spans="1:19">
+    <row r="114" ht="15.75" customHeight="1">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -3504,7 +3483,7 @@
       <c r="R114" s="2"/>
       <c r="S114" s="2"/>
     </row>
-    <row r="115" spans="1:19">
+    <row r="115" ht="15.75" customHeight="1">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
@@ -3525,7 +3504,7 @@
       <c r="R115" s="2"/>
       <c r="S115" s="2"/>
     </row>
-    <row r="116" spans="1:19">
+    <row r="116" ht="15.75" customHeight="1">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
@@ -3546,7 +3525,7 @@
       <c r="R116" s="2"/>
       <c r="S116" s="2"/>
     </row>
-    <row r="117" spans="1:19">
+    <row r="117" ht="15.75" customHeight="1">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
@@ -3567,7 +3546,7 @@
       <c r="R117" s="2"/>
       <c r="S117" s="2"/>
     </row>
-    <row r="118" spans="1:19">
+    <row r="118" ht="15.75" customHeight="1">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
@@ -3588,7 +3567,7 @@
       <c r="R118" s="2"/>
       <c r="S118" s="2"/>
     </row>
-    <row r="119" spans="1:19">
+    <row r="119" ht="15.75" customHeight="1">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
@@ -3609,7 +3588,7 @@
       <c r="R119" s="2"/>
       <c r="S119" s="2"/>
     </row>
-    <row r="120" spans="1:19">
+    <row r="120" ht="15.75" customHeight="1">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
@@ -3630,7 +3609,7 @@
       <c r="R120" s="2"/>
       <c r="S120" s="2"/>
     </row>
-    <row r="121" spans="1:19">
+    <row r="121" ht="15.75" customHeight="1">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
@@ -3651,7 +3630,7 @@
       <c r="R121" s="2"/>
       <c r="S121" s="2"/>
     </row>
-    <row r="122" spans="1:19">
+    <row r="122" ht="15.75" customHeight="1">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
@@ -3672,7 +3651,7 @@
       <c r="R122" s="2"/>
       <c r="S122" s="2"/>
     </row>
-    <row r="123" spans="1:19">
+    <row r="123" ht="15.75" customHeight="1">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
@@ -3693,7 +3672,7 @@
       <c r="R123" s="2"/>
       <c r="S123" s="2"/>
     </row>
-    <row r="124" spans="1:19">
+    <row r="124" ht="15.75" customHeight="1">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
@@ -3714,7 +3693,7 @@
       <c r="R124" s="2"/>
       <c r="S124" s="2"/>
     </row>
-    <row r="125" spans="1:19">
+    <row r="125" ht="15.75" customHeight="1">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
@@ -3735,7 +3714,7 @@
       <c r="R125" s="2"/>
       <c r="S125" s="2"/>
     </row>
-    <row r="126" spans="1:19">
+    <row r="126" ht="15.75" customHeight="1">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
@@ -3756,7 +3735,7 @@
       <c r="R126" s="2"/>
       <c r="S126" s="2"/>
     </row>
-    <row r="127" spans="1:19">
+    <row r="127" ht="15.75" customHeight="1">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
@@ -3777,7 +3756,7 @@
       <c r="R127" s="2"/>
       <c r="S127" s="2"/>
     </row>
-    <row r="128" spans="1:19">
+    <row r="128" ht="15.75" customHeight="1">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
@@ -3798,7 +3777,7 @@
       <c r="R128" s="2"/>
       <c r="S128" s="2"/>
     </row>
-    <row r="129" spans="1:19">
+    <row r="129" ht="15.75" customHeight="1">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
@@ -3819,7 +3798,7 @@
       <c r="R129" s="2"/>
       <c r="S129" s="2"/>
     </row>
-    <row r="130" spans="1:19">
+    <row r="130" ht="15.75" customHeight="1">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
@@ -3840,7 +3819,7 @@
       <c r="R130" s="2"/>
       <c r="S130" s="2"/>
     </row>
-    <row r="131" spans="1:19">
+    <row r="131" ht="15.75" customHeight="1">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
@@ -3861,7 +3840,7 @@
       <c r="R131" s="2"/>
       <c r="S131" s="2"/>
     </row>
-    <row r="132" spans="1:19">
+    <row r="132" ht="15.75" customHeight="1">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
@@ -3882,7 +3861,7 @@
       <c r="R132" s="2"/>
       <c r="S132" s="2"/>
     </row>
-    <row r="133" spans="1:19">
+    <row r="133" ht="15.75" customHeight="1">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
@@ -3903,7 +3882,7 @@
       <c r="R133" s="2"/>
       <c r="S133" s="2"/>
     </row>
-    <row r="134" spans="1:19">
+    <row r="134" ht="15.75" customHeight="1">
       <c r="A134" s="2"/>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
@@ -3924,7 +3903,7 @@
       <c r="R134" s="2"/>
       <c r="S134" s="2"/>
     </row>
-    <row r="135" spans="1:19">
+    <row r="135" ht="15.75" customHeight="1">
       <c r="A135" s="2"/>
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
@@ -3945,7 +3924,7 @@
       <c r="R135" s="2"/>
       <c r="S135" s="2"/>
     </row>
-    <row r="136" spans="1:19">
+    <row r="136" ht="15.75" customHeight="1">
       <c r="A136" s="2"/>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
@@ -3966,7 +3945,7 @@
       <c r="R136" s="2"/>
       <c r="S136" s="2"/>
     </row>
-    <row r="137" spans="1:19">
+    <row r="137" ht="15.75" customHeight="1">
       <c r="A137" s="2"/>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
@@ -3987,7 +3966,7 @@
       <c r="R137" s="2"/>
       <c r="S137" s="2"/>
     </row>
-    <row r="138" spans="1:19">
+    <row r="138" ht="15.75" customHeight="1">
       <c r="A138" s="2"/>
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
@@ -4008,7 +3987,7 @@
       <c r="R138" s="2"/>
       <c r="S138" s="2"/>
     </row>
-    <row r="139" spans="1:19">
+    <row r="139" ht="15.75" customHeight="1">
       <c r="A139" s="2"/>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
@@ -4029,7 +4008,7 @@
       <c r="R139" s="2"/>
       <c r="S139" s="2"/>
     </row>
-    <row r="140" spans="1:19">
+    <row r="140" ht="15.75" customHeight="1">
       <c r="A140" s="2"/>
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
@@ -4050,7 +4029,7 @@
       <c r="R140" s="2"/>
       <c r="S140" s="2"/>
     </row>
-    <row r="141" spans="1:19">
+    <row r="141" ht="15.75" customHeight="1">
       <c r="A141" s="2"/>
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
@@ -4071,7 +4050,7 @@
       <c r="R141" s="2"/>
       <c r="S141" s="2"/>
     </row>
-    <row r="142" spans="1:19">
+    <row r="142" ht="15.75" customHeight="1">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
@@ -4092,7 +4071,7 @@
       <c r="R142" s="2"/>
       <c r="S142" s="2"/>
     </row>
-    <row r="143" spans="1:19">
+    <row r="143" ht="15.75" customHeight="1">
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
@@ -4113,7 +4092,7 @@
       <c r="R143" s="2"/>
       <c r="S143" s="2"/>
     </row>
-    <row r="144" spans="1:19">
+    <row r="144" ht="15.75" customHeight="1">
       <c r="A144" s="2"/>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
@@ -4134,7 +4113,7 @@
       <c r="R144" s="2"/>
       <c r="S144" s="2"/>
     </row>
-    <row r="145" spans="1:19">
+    <row r="145" ht="15.75" customHeight="1">
       <c r="A145" s="2"/>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
@@ -4155,7 +4134,7 @@
       <c r="R145" s="2"/>
       <c r="S145" s="2"/>
     </row>
-    <row r="146" spans="1:19">
+    <row r="146" ht="15.75" customHeight="1">
       <c r="A146" s="2"/>
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
@@ -4176,7 +4155,7 @@
       <c r="R146" s="2"/>
       <c r="S146" s="2"/>
     </row>
-    <row r="147" spans="1:19">
+    <row r="147" ht="15.75" customHeight="1">
       <c r="A147" s="2"/>
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
@@ -4197,7 +4176,7 @@
       <c r="R147" s="2"/>
       <c r="S147" s="2"/>
     </row>
-    <row r="148" spans="1:19">
+    <row r="148" ht="15.75" customHeight="1">
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
@@ -4218,7 +4197,7 @@
       <c r="R148" s="2"/>
       <c r="S148" s="2"/>
     </row>
-    <row r="149" spans="1:19">
+    <row r="149" ht="15.75" customHeight="1">
       <c r="A149" s="2"/>
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
@@ -4239,7 +4218,7 @@
       <c r="R149" s="2"/>
       <c r="S149" s="2"/>
     </row>
-    <row r="150" spans="1:19">
+    <row r="150" ht="15.75" customHeight="1">
       <c r="A150" s="2"/>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
@@ -4260,7 +4239,7 @@
       <c r="R150" s="2"/>
       <c r="S150" s="2"/>
     </row>
-    <row r="151" spans="1:19">
+    <row r="151" ht="15.75" customHeight="1">
       <c r="A151" s="2"/>
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
@@ -4281,7 +4260,7 @@
       <c r="R151" s="2"/>
       <c r="S151" s="2"/>
     </row>
-    <row r="152" spans="1:19">
+    <row r="152" ht="15.75" customHeight="1">
       <c r="A152" s="2"/>
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
@@ -4302,7 +4281,7 @@
       <c r="R152" s="2"/>
       <c r="S152" s="2"/>
     </row>
-    <row r="153" spans="1:19">
+    <row r="153" ht="15.75" customHeight="1">
       <c r="A153" s="2"/>
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
@@ -4323,7 +4302,7 @@
       <c r="R153" s="2"/>
       <c r="S153" s="2"/>
     </row>
-    <row r="154" spans="1:19">
+    <row r="154" ht="15.75" customHeight="1">
       <c r="A154" s="2"/>
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
@@ -4344,7 +4323,7 @@
       <c r="R154" s="2"/>
       <c r="S154" s="2"/>
     </row>
-    <row r="155" spans="1:19">
+    <row r="155" ht="15.75" customHeight="1">
       <c r="A155" s="2"/>
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
@@ -4365,7 +4344,7 @@
       <c r="R155" s="2"/>
       <c r="S155" s="2"/>
     </row>
-    <row r="156" spans="1:19">
+    <row r="156" ht="15.75" customHeight="1">
       <c r="A156" s="2"/>
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
@@ -4386,7 +4365,7 @@
       <c r="R156" s="2"/>
       <c r="S156" s="2"/>
     </row>
-    <row r="157" spans="1:19">
+    <row r="157" ht="15.75" customHeight="1">
       <c r="A157" s="2"/>
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
@@ -4407,7 +4386,7 @@
       <c r="R157" s="2"/>
       <c r="S157" s="2"/>
     </row>
-    <row r="158" spans="1:19">
+    <row r="158" ht="15.75" customHeight="1">
       <c r="A158" s="2"/>
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
@@ -4428,7 +4407,7 @@
       <c r="R158" s="2"/>
       <c r="S158" s="2"/>
     </row>
-    <row r="159" spans="1:19">
+    <row r="159" ht="15.75" customHeight="1">
       <c r="A159" s="2"/>
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
@@ -4449,7 +4428,7 @@
       <c r="R159" s="2"/>
       <c r="S159" s="2"/>
     </row>
-    <row r="160" spans="1:19">
+    <row r="160" ht="15.75" customHeight="1">
       <c r="A160" s="2"/>
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
@@ -4470,7 +4449,7 @@
       <c r="R160" s="2"/>
       <c r="S160" s="2"/>
     </row>
-    <row r="161" spans="1:19">
+    <row r="161" ht="15.75" customHeight="1">
       <c r="A161" s="2"/>
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
@@ -4491,7 +4470,7 @@
       <c r="R161" s="2"/>
       <c r="S161" s="2"/>
     </row>
-    <row r="162" spans="1:19">
+    <row r="162" ht="15.75" customHeight="1">
       <c r="A162" s="2"/>
       <c r="B162" s="2"/>
       <c r="C162" s="2"/>
@@ -4512,7 +4491,7 @@
       <c r="R162" s="2"/>
       <c r="S162" s="2"/>
     </row>
-    <row r="163" spans="1:19">
+    <row r="163" ht="15.75" customHeight="1">
       <c r="A163" s="2"/>
       <c r="B163" s="2"/>
       <c r="C163" s="2"/>
@@ -4533,7 +4512,7 @@
       <c r="R163" s="2"/>
       <c r="S163" s="2"/>
     </row>
-    <row r="164" spans="1:19">
+    <row r="164" ht="15.75" customHeight="1">
       <c r="A164" s="2"/>
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
@@ -4554,7 +4533,7 @@
       <c r="R164" s="2"/>
       <c r="S164" s="2"/>
     </row>
-    <row r="165" spans="1:19">
+    <row r="165" ht="15.75" customHeight="1">
       <c r="A165" s="2"/>
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
@@ -4575,7 +4554,7 @@
       <c r="R165" s="2"/>
       <c r="S165" s="2"/>
     </row>
-    <row r="166" spans="1:19">
+    <row r="166" ht="15.75" customHeight="1">
       <c r="A166" s="2"/>
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
@@ -4596,7 +4575,7 @@
       <c r="R166" s="2"/>
       <c r="S166" s="2"/>
     </row>
-    <row r="167" spans="1:19">
+    <row r="167" ht="15.75" customHeight="1">
       <c r="A167" s="2"/>
       <c r="B167" s="2"/>
       <c r="C167" s="2"/>
@@ -4617,7 +4596,7 @@
       <c r="R167" s="2"/>
       <c r="S167" s="2"/>
     </row>
-    <row r="168" spans="1:19">
+    <row r="168" ht="15.75" customHeight="1">
       <c r="A168" s="2"/>
       <c r="B168" s="2"/>
       <c r="C168" s="2"/>
@@ -4638,7 +4617,7 @@
       <c r="R168" s="2"/>
       <c r="S168" s="2"/>
     </row>
-    <row r="169" spans="1:19">
+    <row r="169" ht="15.75" customHeight="1">
       <c r="A169" s="2"/>
       <c r="B169" s="2"/>
       <c r="C169" s="2"/>
@@ -4659,7 +4638,7 @@
       <c r="R169" s="2"/>
       <c r="S169" s="2"/>
     </row>
-    <row r="170" spans="1:19">
+    <row r="170" ht="15.75" customHeight="1">
       <c r="A170" s="2"/>
       <c r="B170" s="2"/>
       <c r="C170" s="2"/>
@@ -4680,7 +4659,7 @@
       <c r="R170" s="2"/>
       <c r="S170" s="2"/>
     </row>
-    <row r="171" spans="1:19">
+    <row r="171" ht="15.75" customHeight="1">
       <c r="A171" s="2"/>
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
@@ -4701,7 +4680,7 @@
       <c r="R171" s="2"/>
       <c r="S171" s="2"/>
     </row>
-    <row r="172" spans="1:19">
+    <row r="172" ht="15.75" customHeight="1">
       <c r="A172" s="2"/>
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
@@ -4722,7 +4701,7 @@
       <c r="R172" s="2"/>
       <c r="S172" s="2"/>
     </row>
-    <row r="173" spans="1:19">
+    <row r="173" ht="15.75" customHeight="1">
       <c r="A173" s="2"/>
       <c r="B173" s="2"/>
       <c r="C173" s="2"/>
@@ -4743,7 +4722,7 @@
       <c r="R173" s="2"/>
       <c r="S173" s="2"/>
     </row>
-    <row r="174" spans="1:19">
+    <row r="174" ht="15.75" customHeight="1">
       <c r="A174" s="2"/>
       <c r="B174" s="2"/>
       <c r="C174" s="2"/>
@@ -4764,7 +4743,7 @@
       <c r="R174" s="2"/>
       <c r="S174" s="2"/>
     </row>
-    <row r="175" spans="1:19">
+    <row r="175" ht="15.75" customHeight="1">
       <c r="A175" s="2"/>
       <c r="B175" s="2"/>
       <c r="C175" s="2"/>
@@ -4785,7 +4764,7 @@
       <c r="R175" s="2"/>
       <c r="S175" s="2"/>
     </row>
-    <row r="176" spans="1:19">
+    <row r="176" ht="15.75" customHeight="1">
       <c r="A176" s="2"/>
       <c r="B176" s="2"/>
       <c r="C176" s="2"/>
@@ -4806,7 +4785,7 @@
       <c r="R176" s="2"/>
       <c r="S176" s="2"/>
     </row>
-    <row r="177" spans="1:19">
+    <row r="177" ht="15.75" customHeight="1">
       <c r="A177" s="2"/>
       <c r="B177" s="2"/>
       <c r="C177" s="2"/>
@@ -4827,7 +4806,7 @@
       <c r="R177" s="2"/>
       <c r="S177" s="2"/>
     </row>
-    <row r="178" spans="1:19">
+    <row r="178" ht="15.75" customHeight="1">
       <c r="A178" s="2"/>
       <c r="B178" s="2"/>
       <c r="C178" s="2"/>
@@ -4848,7 +4827,7 @@
       <c r="R178" s="2"/>
       <c r="S178" s="2"/>
     </row>
-    <row r="179" spans="1:19">
+    <row r="179" ht="15.75" customHeight="1">
       <c r="A179" s="2"/>
       <c r="B179" s="2"/>
       <c r="C179" s="2"/>
@@ -4869,7 +4848,7 @@
       <c r="R179" s="2"/>
       <c r="S179" s="2"/>
     </row>
-    <row r="180" spans="1:19">
+    <row r="180" ht="15.75" customHeight="1">
       <c r="A180" s="2"/>
       <c r="B180" s="2"/>
       <c r="C180" s="2"/>
@@ -4890,7 +4869,7 @@
       <c r="R180" s="2"/>
       <c r="S180" s="2"/>
     </row>
-    <row r="181" spans="1:19">
+    <row r="181" ht="15.75" customHeight="1">
       <c r="A181" s="2"/>
       <c r="B181" s="2"/>
       <c r="C181" s="2"/>
@@ -4911,7 +4890,7 @@
       <c r="R181" s="2"/>
       <c r="S181" s="2"/>
     </row>
-    <row r="182" spans="1:19">
+    <row r="182" ht="15.75" customHeight="1">
       <c r="A182" s="2"/>
       <c r="B182" s="2"/>
       <c r="C182" s="2"/>
@@ -4932,7 +4911,7 @@
       <c r="R182" s="2"/>
       <c r="S182" s="2"/>
     </row>
-    <row r="183" spans="1:19">
+    <row r="183" ht="15.75" customHeight="1">
       <c r="A183" s="2"/>
       <c r="B183" s="2"/>
       <c r="C183" s="2"/>
@@ -4953,7 +4932,7 @@
       <c r="R183" s="2"/>
       <c r="S183" s="2"/>
     </row>
-    <row r="184" spans="1:19">
+    <row r="184" ht="15.75" customHeight="1">
       <c r="A184" s="2"/>
       <c r="B184" s="2"/>
       <c r="C184" s="2"/>
@@ -4974,7 +4953,7 @@
       <c r="R184" s="2"/>
       <c r="S184" s="2"/>
     </row>
-    <row r="185" spans="1:19">
+    <row r="185" ht="15.75" customHeight="1">
       <c r="A185" s="2"/>
       <c r="B185" s="2"/>
       <c r="C185" s="2"/>
@@ -4995,7 +4974,7 @@
       <c r="R185" s="2"/>
       <c r="S185" s="2"/>
     </row>
-    <row r="186" spans="1:19">
+    <row r="186" ht="15.75" customHeight="1">
       <c r="A186" s="2"/>
       <c r="B186" s="2"/>
       <c r="C186" s="2"/>
@@ -5016,7 +4995,7 @@
       <c r="R186" s="2"/>
       <c r="S186" s="2"/>
     </row>
-    <row r="187" spans="1:19">
+    <row r="187" ht="15.75" customHeight="1">
       <c r="A187" s="2"/>
       <c r="B187" s="2"/>
       <c r="C187" s="2"/>
@@ -5037,7 +5016,7 @@
       <c r="R187" s="2"/>
       <c r="S187" s="2"/>
     </row>
-    <row r="188" spans="1:19">
+    <row r="188" ht="15.75" customHeight="1">
       <c r="A188" s="2"/>
       <c r="B188" s="2"/>
       <c r="C188" s="2"/>
@@ -5058,7 +5037,7 @@
       <c r="R188" s="2"/>
       <c r="S188" s="2"/>
     </row>
-    <row r="189" spans="1:19">
+    <row r="189" ht="15.75" customHeight="1">
       <c r="A189" s="2"/>
       <c r="B189" s="2"/>
       <c r="C189" s="2"/>
@@ -5079,7 +5058,7 @@
       <c r="R189" s="2"/>
       <c r="S189" s="2"/>
     </row>
-    <row r="190" spans="1:19">
+    <row r="190" ht="15.75" customHeight="1">
       <c r="A190" s="2"/>
       <c r="B190" s="2"/>
       <c r="C190" s="2"/>
@@ -5100,7 +5079,7 @@
       <c r="R190" s="2"/>
       <c r="S190" s="2"/>
     </row>
-    <row r="191" spans="1:19">
+    <row r="191" ht="15.75" customHeight="1">
       <c r="A191" s="2"/>
       <c r="B191" s="2"/>
       <c r="C191" s="2"/>
@@ -5121,7 +5100,7 @@
       <c r="R191" s="2"/>
       <c r="S191" s="2"/>
     </row>
-    <row r="192" spans="1:19">
+    <row r="192" ht="15.75" customHeight="1">
       <c r="A192" s="2"/>
       <c r="B192" s="2"/>
       <c r="C192" s="2"/>
@@ -5142,7 +5121,7 @@
       <c r="R192" s="2"/>
       <c r="S192" s="2"/>
     </row>
-    <row r="193" spans="1:19">
+    <row r="193" ht="15.75" customHeight="1">
       <c r="A193" s="2"/>
       <c r="B193" s="2"/>
       <c r="C193" s="2"/>
@@ -5163,7 +5142,7 @@
       <c r="R193" s="2"/>
       <c r="S193" s="2"/>
     </row>
-    <row r="194" spans="1:19">
+    <row r="194" ht="15.75" customHeight="1">
       <c r="A194" s="2"/>
       <c r="B194" s="2"/>
       <c r="C194" s="2"/>
@@ -5184,7 +5163,7 @@
       <c r="R194" s="2"/>
       <c r="S194" s="2"/>
     </row>
-    <row r="195" spans="1:19">
+    <row r="195" ht="15.75" customHeight="1">
       <c r="A195" s="2"/>
       <c r="B195" s="2"/>
       <c r="C195" s="2"/>
@@ -5205,7 +5184,7 @@
       <c r="R195" s="2"/>
       <c r="S195" s="2"/>
     </row>
-    <row r="196" spans="1:19">
+    <row r="196" ht="15.75" customHeight="1">
       <c r="A196" s="2"/>
       <c r="B196" s="2"/>
       <c r="C196" s="2"/>
@@ -5226,7 +5205,7 @@
       <c r="R196" s="2"/>
       <c r="S196" s="2"/>
     </row>
-    <row r="197" spans="1:19">
+    <row r="197" ht="15.75" customHeight="1">
       <c r="A197" s="2"/>
       <c r="B197" s="2"/>
       <c r="C197" s="2"/>
@@ -5247,7 +5226,7 @@
       <c r="R197" s="2"/>
       <c r="S197" s="2"/>
     </row>
-    <row r="198" spans="1:19">
+    <row r="198" ht="15.75" customHeight="1">
       <c r="A198" s="2"/>
       <c r="B198" s="2"/>
       <c r="C198" s="2"/>
@@ -5268,7 +5247,7 @@
       <c r="R198" s="2"/>
       <c r="S198" s="2"/>
     </row>
-    <row r="199" spans="1:19">
+    <row r="199" ht="15.75" customHeight="1">
       <c r="A199" s="2"/>
       <c r="B199" s="2"/>
       <c r="C199" s="2"/>
@@ -5289,7 +5268,7 @@
       <c r="R199" s="2"/>
       <c r="S199" s="2"/>
     </row>
-    <row r="200" spans="1:19">
+    <row r="200" ht="15.75" customHeight="1">
       <c r="A200" s="2"/>
       <c r="B200" s="2"/>
       <c r="C200" s="2"/>
@@ -5310,7 +5289,7 @@
       <c r="R200" s="2"/>
       <c r="S200" s="2"/>
     </row>
-    <row r="201" spans="1:19">
+    <row r="201" ht="15.75" customHeight="1">
       <c r="A201" s="2"/>
       <c r="B201" s="2"/>
       <c r="C201" s="2"/>
@@ -5331,7 +5310,7 @@
       <c r="R201" s="2"/>
       <c r="S201" s="2"/>
     </row>
-    <row r="202" spans="1:19">
+    <row r="202" ht="15.75" customHeight="1">
       <c r="A202" s="2"/>
       <c r="B202" s="2"/>
       <c r="C202" s="2"/>
@@ -5352,7 +5331,7 @@
       <c r="R202" s="2"/>
       <c r="S202" s="2"/>
     </row>
-    <row r="203" spans="1:19">
+    <row r="203" ht="15.75" customHeight="1">
       <c r="A203" s="2"/>
       <c r="B203" s="2"/>
       <c r="C203" s="2"/>
@@ -5373,7 +5352,7 @@
       <c r="R203" s="2"/>
       <c r="S203" s="2"/>
     </row>
-    <row r="204" spans="1:19">
+    <row r="204" ht="15.75" customHeight="1">
       <c r="A204" s="2"/>
       <c r="B204" s="2"/>
       <c r="C204" s="2"/>
@@ -5394,7 +5373,7 @@
       <c r="R204" s="2"/>
       <c r="S204" s="2"/>
     </row>
-    <row r="205" spans="1:19">
+    <row r="205" ht="15.75" customHeight="1">
       <c r="A205" s="2"/>
       <c r="B205" s="2"/>
       <c r="C205" s="2"/>
@@ -5415,7 +5394,7 @@
       <c r="R205" s="2"/>
       <c r="S205" s="2"/>
     </row>
-    <row r="206" spans="1:19">
+    <row r="206" ht="15.75" customHeight="1">
       <c r="A206" s="2"/>
       <c r="B206" s="2"/>
       <c r="C206" s="2"/>
@@ -5436,7 +5415,7 @@
       <c r="R206" s="2"/>
       <c r="S206" s="2"/>
     </row>
-    <row r="207" spans="1:19">
+    <row r="207" ht="15.75" customHeight="1">
       <c r="A207" s="2"/>
       <c r="B207" s="2"/>
       <c r="C207" s="2"/>
@@ -5457,7 +5436,7 @@
       <c r="R207" s="2"/>
       <c r="S207" s="2"/>
     </row>
-    <row r="208" spans="1:19">
+    <row r="208" ht="15.75" customHeight="1">
       <c r="A208" s="2"/>
       <c r="B208" s="2"/>
       <c r="C208" s="2"/>
@@ -5478,7 +5457,7 @@
       <c r="R208" s="2"/>
       <c r="S208" s="2"/>
     </row>
-    <row r="209" spans="1:19">
+    <row r="209" ht="15.75" customHeight="1">
       <c r="A209" s="2"/>
       <c r="B209" s="2"/>
       <c r="C209" s="2"/>
@@ -5499,7 +5478,7 @@
       <c r="R209" s="2"/>
       <c r="S209" s="2"/>
     </row>
-    <row r="210" spans="1:19">
+    <row r="210" ht="15.75" customHeight="1">
       <c r="A210" s="2"/>
       <c r="B210" s="2"/>
       <c r="C210" s="2"/>
@@ -5520,7 +5499,7 @@
       <c r="R210" s="2"/>
       <c r="S210" s="2"/>
     </row>
-    <row r="211" spans="1:19">
+    <row r="211" ht="15.75" customHeight="1">
       <c r="A211" s="2"/>
       <c r="B211" s="2"/>
       <c r="C211" s="2"/>
@@ -5541,7 +5520,7 @@
       <c r="R211" s="2"/>
       <c r="S211" s="2"/>
     </row>
-    <row r="212" spans="1:19">
+    <row r="212" ht="15.75" customHeight="1">
       <c r="A212" s="2"/>
       <c r="B212" s="2"/>
       <c r="C212" s="2"/>
@@ -5562,7 +5541,7 @@
       <c r="R212" s="2"/>
       <c r="S212" s="2"/>
     </row>
-    <row r="213" spans="1:19">
+    <row r="213" ht="15.75" customHeight="1">
       <c r="A213" s="2"/>
       <c r="B213" s="2"/>
       <c r="C213" s="2"/>
@@ -5583,7 +5562,7 @@
       <c r="R213" s="2"/>
       <c r="S213" s="2"/>
     </row>
-    <row r="214" spans="1:19">
+    <row r="214" ht="15.75" customHeight="1">
       <c r="A214" s="2"/>
       <c r="B214" s="2"/>
       <c r="C214" s="2"/>
@@ -5604,7 +5583,7 @@
       <c r="R214" s="2"/>
       <c r="S214" s="2"/>
     </row>
-    <row r="215" spans="1:19">
+    <row r="215" ht="15.75" customHeight="1">
       <c r="A215" s="2"/>
       <c r="B215" s="2"/>
       <c r="C215" s="2"/>
@@ -5625,7 +5604,7 @@
       <c r="R215" s="2"/>
       <c r="S215" s="2"/>
     </row>
-    <row r="216" spans="1:19">
+    <row r="216" ht="15.75" customHeight="1">
       <c r="A216" s="2"/>
       <c r="B216" s="2"/>
       <c r="C216" s="2"/>
@@ -5646,7 +5625,7 @@
       <c r="R216" s="2"/>
       <c r="S216" s="2"/>
     </row>
-    <row r="217" spans="1:19">
+    <row r="217" ht="15.75" customHeight="1">
       <c r="A217" s="2"/>
       <c r="B217" s="2"/>
       <c r="C217" s="2"/>
@@ -5667,7 +5646,7 @@
       <c r="R217" s="2"/>
       <c r="S217" s="2"/>
     </row>
-    <row r="218" spans="1:19">
+    <row r="218" ht="15.75" customHeight="1">
       <c r="A218" s="2"/>
       <c r="B218" s="2"/>
       <c r="C218" s="2"/>
@@ -5688,7 +5667,7 @@
       <c r="R218" s="2"/>
       <c r="S218" s="2"/>
     </row>
-    <row r="219" spans="1:19">
+    <row r="219" ht="15.75" customHeight="1">
       <c r="A219" s="2"/>
       <c r="B219" s="2"/>
       <c r="C219" s="2"/>
@@ -5709,7 +5688,7 @@
       <c r="R219" s="2"/>
       <c r="S219" s="2"/>
     </row>
-    <row r="220" spans="1:19">
+    <row r="220" ht="15.75" customHeight="1">
       <c r="A220" s="2"/>
       <c r="B220" s="2"/>
       <c r="C220" s="2"/>
@@ -5730,7 +5709,7 @@
       <c r="R220" s="2"/>
       <c r="S220" s="2"/>
     </row>
-    <row r="221" spans="1:19">
+    <row r="221" ht="15.75" customHeight="1">
       <c r="A221" s="2"/>
       <c r="B221" s="2"/>
       <c r="C221" s="2"/>
@@ -5751,7 +5730,7 @@
       <c r="R221" s="2"/>
       <c r="S221" s="2"/>
     </row>
-    <row r="222" spans="1:19">
+    <row r="222" ht="15.75" customHeight="1">
       <c r="A222" s="2"/>
       <c r="B222" s="2"/>
       <c r="C222" s="2"/>
@@ -5772,7 +5751,7 @@
       <c r="R222" s="2"/>
       <c r="S222" s="2"/>
     </row>
-    <row r="223" spans="1:19">
+    <row r="223" ht="15.75" customHeight="1">
       <c r="A223" s="2"/>
       <c r="B223" s="2"/>
       <c r="C223" s="2"/>
@@ -5793,7 +5772,7 @@
       <c r="R223" s="2"/>
       <c r="S223" s="2"/>
     </row>
-    <row r="224" spans="1:19">
+    <row r="224" ht="15.75" customHeight="1">
       <c r="A224" s="2"/>
       <c r="B224" s="2"/>
       <c r="C224" s="2"/>
@@ -5814,7 +5793,7 @@
       <c r="R224" s="2"/>
       <c r="S224" s="2"/>
     </row>
-    <row r="225" spans="1:19">
+    <row r="225" ht="15.75" customHeight="1">
       <c r="A225" s="2"/>
       <c r="B225" s="2"/>
       <c r="C225" s="2"/>
@@ -5835,7 +5814,7 @@
       <c r="R225" s="2"/>
       <c r="S225" s="2"/>
     </row>
-    <row r="226" spans="1:19">
+    <row r="226" ht="15.75" customHeight="1">
       <c r="A226" s="2"/>
       <c r="B226" s="2"/>
       <c r="C226" s="2"/>
@@ -5856,7 +5835,7 @@
       <c r="R226" s="2"/>
       <c r="S226" s="2"/>
     </row>
-    <row r="227" spans="1:19">
+    <row r="227" ht="15.75" customHeight="1">
       <c r="A227" s="2"/>
       <c r="B227" s="2"/>
       <c r="C227" s="2"/>
@@ -5877,7 +5856,7 @@
       <c r="R227" s="2"/>
       <c r="S227" s="2"/>
     </row>
-    <row r="228" spans="1:19">
+    <row r="228" ht="15.75" customHeight="1">
       <c r="A228" s="2"/>
       <c r="B228" s="2"/>
       <c r="C228" s="2"/>
@@ -5898,7 +5877,7 @@
       <c r="R228" s="2"/>
       <c r="S228" s="2"/>
     </row>
-    <row r="229" spans="1:19">
+    <row r="229" ht="15.75" customHeight="1">
       <c r="A229" s="2"/>
       <c r="B229" s="2"/>
       <c r="C229" s="2"/>
@@ -5919,7 +5898,7 @@
       <c r="R229" s="2"/>
       <c r="S229" s="2"/>
     </row>
-    <row r="230" spans="1:19">
+    <row r="230" ht="15.75" customHeight="1">
       <c r="A230" s="2"/>
       <c r="B230" s="2"/>
       <c r="C230" s="2"/>
@@ -5940,7 +5919,7 @@
       <c r="R230" s="2"/>
       <c r="S230" s="2"/>
     </row>
-    <row r="231" spans="1:19">
+    <row r="231" ht="15.75" customHeight="1">
       <c r="A231" s="2"/>
       <c r="B231" s="2"/>
       <c r="C231" s="2"/>
@@ -5961,7 +5940,7 @@
       <c r="R231" s="2"/>
       <c r="S231" s="2"/>
     </row>
-    <row r="232" spans="1:19">
+    <row r="232" ht="15.75" customHeight="1">
       <c r="A232" s="2"/>
       <c r="B232" s="2"/>
       <c r="C232" s="2"/>
@@ -5982,7 +5961,7 @@
       <c r="R232" s="2"/>
       <c r="S232" s="2"/>
     </row>
-    <row r="233" spans="1:19">
+    <row r="233" ht="15.75" customHeight="1">
       <c r="A233" s="2"/>
       <c r="B233" s="2"/>
       <c r="C233" s="2"/>
@@ -6003,7 +5982,7 @@
       <c r="R233" s="2"/>
       <c r="S233" s="2"/>
     </row>
-    <row r="234" spans="1:19">
+    <row r="234" ht="15.75" customHeight="1">
       <c r="A234" s="2"/>
       <c r="B234" s="2"/>
       <c r="C234" s="2"/>
@@ -6024,7 +6003,7 @@
       <c r="R234" s="2"/>
       <c r="S234" s="2"/>
     </row>
-    <row r="235" spans="1:19">
+    <row r="235" ht="15.75" customHeight="1">
       <c r="A235" s="2"/>
       <c r="B235" s="2"/>
       <c r="C235" s="2"/>
@@ -6045,7 +6024,7 @@
       <c r="R235" s="2"/>
       <c r="S235" s="2"/>
     </row>
-    <row r="236" spans="1:19">
+    <row r="236" ht="15.75" customHeight="1">
       <c r="A236" s="2"/>
       <c r="B236" s="2"/>
       <c r="C236" s="2"/>
@@ -6066,7 +6045,7 @@
       <c r="R236" s="2"/>
       <c r="S236" s="2"/>
     </row>
-    <row r="237" spans="1:19">
+    <row r="237" ht="15.75" customHeight="1">
       <c r="A237" s="2"/>
       <c r="B237" s="2"/>
       <c r="C237" s="2"/>
@@ -6087,7 +6066,7 @@
       <c r="R237" s="2"/>
       <c r="S237" s="2"/>
     </row>
-    <row r="238" spans="1:19">
+    <row r="238" ht="15.75" customHeight="1">
       <c r="A238" s="2"/>
       <c r="B238" s="2"/>
       <c r="C238" s="2"/>
@@ -6108,7 +6087,7 @@
       <c r="R238" s="2"/>
       <c r="S238" s="2"/>
     </row>
-    <row r="239" spans="1:19">
+    <row r="239" ht="15.75" customHeight="1">
       <c r="A239" s="2"/>
       <c r="B239" s="2"/>
       <c r="C239" s="2"/>
@@ -6129,7 +6108,7 @@
       <c r="R239" s="2"/>
       <c r="S239" s="2"/>
     </row>
-    <row r="240" spans="1:19">
+    <row r="240" ht="15.75" customHeight="1">
       <c r="A240" s="2"/>
       <c r="B240" s="2"/>
       <c r="C240" s="2"/>
@@ -6150,7 +6129,7 @@
       <c r="R240" s="2"/>
       <c r="S240" s="2"/>
     </row>
-    <row r="241" spans="1:19">
+    <row r="241" ht="15.75" customHeight="1">
       <c r="A241" s="2"/>
       <c r="B241" s="2"/>
       <c r="C241" s="2"/>
@@ -6171,7 +6150,7 @@
       <c r="R241" s="2"/>
       <c r="S241" s="2"/>
     </row>
-    <row r="242" spans="1:19">
+    <row r="242" ht="15.75" customHeight="1">
       <c r="A242" s="2"/>
       <c r="B242" s="2"/>
       <c r="C242" s="2"/>
@@ -6192,7 +6171,7 @@
       <c r="R242" s="2"/>
       <c r="S242" s="2"/>
     </row>
-    <row r="243" spans="1:19">
+    <row r="243" ht="15.75" customHeight="1">
       <c r="A243" s="2"/>
       <c r="B243" s="2"/>
       <c r="C243" s="2"/>
@@ -6213,7 +6192,7 @@
       <c r="R243" s="2"/>
       <c r="S243" s="2"/>
     </row>
-    <row r="244" spans="1:19">
+    <row r="244" ht="15.75" customHeight="1">
       <c r="A244" s="2"/>
       <c r="B244" s="2"/>
       <c r="C244" s="2"/>
@@ -6234,7 +6213,7 @@
       <c r="R244" s="2"/>
       <c r="S244" s="2"/>
     </row>
-    <row r="245" spans="1:19">
+    <row r="245" ht="15.75" customHeight="1">
       <c r="A245" s="2"/>
       <c r="B245" s="2"/>
       <c r="C245" s="2"/>
@@ -6255,7 +6234,7 @@
       <c r="R245" s="2"/>
       <c r="S245" s="2"/>
     </row>
-    <row r="246" spans="1:19">
+    <row r="246" ht="15.75" customHeight="1">
       <c r="A246" s="2"/>
       <c r="B246" s="2"/>
       <c r="C246" s="2"/>
@@ -6276,7 +6255,7 @@
       <c r="R246" s="2"/>
       <c r="S246" s="2"/>
     </row>
-    <row r="247" spans="1:19">
+    <row r="247" ht="15.75" customHeight="1">
       <c r="A247" s="2"/>
       <c r="B247" s="2"/>
       <c r="C247" s="2"/>
@@ -6297,7 +6276,7 @@
       <c r="R247" s="2"/>
       <c r="S247" s="2"/>
     </row>
-    <row r="248" spans="1:19">
+    <row r="248" ht="15.75" customHeight="1">
       <c r="A248" s="2"/>
       <c r="B248" s="2"/>
       <c r="C248" s="2"/>
@@ -6318,7 +6297,7 @@
       <c r="R248" s="2"/>
       <c r="S248" s="2"/>
     </row>
-    <row r="249" spans="1:19">
+    <row r="249" ht="15.75" customHeight="1">
       <c r="A249" s="2"/>
       <c r="B249" s="2"/>
       <c r="C249" s="2"/>
@@ -6339,7 +6318,7 @@
       <c r="R249" s="2"/>
       <c r="S249" s="2"/>
     </row>
-    <row r="250" spans="1:19">
+    <row r="250" ht="15.75" customHeight="1">
       <c r="A250" s="2"/>
       <c r="B250" s="2"/>
       <c r="C250" s="2"/>
@@ -6360,7 +6339,7 @@
       <c r="R250" s="2"/>
       <c r="S250" s="2"/>
     </row>
-    <row r="251" spans="1:19">
+    <row r="251" ht="15.75" customHeight="1">
       <c r="A251" s="2"/>
       <c r="B251" s="2"/>
       <c r="C251" s="2"/>
@@ -6381,7 +6360,7 @@
       <c r="R251" s="2"/>
       <c r="S251" s="2"/>
     </row>
-    <row r="252" spans="1:19">
+    <row r="252" ht="15.75" customHeight="1">
       <c r="A252" s="2"/>
       <c r="B252" s="2"/>
       <c r="C252" s="2"/>
@@ -6402,7 +6381,7 @@
       <c r="R252" s="2"/>
       <c r="S252" s="2"/>
     </row>
-    <row r="253" spans="1:19">
+    <row r="253" ht="15.75" customHeight="1">
       <c r="A253" s="2"/>
       <c r="B253" s="2"/>
       <c r="C253" s="2"/>
@@ -6423,7 +6402,7 @@
       <c r="R253" s="2"/>
       <c r="S253" s="2"/>
     </row>
-    <row r="254" spans="1:19">
+    <row r="254" ht="15.75" customHeight="1">
       <c r="A254" s="2"/>
       <c r="B254" s="2"/>
       <c r="C254" s="2"/>
@@ -6444,7 +6423,7 @@
       <c r="R254" s="2"/>
       <c r="S254" s="2"/>
     </row>
-    <row r="255" spans="1:19">
+    <row r="255" ht="15.75" customHeight="1">
       <c r="A255" s="2"/>
       <c r="B255" s="2"/>
       <c r="C255" s="2"/>
@@ -6465,7 +6444,7 @@
       <c r="R255" s="2"/>
       <c r="S255" s="2"/>
     </row>
-    <row r="256" spans="1:19">
+    <row r="256" ht="15.75" customHeight="1">
       <c r="A256" s="2"/>
       <c r="B256" s="2"/>
       <c r="C256" s="2"/>
@@ -6486,7 +6465,7 @@
       <c r="R256" s="2"/>
       <c r="S256" s="2"/>
     </row>
-    <row r="257" spans="1:19">
+    <row r="257" ht="15.75" customHeight="1">
       <c r="A257" s="2"/>
       <c r="B257" s="2"/>
       <c r="C257" s="2"/>
@@ -6507,7 +6486,7 @@
       <c r="R257" s="2"/>
       <c r="S257" s="2"/>
     </row>
-    <row r="258" spans="1:19">
+    <row r="258" ht="15.75" customHeight="1">
       <c r="A258" s="2"/>
       <c r="B258" s="2"/>
       <c r="C258" s="2"/>
@@ -6528,7 +6507,7 @@
       <c r="R258" s="2"/>
       <c r="S258" s="2"/>
     </row>
-    <row r="259" spans="1:19">
+    <row r="259" ht="15.75" customHeight="1">
       <c r="A259" s="2"/>
       <c r="B259" s="2"/>
       <c r="C259" s="2"/>
@@ -6549,7 +6528,7 @@
       <c r="R259" s="2"/>
       <c r="S259" s="2"/>
     </row>
-    <row r="260" spans="1:19">
+    <row r="260" ht="15.75" customHeight="1">
       <c r="A260" s="2"/>
       <c r="B260" s="2"/>
       <c r="C260" s="2"/>
@@ -6570,7 +6549,7 @@
       <c r="R260" s="2"/>
       <c r="S260" s="2"/>
     </row>
-    <row r="261" spans="1:19">
+    <row r="261" ht="15.75" customHeight="1">
       <c r="A261" s="2"/>
       <c r="B261" s="2"/>
       <c r="C261" s="2"/>
@@ -6591,7 +6570,7 @@
       <c r="R261" s="2"/>
       <c r="S261" s="2"/>
     </row>
-    <row r="262" spans="1:19">
+    <row r="262" ht="15.75" customHeight="1">
       <c r="A262" s="2"/>
       <c r="B262" s="2"/>
       <c r="C262" s="2"/>
@@ -6612,7 +6591,7 @@
       <c r="R262" s="2"/>
       <c r="S262" s="2"/>
     </row>
-    <row r="263" spans="1:19">
+    <row r="263" ht="15.75" customHeight="1">
       <c r="A263" s="2"/>
       <c r="B263" s="2"/>
       <c r="C263" s="2"/>
@@ -6633,7 +6612,7 @@
       <c r="R263" s="2"/>
       <c r="S263" s="2"/>
     </row>
-    <row r="264" spans="1:19">
+    <row r="264" ht="15.75" customHeight="1">
       <c r="A264" s="2"/>
       <c r="B264" s="2"/>
       <c r="C264" s="2"/>
@@ -6654,7 +6633,7 @@
       <c r="R264" s="2"/>
       <c r="S264" s="2"/>
     </row>
-    <row r="265" spans="1:19">
+    <row r="265" ht="15.75" customHeight="1">
       <c r="A265" s="2"/>
       <c r="B265" s="2"/>
       <c r="C265" s="2"/>
@@ -6675,7 +6654,7 @@
       <c r="R265" s="2"/>
       <c r="S265" s="2"/>
     </row>
-    <row r="266" spans="1:19">
+    <row r="266" ht="15.75" customHeight="1">
       <c r="A266" s="2"/>
       <c r="B266" s="2"/>
       <c r="C266" s="2"/>
@@ -6696,7 +6675,7 @@
       <c r="R266" s="2"/>
       <c r="S266" s="2"/>
     </row>
-    <row r="267" spans="1:19">
+    <row r="267" ht="15.75" customHeight="1">
       <c r="A267" s="2"/>
       <c r="B267" s="2"/>
       <c r="C267" s="2"/>
@@ -6717,7 +6696,7 @@
       <c r="R267" s="2"/>
       <c r="S267" s="2"/>
     </row>
-    <row r="268" spans="1:19">
+    <row r="268" ht="15.75" customHeight="1">
       <c r="A268" s="2"/>
       <c r="B268" s="2"/>
       <c r="C268" s="2"/>
@@ -6738,7 +6717,7 @@
       <c r="R268" s="2"/>
       <c r="S268" s="2"/>
     </row>
-    <row r="269" spans="1:19">
+    <row r="269" ht="15.75" customHeight="1">
       <c r="A269" s="2"/>
       <c r="B269" s="2"/>
       <c r="C269" s="2"/>
@@ -6759,7 +6738,7 @@
       <c r="R269" s="2"/>
       <c r="S269" s="2"/>
     </row>
-    <row r="270" spans="1:19">
+    <row r="270" ht="15.75" customHeight="1">
       <c r="A270" s="2"/>
       <c r="B270" s="2"/>
       <c r="C270" s="2"/>
@@ -6780,7 +6759,7 @@
       <c r="R270" s="2"/>
       <c r="S270" s="2"/>
     </row>
-    <row r="271" spans="1:19">
+    <row r="271" ht="15.75" customHeight="1">
       <c r="A271" s="2"/>
       <c r="B271" s="2"/>
       <c r="C271" s="2"/>
@@ -6801,7 +6780,7 @@
       <c r="R271" s="2"/>
       <c r="S271" s="2"/>
     </row>
-    <row r="272" spans="1:19">
+    <row r="272" ht="15.75" customHeight="1">
       <c r="A272" s="2"/>
       <c r="B272" s="2"/>
       <c r="C272" s="2"/>
@@ -6822,7 +6801,7 @@
       <c r="R272" s="2"/>
       <c r="S272" s="2"/>
     </row>
-    <row r="273" spans="1:19">
+    <row r="273" ht="15.75" customHeight="1">
       <c r="A273" s="2"/>
       <c r="B273" s="2"/>
       <c r="C273" s="2"/>
@@ -6843,7 +6822,7 @@
       <c r="R273" s="2"/>
       <c r="S273" s="2"/>
     </row>
-    <row r="274" spans="1:19">
+    <row r="274" ht="15.75" customHeight="1">
       <c r="A274" s="2"/>
       <c r="B274" s="2"/>
       <c r="C274" s="2"/>
@@ -6864,7 +6843,7 @@
       <c r="R274" s="2"/>
       <c r="S274" s="2"/>
     </row>
-    <row r="275" spans="1:19">
+    <row r="275" ht="15.75" customHeight="1">
       <c r="A275" s="2"/>
       <c r="B275" s="2"/>
       <c r="C275" s="2"/>
@@ -6885,7 +6864,7 @@
       <c r="R275" s="2"/>
       <c r="S275" s="2"/>
     </row>
-    <row r="276" spans="1:19">
+    <row r="276" ht="15.75" customHeight="1">
       <c r="A276" s="2"/>
       <c r="B276" s="2"/>
       <c r="C276" s="2"/>
@@ -6906,7 +6885,7 @@
       <c r="R276" s="2"/>
       <c r="S276" s="2"/>
     </row>
-    <row r="277" spans="1:19">
+    <row r="277" ht="15.75" customHeight="1">
       <c r="A277" s="2"/>
       <c r="B277" s="2"/>
       <c r="C277" s="2"/>
@@ -6927,7 +6906,7 @@
       <c r="R277" s="2"/>
       <c r="S277" s="2"/>
     </row>
-    <row r="278" spans="1:19">
+    <row r="278" ht="15.75" customHeight="1">
       <c r="A278" s="2"/>
       <c r="B278" s="2"/>
       <c r="C278" s="2"/>
@@ -6948,7 +6927,7 @@
       <c r="R278" s="2"/>
       <c r="S278" s="2"/>
     </row>
-    <row r="279" spans="1:19">
+    <row r="279" ht="15.75" customHeight="1">
       <c r="A279" s="2"/>
       <c r="B279" s="2"/>
       <c r="C279" s="2"/>
@@ -6969,7 +6948,7 @@
       <c r="R279" s="2"/>
       <c r="S279" s="2"/>
     </row>
-    <row r="280" spans="1:19">
+    <row r="280" ht="15.75" customHeight="1">
       <c r="A280" s="2"/>
       <c r="B280" s="2"/>
       <c r="C280" s="2"/>
@@ -6990,7 +6969,7 @@
       <c r="R280" s="2"/>
       <c r="S280" s="2"/>
     </row>
-    <row r="281" spans="1:19">
+    <row r="281" ht="15.75" customHeight="1">
       <c r="A281" s="2"/>
       <c r="B281" s="2"/>
       <c r="C281" s="2"/>
@@ -7011,7 +6990,7 @@
       <c r="R281" s="2"/>
       <c r="S281" s="2"/>
     </row>
-    <row r="282" spans="1:19">
+    <row r="282" ht="15.75" customHeight="1">
       <c r="A282" s="2"/>
       <c r="B282" s="2"/>
       <c r="C282" s="2"/>
@@ -7032,7 +7011,7 @@
       <c r="R282" s="2"/>
       <c r="S282" s="2"/>
     </row>
-    <row r="283" spans="1:19">
+    <row r="283" ht="15.75" customHeight="1">
       <c r="A283" s="2"/>
       <c r="B283" s="2"/>
       <c r="C283" s="2"/>
@@ -7053,7 +7032,7 @@
       <c r="R283" s="2"/>
       <c r="S283" s="2"/>
     </row>
-    <row r="284" spans="1:19">
+    <row r="284" ht="15.75" customHeight="1">
       <c r="A284" s="2"/>
       <c r="B284" s="2"/>
       <c r="C284" s="2"/>
@@ -7074,7 +7053,7 @@
       <c r="R284" s="2"/>
       <c r="S284" s="2"/>
     </row>
-    <row r="285" spans="1:19">
+    <row r="285" ht="15.75" customHeight="1">
       <c r="A285" s="2"/>
       <c r="B285" s="2"/>
       <c r="C285" s="2"/>
@@ -7095,7 +7074,7 @@
       <c r="R285" s="2"/>
       <c r="S285" s="2"/>
     </row>
-    <row r="286" spans="1:19">
+    <row r="286" ht="15.75" customHeight="1">
       <c r="A286" s="2"/>
       <c r="B286" s="2"/>
       <c r="C286" s="2"/>
@@ -7116,7 +7095,7 @@
       <c r="R286" s="2"/>
       <c r="S286" s="2"/>
     </row>
-    <row r="287" spans="1:19">
+    <row r="287" ht="15.75" customHeight="1">
       <c r="A287" s="2"/>
       <c r="B287" s="2"/>
       <c r="C287" s="2"/>
@@ -7137,7 +7116,7 @@
       <c r="R287" s="2"/>
       <c r="S287" s="2"/>
     </row>
-    <row r="288" spans="1:19">
+    <row r="288" ht="15.75" customHeight="1">
       <c r="A288" s="2"/>
       <c r="B288" s="2"/>
       <c r="C288" s="2"/>
@@ -7158,7 +7137,7 @@
       <c r="R288" s="2"/>
       <c r="S288" s="2"/>
     </row>
-    <row r="289" spans="1:19">
+    <row r="289" ht="15.75" customHeight="1">
       <c r="A289" s="2"/>
       <c r="B289" s="2"/>
       <c r="C289" s="2"/>
@@ -7179,7 +7158,7 @@
       <c r="R289" s="2"/>
       <c r="S289" s="2"/>
     </row>
-    <row r="290" spans="1:19">
+    <row r="290" ht="15.75" customHeight="1">
       <c r="A290" s="2"/>
       <c r="B290" s="2"/>
       <c r="C290" s="2"/>
@@ -7200,7 +7179,7 @@
       <c r="R290" s="2"/>
       <c r="S290" s="2"/>
     </row>
-    <row r="291" spans="1:19">
+    <row r="291" ht="15.75" customHeight="1">
       <c r="A291" s="2"/>
       <c r="B291" s="2"/>
       <c r="C291" s="2"/>
@@ -7221,7 +7200,7 @@
       <c r="R291" s="2"/>
       <c r="S291" s="2"/>
     </row>
-    <row r="292" spans="1:19">
+    <row r="292" ht="15.75" customHeight="1">
       <c r="A292" s="2"/>
       <c r="B292" s="2"/>
       <c r="C292" s="2"/>
@@ -7242,7 +7221,7 @@
       <c r="R292" s="2"/>
       <c r="S292" s="2"/>
     </row>
-    <row r="293" spans="1:19">
+    <row r="293" ht="15.75" customHeight="1">
       <c r="A293" s="2"/>
       <c r="B293" s="2"/>
       <c r="C293" s="2"/>
@@ -7263,7 +7242,7 @@
       <c r="R293" s="2"/>
       <c r="S293" s="2"/>
     </row>
-    <row r="294" spans="1:19">
+    <row r="294" ht="15.75" customHeight="1">
       <c r="A294" s="2"/>
       <c r="B294" s="2"/>
       <c r="C294" s="2"/>
@@ -7284,7 +7263,7 @@
       <c r="R294" s="2"/>
       <c r="S294" s="2"/>
     </row>
-    <row r="295" spans="1:19">
+    <row r="295" ht="15.75" customHeight="1">
       <c r="A295" s="2"/>
       <c r="B295" s="2"/>
       <c r="C295" s="2"/>
@@ -7305,7 +7284,7 @@
       <c r="R295" s="2"/>
       <c r="S295" s="2"/>
     </row>
-    <row r="296" spans="1:19">
+    <row r="296" ht="15.75" customHeight="1">
       <c r="A296" s="2"/>
       <c r="B296" s="2"/>
       <c r="C296" s="2"/>
@@ -7326,7 +7305,7 @@
       <c r="R296" s="2"/>
       <c r="S296" s="2"/>
     </row>
-    <row r="297" spans="1:19">
+    <row r="297" ht="15.75" customHeight="1">
       <c r="A297" s="2"/>
       <c r="B297" s="2"/>
       <c r="C297" s="2"/>
@@ -7347,7 +7326,7 @@
       <c r="R297" s="2"/>
       <c r="S297" s="2"/>
     </row>
-    <row r="298" spans="1:19">
+    <row r="298" ht="15.75" customHeight="1">
       <c r="A298" s="2"/>
       <c r="B298" s="2"/>
       <c r="C298" s="2"/>
@@ -7368,7 +7347,7 @@
       <c r="R298" s="2"/>
       <c r="S298" s="2"/>
     </row>
-    <row r="299" spans="1:19">
+    <row r="299" ht="15.75" customHeight="1">
       <c r="A299" s="2"/>
       <c r="B299" s="2"/>
       <c r="C299" s="2"/>
@@ -7389,7 +7368,7 @@
       <c r="R299" s="2"/>
       <c r="S299" s="2"/>
     </row>
-    <row r="300" spans="1:19">
+    <row r="300" ht="15.75" customHeight="1">
       <c r="A300" s="2"/>
       <c r="B300" s="2"/>
       <c r="C300" s="2"/>
@@ -7410,7 +7389,7 @@
       <c r="R300" s="2"/>
       <c r="S300" s="2"/>
     </row>
-    <row r="301" spans="1:19">
+    <row r="301" ht="15.75" customHeight="1">
       <c r="A301" s="2"/>
       <c r="B301" s="2"/>
       <c r="C301" s="2"/>
@@ -7431,7 +7410,7 @@
       <c r="R301" s="2"/>
       <c r="S301" s="2"/>
     </row>
-    <row r="302" spans="1:19">
+    <row r="302" ht="15.75" customHeight="1">
       <c r="A302" s="2"/>
       <c r="B302" s="2"/>
       <c r="C302" s="2"/>
@@ -7452,7 +7431,7 @@
       <c r="R302" s="2"/>
       <c r="S302" s="2"/>
     </row>
-    <row r="303" spans="1:19">
+    <row r="303" ht="15.75" customHeight="1">
       <c r="A303" s="2"/>
       <c r="B303" s="2"/>
       <c r="C303" s="2"/>
@@ -7473,7 +7452,7 @@
       <c r="R303" s="2"/>
       <c r="S303" s="2"/>
     </row>
-    <row r="304" spans="1:19">
+    <row r="304" ht="15.75" customHeight="1">
       <c r="A304" s="2"/>
       <c r="B304" s="2"/>
       <c r="C304" s="2"/>
@@ -7494,7 +7473,7 @@
       <c r="R304" s="2"/>
       <c r="S304" s="2"/>
     </row>
-    <row r="305" spans="1:19">
+    <row r="305" ht="15.75" customHeight="1">
       <c r="A305" s="2"/>
       <c r="B305" s="2"/>
       <c r="C305" s="2"/>
@@ -7515,7 +7494,7 @@
       <c r="R305" s="2"/>
       <c r="S305" s="2"/>
     </row>
-    <row r="306" spans="1:19">
+    <row r="306" ht="15.75" customHeight="1">
       <c r="A306" s="2"/>
       <c r="B306" s="2"/>
       <c r="C306" s="2"/>
@@ -7536,7 +7515,7 @@
       <c r="R306" s="2"/>
       <c r="S306" s="2"/>
     </row>
-    <row r="307" spans="1:19">
+    <row r="307" ht="15.75" customHeight="1">
       <c r="A307" s="2"/>
       <c r="B307" s="2"/>
       <c r="C307" s="2"/>
@@ -7557,7 +7536,7 @@
       <c r="R307" s="2"/>
       <c r="S307" s="2"/>
     </row>
-    <row r="308" spans="1:19">
+    <row r="308" ht="15.75" customHeight="1">
       <c r="A308" s="2"/>
       <c r="B308" s="2"/>
       <c r="C308" s="2"/>
@@ -7578,7 +7557,7 @@
       <c r="R308" s="2"/>
       <c r="S308" s="2"/>
     </row>
-    <row r="309" spans="1:19">
+    <row r="309" ht="15.75" customHeight="1">
       <c r="A309" s="2"/>
       <c r="B309" s="2"/>
       <c r="C309" s="2"/>
@@ -7599,7 +7578,7 @@
       <c r="R309" s="2"/>
       <c r="S309" s="2"/>
     </row>
-    <row r="310" spans="1:19">
+    <row r="310" ht="15.75" customHeight="1">
       <c r="A310" s="2"/>
       <c r="B310" s="2"/>
       <c r="C310" s="2"/>
@@ -7620,7 +7599,7 @@
       <c r="R310" s="2"/>
       <c r="S310" s="2"/>
     </row>
-    <row r="311" spans="1:19">
+    <row r="311" ht="15.75" customHeight="1">
       <c r="A311" s="2"/>
       <c r="B311" s="2"/>
       <c r="C311" s="2"/>
@@ -7641,7 +7620,7 @@
       <c r="R311" s="2"/>
       <c r="S311" s="2"/>
     </row>
-    <row r="312" spans="1:19">
+    <row r="312" ht="15.75" customHeight="1">
       <c r="A312" s="2"/>
       <c r="B312" s="2"/>
       <c r="C312" s="2"/>
@@ -7662,7 +7641,7 @@
       <c r="R312" s="2"/>
       <c r="S312" s="2"/>
     </row>
-    <row r="313" spans="1:19">
+    <row r="313" ht="15.75" customHeight="1">
       <c r="A313" s="2"/>
       <c r="B313" s="2"/>
       <c r="C313" s="2"/>
@@ -7683,7 +7662,7 @@
       <c r="R313" s="2"/>
       <c r="S313" s="2"/>
     </row>
-    <row r="314" spans="1:19">
+    <row r="314" ht="15.75" customHeight="1">
       <c r="A314" s="2"/>
       <c r="B314" s="2"/>
       <c r="C314" s="2"/>
@@ -7704,7 +7683,7 @@
       <c r="R314" s="2"/>
       <c r="S314" s="2"/>
     </row>
-    <row r="315" spans="1:19">
+    <row r="315" ht="15.75" customHeight="1">
       <c r="A315" s="2"/>
       <c r="B315" s="2"/>
       <c r="C315" s="2"/>
@@ -7725,7 +7704,7 @@
       <c r="R315" s="2"/>
       <c r="S315" s="2"/>
     </row>
-    <row r="316" spans="1:19">
+    <row r="316" ht="15.75" customHeight="1">
       <c r="A316" s="2"/>
       <c r="B316" s="2"/>
       <c r="C316" s="2"/>
@@ -7746,7 +7725,7 @@
       <c r="R316" s="2"/>
       <c r="S316" s="2"/>
     </row>
-    <row r="317" spans="1:19">
+    <row r="317" ht="15.75" customHeight="1">
       <c r="A317" s="2"/>
       <c r="B317" s="2"/>
       <c r="C317" s="2"/>
@@ -7767,7 +7746,7 @@
       <c r="R317" s="2"/>
       <c r="S317" s="2"/>
     </row>
-    <row r="318" spans="1:19">
+    <row r="318" ht="15.75" customHeight="1">
       <c r="A318" s="2"/>
       <c r="B318" s="2"/>
       <c r="C318" s="2"/>
@@ -7788,7 +7767,7 @@
       <c r="R318" s="2"/>
       <c r="S318" s="2"/>
     </row>
-    <row r="319" spans="1:19">
+    <row r="319" ht="15.75" customHeight="1">
       <c r="A319" s="2"/>
       <c r="B319" s="2"/>
       <c r="C319" s="2"/>
@@ -7809,7 +7788,7 @@
       <c r="R319" s="2"/>
       <c r="S319" s="2"/>
     </row>
-    <row r="320" spans="1:19">
+    <row r="320" ht="15.75" customHeight="1">
       <c r="A320" s="2"/>
       <c r="B320" s="2"/>
       <c r="C320" s="2"/>
@@ -7830,7 +7809,7 @@
       <c r="R320" s="2"/>
       <c r="S320" s="2"/>
     </row>
-    <row r="321" spans="1:19">
+    <row r="321" ht="15.75" customHeight="1">
       <c r="A321" s="2"/>
       <c r="B321" s="2"/>
       <c r="C321" s="2"/>
@@ -7851,7 +7830,7 @@
       <c r="R321" s="2"/>
       <c r="S321" s="2"/>
     </row>
-    <row r="322" spans="1:19">
+    <row r="322" ht="15.75" customHeight="1">
       <c r="A322" s="2"/>
       <c r="B322" s="2"/>
       <c r="C322" s="2"/>
@@ -7872,7 +7851,7 @@
       <c r="R322" s="2"/>
       <c r="S322" s="2"/>
     </row>
-    <row r="323" spans="1:19">
+    <row r="323" ht="15.75" customHeight="1">
       <c r="A323" s="2"/>
       <c r="B323" s="2"/>
       <c r="C323" s="2"/>
@@ -7893,7 +7872,7 @@
       <c r="R323" s="2"/>
       <c r="S323" s="2"/>
     </row>
-    <row r="324" spans="1:19">
+    <row r="324" ht="15.75" customHeight="1">
       <c r="A324" s="2"/>
       <c r="B324" s="2"/>
       <c r="C324" s="2"/>
@@ -7914,7 +7893,7 @@
       <c r="R324" s="2"/>
       <c r="S324" s="2"/>
     </row>
-    <row r="325" spans="1:19">
+    <row r="325" ht="15.75" customHeight="1">
       <c r="A325" s="2"/>
       <c r="B325" s="2"/>
       <c r="C325" s="2"/>
@@ -7935,7 +7914,7 @@
       <c r="R325" s="2"/>
       <c r="S325" s="2"/>
     </row>
-    <row r="326" spans="1:19">
+    <row r="326" ht="15.75" customHeight="1">
       <c r="A326" s="2"/>
       <c r="B326" s="2"/>
       <c r="C326" s="2"/>
@@ -7956,7 +7935,7 @@
       <c r="R326" s="2"/>
       <c r="S326" s="2"/>
     </row>
-    <row r="327" spans="1:19">
+    <row r="327" ht="15.75" customHeight="1">
       <c r="A327" s="2"/>
       <c r="B327" s="2"/>
       <c r="C327" s="2"/>
@@ -7977,7 +7956,7 @@
       <c r="R327" s="2"/>
       <c r="S327" s="2"/>
     </row>
-    <row r="328" spans="1:19">
+    <row r="328" ht="15.75" customHeight="1">
       <c r="A328" s="2"/>
       <c r="B328" s="2"/>
       <c r="C328" s="2"/>
@@ -7998,7 +7977,7 @@
       <c r="R328" s="2"/>
       <c r="S328" s="2"/>
     </row>
-    <row r="329" spans="1:19">
+    <row r="329" ht="15.75" customHeight="1">
       <c r="A329" s="2"/>
       <c r="B329" s="2"/>
       <c r="C329" s="2"/>
@@ -8019,7 +7998,7 @@
       <c r="R329" s="2"/>
       <c r="S329" s="2"/>
     </row>
-    <row r="330" spans="1:19">
+    <row r="330" ht="15.75" customHeight="1">
       <c r="A330" s="2"/>
       <c r="B330" s="2"/>
       <c r="C330" s="2"/>
@@ -8040,7 +8019,7 @@
       <c r="R330" s="2"/>
       <c r="S330" s="2"/>
     </row>
-    <row r="331" spans="1:19">
+    <row r="331" ht="15.75" customHeight="1">
       <c r="A331" s="2"/>
       <c r="B331" s="2"/>
       <c r="C331" s="2"/>
@@ -8061,7 +8040,7 @@
       <c r="R331" s="2"/>
       <c r="S331" s="2"/>
     </row>
-    <row r="332" spans="1:19">
+    <row r="332" ht="15.75" customHeight="1">
       <c r="A332" s="2"/>
       <c r="B332" s="2"/>
       <c r="C332" s="2"/>
@@ -8082,7 +8061,7 @@
       <c r="R332" s="2"/>
       <c r="S332" s="2"/>
     </row>
-    <row r="333" spans="1:19">
+    <row r="333" ht="15.75" customHeight="1">
       <c r="A333" s="2"/>
       <c r="B333" s="2"/>
       <c r="C333" s="2"/>
@@ -8103,7 +8082,7 @@
       <c r="R333" s="2"/>
       <c r="S333" s="2"/>
     </row>
-    <row r="334" spans="1:19">
+    <row r="334" ht="15.75" customHeight="1">
       <c r="A334" s="2"/>
       <c r="B334" s="2"/>
       <c r="C334" s="2"/>
@@ -8124,7 +8103,7 @@
       <c r="R334" s="2"/>
       <c r="S334" s="2"/>
     </row>
-    <row r="335" spans="1:19">
+    <row r="335" ht="15.75" customHeight="1">
       <c r="A335" s="2"/>
       <c r="B335" s="2"/>
       <c r="C335" s="2"/>
@@ -8145,7 +8124,7 @@
       <c r="R335" s="2"/>
       <c r="S335" s="2"/>
     </row>
-    <row r="336" spans="1:19">
+    <row r="336" ht="15.75" customHeight="1">
       <c r="A336" s="2"/>
       <c r="B336" s="2"/>
       <c r="C336" s="2"/>
@@ -8166,7 +8145,7 @@
       <c r="R336" s="2"/>
       <c r="S336" s="2"/>
     </row>
-    <row r="337" spans="1:19">
+    <row r="337" ht="15.75" customHeight="1">
       <c r="A337" s="2"/>
       <c r="B337" s="2"/>
       <c r="C337" s="2"/>
@@ -8187,7 +8166,7 @@
       <c r="R337" s="2"/>
       <c r="S337" s="2"/>
     </row>
-    <row r="338" spans="1:19">
+    <row r="338" ht="15.75" customHeight="1">
       <c r="A338" s="2"/>
       <c r="B338" s="2"/>
       <c r="C338" s="2"/>
@@ -8208,7 +8187,7 @@
       <c r="R338" s="2"/>
       <c r="S338" s="2"/>
     </row>
-    <row r="339" spans="1:19">
+    <row r="339" ht="15.75" customHeight="1">
       <c r="A339" s="2"/>
       <c r="B339" s="2"/>
       <c r="C339" s="2"/>
@@ -8229,7 +8208,7 @@
       <c r="R339" s="2"/>
       <c r="S339" s="2"/>
     </row>
-    <row r="340" spans="1:19">
+    <row r="340" ht="15.75" customHeight="1">
       <c r="A340" s="2"/>
       <c r="B340" s="2"/>
       <c r="C340" s="2"/>
@@ -8250,7 +8229,7 @@
       <c r="R340" s="2"/>
       <c r="S340" s="2"/>
     </row>
-    <row r="341" spans="1:19">
+    <row r="341" ht="15.75" customHeight="1">
       <c r="A341" s="2"/>
       <c r="B341" s="2"/>
       <c r="C341" s="2"/>
@@ -8271,7 +8250,7 @@
       <c r="R341" s="2"/>
       <c r="S341" s="2"/>
     </row>
-    <row r="342" spans="1:19">
+    <row r="342" ht="15.75" customHeight="1">
       <c r="A342" s="2"/>
       <c r="B342" s="2"/>
       <c r="C342" s="2"/>
@@ -8292,7 +8271,7 @@
       <c r="R342" s="2"/>
       <c r="S342" s="2"/>
     </row>
-    <row r="343" spans="1:19">
+    <row r="343" ht="15.75" customHeight="1">
       <c r="A343" s="2"/>
       <c r="B343" s="2"/>
       <c r="C343" s="2"/>
@@ -8313,7 +8292,7 @@
       <c r="R343" s="2"/>
       <c r="S343" s="2"/>
     </row>
-    <row r="344" spans="1:19">
+    <row r="344" ht="15.75" customHeight="1">
       <c r="A344" s="2"/>
       <c r="B344" s="2"/>
       <c r="C344" s="2"/>
@@ -8334,7 +8313,7 @@
       <c r="R344" s="2"/>
       <c r="S344" s="2"/>
     </row>
-    <row r="345" spans="1:19">
+    <row r="345" ht="15.75" customHeight="1">
       <c r="A345" s="2"/>
       <c r="B345" s="2"/>
       <c r="C345" s="2"/>
@@ -8355,7 +8334,7 @@
       <c r="R345" s="2"/>
       <c r="S345" s="2"/>
     </row>
-    <row r="346" spans="1:19">
+    <row r="346" ht="15.75" customHeight="1">
       <c r="A346" s="2"/>
       <c r="B346" s="2"/>
       <c r="C346" s="2"/>
@@ -8376,7 +8355,7 @@
       <c r="R346" s="2"/>
       <c r="S346" s="2"/>
     </row>
-    <row r="347" spans="1:19">
+    <row r="347" ht="15.75" customHeight="1">
       <c r="A347" s="2"/>
       <c r="B347" s="2"/>
       <c r="C347" s="2"/>
@@ -8397,7 +8376,7 @@
       <c r="R347" s="2"/>
       <c r="S347" s="2"/>
     </row>
-    <row r="348" spans="1:19">
+    <row r="348" ht="15.75" customHeight="1">
       <c r="A348" s="2"/>
       <c r="B348" s="2"/>
       <c r="C348" s="2"/>
@@ -8418,7 +8397,7 @@
       <c r="R348" s="2"/>
       <c r="S348" s="2"/>
     </row>
-    <row r="349" spans="1:19">
+    <row r="349" ht="15.75" customHeight="1">
       <c r="A349" s="2"/>
       <c r="B349" s="2"/>
       <c r="C349" s="2"/>
@@ -8439,7 +8418,7 @@
       <c r="R349" s="2"/>
       <c r="S349" s="2"/>
     </row>
-    <row r="350" spans="1:19">
+    <row r="350" ht="15.75" customHeight="1">
       <c r="A350" s="2"/>
       <c r="B350" s="2"/>
       <c r="C350" s="2"/>
@@ -8460,7 +8439,7 @@
       <c r="R350" s="2"/>
       <c r="S350" s="2"/>
     </row>
-    <row r="351" spans="1:19">
+    <row r="351" ht="15.75" customHeight="1">
       <c r="A351" s="2"/>
       <c r="B351" s="2"/>
       <c r="C351" s="2"/>
@@ -8481,7 +8460,7 @@
       <c r="R351" s="2"/>
       <c r="S351" s="2"/>
     </row>
-    <row r="352" spans="1:19">
+    <row r="352" ht="15.75" customHeight="1">
       <c r="A352" s="2"/>
       <c r="B352" s="2"/>
       <c r="C352" s="2"/>
@@ -8502,7 +8481,7 @@
       <c r="R352" s="2"/>
       <c r="S352" s="2"/>
     </row>
-    <row r="353" spans="1:19">
+    <row r="353" ht="15.75" customHeight="1">
       <c r="A353" s="2"/>
       <c r="B353" s="2"/>
       <c r="C353" s="2"/>
@@ -8523,7 +8502,7 @@
       <c r="R353" s="2"/>
       <c r="S353" s="2"/>
     </row>
-    <row r="354" spans="1:19">
+    <row r="354" ht="15.75" customHeight="1">
       <c r="A354" s="2"/>
       <c r="B354" s="2"/>
       <c r="C354" s="2"/>
@@ -8544,7 +8523,7 @@
       <c r="R354" s="2"/>
       <c r="S354" s="2"/>
     </row>
-    <row r="355" spans="1:19">
+    <row r="355" ht="15.75" customHeight="1">
       <c r="A355" s="2"/>
       <c r="B355" s="2"/>
       <c r="C355" s="2"/>
@@ -8565,7 +8544,7 @@
       <c r="R355" s="2"/>
       <c r="S355" s="2"/>
     </row>
-    <row r="356" spans="1:19">
+    <row r="356" ht="15.75" customHeight="1">
       <c r="A356" s="2"/>
       <c r="B356" s="2"/>
       <c r="C356" s="2"/>
@@ -8586,7 +8565,7 @@
       <c r="R356" s="2"/>
       <c r="S356" s="2"/>
     </row>
-    <row r="357" spans="1:19">
+    <row r="357" ht="15.75" customHeight="1">
       <c r="A357" s="2"/>
       <c r="B357" s="2"/>
       <c r="C357" s="2"/>
@@ -8607,7 +8586,7 @@
       <c r="R357" s="2"/>
       <c r="S357" s="2"/>
     </row>
-    <row r="358" spans="1:19">
+    <row r="358" ht="15.75" customHeight="1">
       <c r="A358" s="2"/>
       <c r="B358" s="2"/>
       <c r="C358" s="2"/>
@@ -8628,7 +8607,7 @@
       <c r="R358" s="2"/>
       <c r="S358" s="2"/>
     </row>
-    <row r="359" spans="1:19">
+    <row r="359" ht="15.75" customHeight="1">
       <c r="A359" s="2"/>
       <c r="B359" s="2"/>
       <c r="C359" s="2"/>
@@ -8649,7 +8628,7 @@
       <c r="R359" s="2"/>
       <c r="S359" s="2"/>
     </row>
-    <row r="360" spans="1:19">
+    <row r="360" ht="15.75" customHeight="1">
       <c r="A360" s="2"/>
       <c r="B360" s="2"/>
       <c r="C360" s="2"/>
@@ -8670,7 +8649,7 @@
       <c r="R360" s="2"/>
       <c r="S360" s="2"/>
     </row>
-    <row r="361" spans="1:19">
+    <row r="361" ht="15.75" customHeight="1">
       <c r="A361" s="2"/>
       <c r="B361" s="2"/>
       <c r="C361" s="2"/>
@@ -8691,7 +8670,7 @@
       <c r="R361" s="2"/>
       <c r="S361" s="2"/>
     </row>
-    <row r="362" spans="1:19">
+    <row r="362" ht="15.75" customHeight="1">
       <c r="A362" s="2"/>
       <c r="B362" s="2"/>
       <c r="C362" s="2"/>
@@ -8712,7 +8691,7 @@
       <c r="R362" s="2"/>
       <c r="S362" s="2"/>
     </row>
-    <row r="363" spans="1:19">
+    <row r="363" ht="15.75" customHeight="1">
       <c r="A363" s="2"/>
       <c r="B363" s="2"/>
       <c r="C363" s="2"/>
@@ -8733,7 +8712,7 @@
       <c r="R363" s="2"/>
       <c r="S363" s="2"/>
     </row>
-    <row r="364" spans="1:19">
+    <row r="364" ht="15.75" customHeight="1">
       <c r="A364" s="2"/>
       <c r="B364" s="2"/>
       <c r="C364" s="2"/>
@@ -8754,7 +8733,7 @@
       <c r="R364" s="2"/>
       <c r="S364" s="2"/>
     </row>
-    <row r="365" spans="1:19">
+    <row r="365" ht="15.75" customHeight="1">
       <c r="A365" s="2"/>
       <c r="B365" s="2"/>
       <c r="C365" s="2"/>
@@ -8775,7 +8754,7 @@
       <c r="R365" s="2"/>
       <c r="S365" s="2"/>
     </row>
-    <row r="366" spans="1:19">
+    <row r="366" ht="15.75" customHeight="1">
       <c r="A366" s="2"/>
       <c r="B366" s="2"/>
       <c r="C366" s="2"/>
@@ -8796,7 +8775,7 @@
       <c r="R366" s="2"/>
       <c r="S366" s="2"/>
     </row>
-    <row r="367" spans="1:19">
+    <row r="367" ht="15.75" customHeight="1">
       <c r="A367" s="2"/>
       <c r="B367" s="2"/>
       <c r="C367" s="2"/>
@@ -8817,7 +8796,7 @@
       <c r="R367" s="2"/>
       <c r="S367" s="2"/>
     </row>
-    <row r="368" spans="1:19">
+    <row r="368" ht="15.75" customHeight="1">
       <c r="A368" s="2"/>
       <c r="B368" s="2"/>
       <c r="C368" s="2"/>
@@ -8838,7 +8817,7 @@
       <c r="R368" s="2"/>
       <c r="S368" s="2"/>
     </row>
-    <row r="369" spans="1:19">
+    <row r="369" ht="15.75" customHeight="1">
       <c r="A369" s="2"/>
       <c r="B369" s="2"/>
       <c r="C369" s="2"/>
@@ -8859,7 +8838,7 @@
       <c r="R369" s="2"/>
       <c r="S369" s="2"/>
     </row>
-    <row r="370" spans="1:19">
+    <row r="370" ht="15.75" customHeight="1">
       <c r="A370" s="2"/>
       <c r="B370" s="2"/>
       <c r="C370" s="2"/>
@@ -8880,7 +8859,7 @@
       <c r="R370" s="2"/>
       <c r="S370" s="2"/>
     </row>
-    <row r="371" spans="1:19">
+    <row r="371" ht="15.75" customHeight="1">
       <c r="A371" s="2"/>
       <c r="B371" s="2"/>
       <c r="C371" s="2"/>
@@ -8901,7 +8880,7 @@
       <c r="R371" s="2"/>
       <c r="S371" s="2"/>
     </row>
-    <row r="372" spans="1:19">
+    <row r="372" ht="15.75" customHeight="1">
       <c r="A372" s="2"/>
       <c r="B372" s="2"/>
       <c r="C372" s="2"/>
@@ -8922,7 +8901,7 @@
       <c r="R372" s="2"/>
       <c r="S372" s="2"/>
     </row>
-    <row r="373" spans="1:19">
+    <row r="373" ht="15.75" customHeight="1">
       <c r="A373" s="2"/>
       <c r="B373" s="2"/>
       <c r="C373" s="2"/>
@@ -8943,7 +8922,7 @@
       <c r="R373" s="2"/>
       <c r="S373" s="2"/>
     </row>
-    <row r="374" spans="1:19">
+    <row r="374" ht="15.75" customHeight="1">
       <c r="A374" s="2"/>
       <c r="B374" s="2"/>
       <c r="C374" s="2"/>
@@ -8964,7 +8943,7 @@
       <c r="R374" s="2"/>
       <c r="S374" s="2"/>
     </row>
-    <row r="375" spans="1:19">
+    <row r="375" ht="15.75" customHeight="1">
       <c r="A375" s="2"/>
       <c r="B375" s="2"/>
       <c r="C375" s="2"/>
@@ -8985,7 +8964,7 @@
       <c r="R375" s="2"/>
       <c r="S375" s="2"/>
     </row>
-    <row r="376" spans="1:19">
+    <row r="376" ht="15.75" customHeight="1">
       <c r="A376" s="2"/>
       <c r="B376" s="2"/>
       <c r="C376" s="2"/>
@@ -9006,7 +8985,7 @@
       <c r="R376" s="2"/>
       <c r="S376" s="2"/>
     </row>
-    <row r="377" spans="1:19">
+    <row r="377" ht="15.75" customHeight="1">
       <c r="A377" s="2"/>
       <c r="B377" s="2"/>
       <c r="C377" s="2"/>
@@ -9027,7 +9006,7 @@
       <c r="R377" s="2"/>
       <c r="S377" s="2"/>
     </row>
-    <row r="378" spans="1:19">
+    <row r="378" ht="15.75" customHeight="1">
       <c r="A378" s="2"/>
       <c r="B378" s="2"/>
       <c r="C378" s="2"/>
@@ -9048,7 +9027,7 @@
       <c r="R378" s="2"/>
       <c r="S378" s="2"/>
     </row>
-    <row r="379" spans="1:19">
+    <row r="379" ht="15.75" customHeight="1">
       <c r="A379" s="2"/>
       <c r="B379" s="2"/>
       <c r="C379" s="2"/>
@@ -9069,7 +9048,7 @@
       <c r="R379" s="2"/>
       <c r="S379" s="2"/>
     </row>
-    <row r="380" spans="1:19">
+    <row r="380" ht="15.75" customHeight="1">
       <c r="A380" s="2"/>
       <c r="B380" s="2"/>
       <c r="C380" s="2"/>
@@ -9090,7 +9069,7 @@
       <c r="R380" s="2"/>
       <c r="S380" s="2"/>
     </row>
-    <row r="381" spans="1:19">
+    <row r="381" ht="15.75" customHeight="1">
       <c r="A381" s="2"/>
       <c r="B381" s="2"/>
       <c r="C381" s="2"/>
@@ -9111,7 +9090,7 @@
       <c r="R381" s="2"/>
       <c r="S381" s="2"/>
     </row>
-    <row r="382" spans="1:19">
+    <row r="382" ht="15.75" customHeight="1">
       <c r="A382" s="2"/>
       <c r="B382" s="2"/>
       <c r="C382" s="2"/>
@@ -9132,7 +9111,7 @@
       <c r="R382" s="2"/>
       <c r="S382" s="2"/>
     </row>
-    <row r="383" spans="1:19">
+    <row r="383" ht="15.75" customHeight="1">
       <c r="A383" s="2"/>
       <c r="B383" s="2"/>
       <c r="C383" s="2"/>
@@ -9153,7 +9132,7 @@
       <c r="R383" s="2"/>
       <c r="S383" s="2"/>
     </row>
-    <row r="384" spans="1:19">
+    <row r="384" ht="15.75" customHeight="1">
       <c r="A384" s="2"/>
       <c r="B384" s="2"/>
       <c r="C384" s="2"/>
@@ -9174,7 +9153,7 @@
       <c r="R384" s="2"/>
       <c r="S384" s="2"/>
     </row>
-    <row r="385" spans="1:19">
+    <row r="385" ht="15.75" customHeight="1">
       <c r="A385" s="2"/>
       <c r="B385" s="2"/>
       <c r="C385" s="2"/>
@@ -9195,7 +9174,7 @@
       <c r="R385" s="2"/>
       <c r="S385" s="2"/>
     </row>
-    <row r="386" spans="1:19">
+    <row r="386" ht="15.75" customHeight="1">
       <c r="A386" s="2"/>
       <c r="B386" s="2"/>
       <c r="C386" s="2"/>
@@ -9216,7 +9195,7 @@
       <c r="R386" s="2"/>
       <c r="S386" s="2"/>
     </row>
-    <row r="387" spans="1:19">
+    <row r="387" ht="15.75" customHeight="1">
       <c r="A387" s="2"/>
       <c r="B387" s="2"/>
       <c r="C387" s="2"/>
@@ -9237,7 +9216,7 @@
       <c r="R387" s="2"/>
       <c r="S387" s="2"/>
     </row>
-    <row r="388" spans="1:19">
+    <row r="388" ht="15.75" customHeight="1">
       <c r="A388" s="2"/>
       <c r="B388" s="2"/>
       <c r="C388" s="2"/>
@@ -9258,7 +9237,7 @@
       <c r="R388" s="2"/>
       <c r="S388" s="2"/>
     </row>
-    <row r="389" spans="1:19">
+    <row r="389" ht="15.75" customHeight="1">
       <c r="A389" s="2"/>
       <c r="B389" s="2"/>
       <c r="C389" s="2"/>
@@ -9279,7 +9258,7 @@
       <c r="R389" s="2"/>
       <c r="S389" s="2"/>
     </row>
-    <row r="390" spans="1:19">
+    <row r="390" ht="15.75" customHeight="1">
       <c r="A390" s="2"/>
       <c r="B390" s="2"/>
       <c r="C390" s="2"/>
@@ -9300,7 +9279,7 @@
       <c r="R390" s="2"/>
       <c r="S390" s="2"/>
     </row>
-    <row r="391" spans="1:19">
+    <row r="391" ht="15.75" customHeight="1">
       <c r="A391" s="2"/>
       <c r="B391" s="2"/>
       <c r="C391" s="2"/>
@@ -9321,7 +9300,7 @@
       <c r="R391" s="2"/>
       <c r="S391" s="2"/>
     </row>
-    <row r="392" spans="1:19">
+    <row r="392" ht="15.75" customHeight="1">
       <c r="A392" s="2"/>
       <c r="B392" s="2"/>
       <c r="C392" s="2"/>
@@ -9342,7 +9321,7 @@
       <c r="R392" s="2"/>
       <c r="S392" s="2"/>
     </row>
-    <row r="393" spans="1:19">
+    <row r="393" ht="15.75" customHeight="1">
       <c r="A393" s="2"/>
       <c r="B393" s="2"/>
       <c r="C393" s="2"/>
@@ -9363,7 +9342,7 @@
       <c r="R393" s="2"/>
       <c r="S393" s="2"/>
     </row>
-    <row r="394" spans="1:19">
+    <row r="394" ht="15.75" customHeight="1">
       <c r="A394" s="2"/>
       <c r="B394" s="2"/>
       <c r="C394" s="2"/>
@@ -9384,7 +9363,7 @@
       <c r="R394" s="2"/>
       <c r="S394" s="2"/>
     </row>
-    <row r="395" spans="1:19">
+    <row r="395" ht="15.75" customHeight="1">
       <c r="A395" s="2"/>
       <c r="B395" s="2"/>
       <c r="C395" s="2"/>
@@ -9405,7 +9384,7 @@
       <c r="R395" s="2"/>
       <c r="S395" s="2"/>
     </row>
-    <row r="396" spans="1:19">
+    <row r="396" ht="15.75" customHeight="1">
       <c r="A396" s="2"/>
       <c r="B396" s="2"/>
       <c r="C396" s="2"/>
@@ -9426,7 +9405,7 @@
       <c r="R396" s="2"/>
       <c r="S396" s="2"/>
     </row>
-    <row r="397" spans="1:19">
+    <row r="397" ht="15.75" customHeight="1">
       <c r="A397" s="2"/>
       <c r="B397" s="2"/>
       <c r="C397" s="2"/>
@@ -9447,7 +9426,7 @@
       <c r="R397" s="2"/>
       <c r="S397" s="2"/>
     </row>
-    <row r="398" spans="1:19">
+    <row r="398" ht="15.75" customHeight="1">
       <c r="A398" s="2"/>
       <c r="B398" s="2"/>
       <c r="C398" s="2"/>
@@ -9468,7 +9447,7 @@
       <c r="R398" s="2"/>
       <c r="S398" s="2"/>
     </row>
-    <row r="399" spans="1:19">
+    <row r="399" ht="15.75" customHeight="1">
       <c r="A399" s="2"/>
       <c r="B399" s="2"/>
       <c r="C399" s="2"/>
@@ -9489,7 +9468,7 @@
       <c r="R399" s="2"/>
       <c r="S399" s="2"/>
     </row>
-    <row r="400" spans="1:19">
+    <row r="400" ht="15.75" customHeight="1">
       <c r="A400" s="2"/>
       <c r="B400" s="2"/>
       <c r="C400" s="2"/>
@@ -9510,7 +9489,7 @@
       <c r="R400" s="2"/>
       <c r="S400" s="2"/>
     </row>
-    <row r="401" spans="1:19">
+    <row r="401" ht="15.75" customHeight="1">
       <c r="A401" s="2"/>
       <c r="B401" s="2"/>
       <c r="C401" s="2"/>
@@ -9531,7 +9510,7 @@
       <c r="R401" s="2"/>
       <c r="S401" s="2"/>
     </row>
-    <row r="402" spans="1:19">
+    <row r="402" ht="15.75" customHeight="1">
       <c r="A402" s="2"/>
       <c r="B402" s="2"/>
       <c r="C402" s="2"/>
@@ -9552,7 +9531,7 @@
       <c r="R402" s="2"/>
       <c r="S402" s="2"/>
     </row>
-    <row r="403" spans="1:19">
+    <row r="403" ht="15.75" customHeight="1">
       <c r="A403" s="2"/>
       <c r="B403" s="2"/>
       <c r="C403" s="2"/>
@@ -9573,7 +9552,7 @@
       <c r="R403" s="2"/>
       <c r="S403" s="2"/>
     </row>
-    <row r="404" spans="1:19">
+    <row r="404" ht="15.75" customHeight="1">
       <c r="A404" s="2"/>
       <c r="B404" s="2"/>
       <c r="C404" s="2"/>
@@ -9594,7 +9573,7 @@
       <c r="R404" s="2"/>
       <c r="S404" s="2"/>
     </row>
-    <row r="405" spans="1:19">
+    <row r="405" ht="15.75" customHeight="1">
       <c r="A405" s="2"/>
       <c r="B405" s="2"/>
       <c r="C405" s="2"/>
@@ -9615,7 +9594,7 @@
       <c r="R405" s="2"/>
       <c r="S405" s="2"/>
     </row>
-    <row r="406" spans="1:19">
+    <row r="406" ht="15.75" customHeight="1">
       <c r="A406" s="2"/>
       <c r="B406" s="2"/>
       <c r="C406" s="2"/>
@@ -9636,7 +9615,7 @@
       <c r="R406" s="2"/>
       <c r="S406" s="2"/>
     </row>
-    <row r="407" spans="1:19">
+    <row r="407" ht="15.75" customHeight="1">
       <c r="A407" s="2"/>
       <c r="B407" s="2"/>
       <c r="C407" s="2"/>
@@ -9657,7 +9636,7 @@
       <c r="R407" s="2"/>
       <c r="S407" s="2"/>
     </row>
-    <row r="408" spans="1:19">
+    <row r="408" ht="15.75" customHeight="1">
       <c r="A408" s="2"/>
       <c r="B408" s="2"/>
       <c r="C408" s="2"/>
@@ -9678,7 +9657,7 @@
       <c r="R408" s="2"/>
       <c r="S408" s="2"/>
     </row>
-    <row r="409" spans="1:19">
+    <row r="409" ht="15.75" customHeight="1">
       <c r="A409" s="2"/>
       <c r="B409" s="2"/>
       <c r="C409" s="2"/>
@@ -9699,7 +9678,7 @@
       <c r="R409" s="2"/>
       <c r="S409" s="2"/>
     </row>
-    <row r="410" spans="1:19">
+    <row r="410" ht="15.75" customHeight="1">
       <c r="A410" s="2"/>
       <c r="B410" s="2"/>
       <c r="C410" s="2"/>
@@ -9720,7 +9699,7 @@
       <c r="R410" s="2"/>
       <c r="S410" s="2"/>
     </row>
-    <row r="411" spans="1:19">
+    <row r="411" ht="15.75" customHeight="1">
       <c r="A411" s="2"/>
       <c r="B411" s="2"/>
       <c r="C411" s="2"/>
@@ -9741,7 +9720,7 @@
       <c r="R411" s="2"/>
       <c r="S411" s="2"/>
     </row>
-    <row r="412" spans="1:19">
+    <row r="412" ht="15.75" customHeight="1">
       <c r="A412" s="2"/>
       <c r="B412" s="2"/>
       <c r="C412" s="2"/>
@@ -9762,7 +9741,7 @@
       <c r="R412" s="2"/>
       <c r="S412" s="2"/>
     </row>
-    <row r="413" spans="1:19">
+    <row r="413" ht="15.75" customHeight="1">
       <c r="A413" s="2"/>
       <c r="B413" s="2"/>
       <c r="C413" s="2"/>
@@ -9783,7 +9762,7 @@
       <c r="R413" s="2"/>
       <c r="S413" s="2"/>
     </row>
-    <row r="414" spans="1:19">
+    <row r="414" ht="15.75" customHeight="1">
       <c r="A414" s="2"/>
       <c r="B414" s="2"/>
       <c r="C414" s="2"/>
@@ -9804,7 +9783,7 @@
       <c r="R414" s="2"/>
       <c r="S414" s="2"/>
     </row>
-    <row r="415" spans="1:19">
+    <row r="415" ht="15.75" customHeight="1">
       <c r="A415" s="2"/>
       <c r="B415" s="2"/>
       <c r="C415" s="2"/>
@@ -9825,7 +9804,7 @@
       <c r="R415" s="2"/>
       <c r="S415" s="2"/>
     </row>
-    <row r="416" spans="1:19">
+    <row r="416" ht="15.75" customHeight="1">
       <c r="A416" s="2"/>
       <c r="B416" s="2"/>
       <c r="C416" s="2"/>
@@ -9846,7 +9825,7 @@
       <c r="R416" s="2"/>
       <c r="S416" s="2"/>
     </row>
-    <row r="417" spans="1:19">
+    <row r="417" ht="15.75" customHeight="1">
       <c r="A417" s="2"/>
       <c r="B417" s="2"/>
       <c r="C417" s="2"/>
@@ -9867,7 +9846,7 @@
       <c r="R417" s="2"/>
       <c r="S417" s="2"/>
     </row>
-    <row r="418" spans="1:19">
+    <row r="418" ht="15.75" customHeight="1">
       <c r="A418" s="2"/>
       <c r="B418" s="2"/>
       <c r="C418" s="2"/>
@@ -9888,7 +9867,7 @@
       <c r="R418" s="2"/>
       <c r="S418" s="2"/>
     </row>
-    <row r="419" spans="1:19">
+    <row r="419" ht="15.75" customHeight="1">
       <c r="A419" s="2"/>
       <c r="B419" s="2"/>
       <c r="C419" s="2"/>
@@ -9909,7 +9888,7 @@
       <c r="R419" s="2"/>
       <c r="S419" s="2"/>
     </row>
-    <row r="420" spans="1:19">
+    <row r="420" ht="15.75" customHeight="1">
       <c r="A420" s="2"/>
       <c r="B420" s="2"/>
       <c r="C420" s="2"/>
@@ -9930,7 +9909,7 @@
       <c r="R420" s="2"/>
       <c r="S420" s="2"/>
     </row>
-    <row r="421" spans="1:19">
+    <row r="421" ht="15.75" customHeight="1">
       <c r="A421" s="2"/>
       <c r="B421" s="2"/>
       <c r="C421" s="2"/>
@@ -9951,7 +9930,7 @@
       <c r="R421" s="2"/>
       <c r="S421" s="2"/>
     </row>
-    <row r="422" spans="1:19">
+    <row r="422" ht="15.75" customHeight="1">
       <c r="A422" s="2"/>
       <c r="B422" s="2"/>
       <c r="C422" s="2"/>
@@ -9972,7 +9951,7 @@
       <c r="R422" s="2"/>
       <c r="S422" s="2"/>
     </row>
-    <row r="423" spans="1:19">
+    <row r="423" ht="15.75" customHeight="1">
       <c r="A423" s="2"/>
       <c r="B423" s="2"/>
       <c r="C423" s="2"/>
@@ -9993,7 +9972,7 @@
       <c r="R423" s="2"/>
       <c r="S423" s="2"/>
     </row>
-    <row r="424" spans="1:19">
+    <row r="424" ht="15.75" customHeight="1">
       <c r="A424" s="2"/>
       <c r="B424" s="2"/>
       <c r="C424" s="2"/>
@@ -10014,7 +9993,7 @@
       <c r="R424" s="2"/>
       <c r="S424" s="2"/>
     </row>
-    <row r="425" spans="1:19">
+    <row r="425" ht="15.75" customHeight="1">
       <c r="A425" s="2"/>
       <c r="B425" s="2"/>
       <c r="C425" s="2"/>
@@ -10035,7 +10014,7 @@
       <c r="R425" s="2"/>
       <c r="S425" s="2"/>
     </row>
-    <row r="426" spans="1:19">
+    <row r="426" ht="15.75" customHeight="1">
       <c r="A426" s="2"/>
       <c r="B426" s="2"/>
       <c r="C426" s="2"/>
@@ -10056,7 +10035,7 @@
       <c r="R426" s="2"/>
       <c r="S426" s="2"/>
     </row>
-    <row r="427" spans="1:19">
+    <row r="427" ht="15.75" customHeight="1">
       <c r="A427" s="2"/>
       <c r="B427" s="2"/>
       <c r="C427" s="2"/>
@@ -10077,7 +10056,7 @@
       <c r="R427" s="2"/>
       <c r="S427" s="2"/>
     </row>
-    <row r="428" spans="1:19">
+    <row r="428" ht="15.75" customHeight="1">
       <c r="A428" s="2"/>
       <c r="B428" s="2"/>
       <c r="C428" s="2"/>
@@ -10098,7 +10077,7 @@
       <c r="R428" s="2"/>
       <c r="S428" s="2"/>
     </row>
-    <row r="429" spans="1:19">
+    <row r="429" ht="15.75" customHeight="1">
       <c r="A429" s="2"/>
       <c r="B429" s="2"/>
       <c r="C429" s="2"/>
@@ -10119,7 +10098,7 @@
       <c r="R429" s="2"/>
       <c r="S429" s="2"/>
     </row>
-    <row r="430" spans="1:19">
+    <row r="430" ht="15.75" customHeight="1">
       <c r="A430" s="2"/>
       <c r="B430" s="2"/>
       <c r="C430" s="2"/>
@@ -10140,7 +10119,7 @@
       <c r="R430" s="2"/>
       <c r="S430" s="2"/>
     </row>
-    <row r="431" spans="1:19">
+    <row r="431" ht="15.75" customHeight="1">
       <c r="A431" s="2"/>
       <c r="B431" s="2"/>
       <c r="C431" s="2"/>
@@ -10161,7 +10140,7 @@
       <c r="R431" s="2"/>
       <c r="S431" s="2"/>
     </row>
-    <row r="432" spans="1:19">
+    <row r="432" ht="15.75" customHeight="1">
       <c r="A432" s="2"/>
       <c r="B432" s="2"/>
       <c r="C432" s="2"/>
@@ -10182,7 +10161,7 @@
       <c r="R432" s="2"/>
       <c r="S432" s="2"/>
     </row>
-    <row r="433" spans="1:19">
+    <row r="433" ht="15.75" customHeight="1">
       <c r="A433" s="2"/>
       <c r="B433" s="2"/>
       <c r="C433" s="2"/>
@@ -10203,7 +10182,7 @@
       <c r="R433" s="2"/>
       <c r="S433" s="2"/>
     </row>
-    <row r="434" spans="1:19">
+    <row r="434" ht="15.75" customHeight="1">
       <c r="A434" s="2"/>
       <c r="B434" s="2"/>
       <c r="C434" s="2"/>
@@ -10224,7 +10203,7 @@
       <c r="R434" s="2"/>
       <c r="S434" s="2"/>
     </row>
-    <row r="435" spans="1:19">
+    <row r="435" ht="15.75" customHeight="1">
       <c r="A435" s="2"/>
       <c r="B435" s="2"/>
       <c r="C435" s="2"/>
@@ -10245,7 +10224,7 @@
       <c r="R435" s="2"/>
       <c r="S435" s="2"/>
     </row>
-    <row r="436" spans="1:19">
+    <row r="436" ht="15.75" customHeight="1">
       <c r="A436" s="2"/>
       <c r="B436" s="2"/>
       <c r="C436" s="2"/>
@@ -10266,7 +10245,7 @@
       <c r="R436" s="2"/>
       <c r="S436" s="2"/>
     </row>
-    <row r="437" spans="1:19">
+    <row r="437" ht="15.75" customHeight="1">
       <c r="A437" s="2"/>
       <c r="B437" s="2"/>
       <c r="C437" s="2"/>
@@ -10287,7 +10266,7 @@
       <c r="R437" s="2"/>
       <c r="S437" s="2"/>
     </row>
-    <row r="438" spans="1:19">
+    <row r="438" ht="15.75" customHeight="1">
       <c r="A438" s="2"/>
       <c r="B438" s="2"/>
       <c r="C438" s="2"/>
@@ -10308,7 +10287,7 @@
       <c r="R438" s="2"/>
       <c r="S438" s="2"/>
     </row>
-    <row r="439" spans="1:19">
+    <row r="439" ht="15.75" customHeight="1">
       <c r="A439" s="2"/>
       <c r="B439" s="2"/>
       <c r="C439" s="2"/>
@@ -10329,7 +10308,7 @@
       <c r="R439" s="2"/>
       <c r="S439" s="2"/>
     </row>
-    <row r="440" spans="1:19">
+    <row r="440" ht="15.75" customHeight="1">
       <c r="A440" s="2"/>
       <c r="B440" s="2"/>
       <c r="C440" s="2"/>
@@ -10350,7 +10329,7 @@
       <c r="R440" s="2"/>
       <c r="S440" s="2"/>
     </row>
-    <row r="441" spans="1:19">
+    <row r="441" ht="15.75" customHeight="1">
       <c r="A441" s="2"/>
       <c r="B441" s="2"/>
       <c r="C441" s="2"/>
@@ -10371,7 +10350,7 @@
       <c r="R441" s="2"/>
       <c r="S441" s="2"/>
     </row>
-    <row r="442" spans="1:19">
+    <row r="442" ht="15.75" customHeight="1">
       <c r="A442" s="2"/>
       <c r="B442" s="2"/>
       <c r="C442" s="2"/>
@@ -10392,7 +10371,7 @@
       <c r="R442" s="2"/>
       <c r="S442" s="2"/>
     </row>
-    <row r="443" spans="1:19">
+    <row r="443" ht="15.75" customHeight="1">
       <c r="A443" s="2"/>
       <c r="B443" s="2"/>
       <c r="C443" s="2"/>
@@ -10413,7 +10392,7 @@
       <c r="R443" s="2"/>
       <c r="S443" s="2"/>
     </row>
-    <row r="444" spans="1:19">
+    <row r="444" ht="15.75" customHeight="1">
       <c r="A444" s="2"/>
       <c r="B444" s="2"/>
       <c r="C444" s="2"/>
@@ -10434,7 +10413,7 @@
       <c r="R444" s="2"/>
       <c r="S444" s="2"/>
     </row>
-    <row r="445" spans="1:19">
+    <row r="445" ht="15.75" customHeight="1">
       <c r="A445" s="2"/>
       <c r="B445" s="2"/>
       <c r="C445" s="2"/>
@@ -10455,7 +10434,7 @@
       <c r="R445" s="2"/>
       <c r="S445" s="2"/>
     </row>
-    <row r="446" spans="1:19">
+    <row r="446" ht="15.75" customHeight="1">
       <c r="A446" s="2"/>
       <c r="B446" s="2"/>
       <c r="C446" s="2"/>
@@ -10476,7 +10455,7 @@
       <c r="R446" s="2"/>
       <c r="S446" s="2"/>
     </row>
-    <row r="447" spans="1:19">
+    <row r="447" ht="15.75" customHeight="1">
       <c r="A447" s="2"/>
       <c r="B447" s="2"/>
       <c r="C447" s="2"/>
@@ -10497,7 +10476,7 @@
       <c r="R447" s="2"/>
       <c r="S447" s="2"/>
     </row>
-    <row r="448" spans="1:19">
+    <row r="448" ht="15.75" customHeight="1">
       <c r="A448" s="2"/>
       <c r="B448" s="2"/>
       <c r="C448" s="2"/>
@@ -10518,7 +10497,7 @@
       <c r="R448" s="2"/>
       <c r="S448" s="2"/>
     </row>
-    <row r="449" spans="1:19">
+    <row r="449" ht="15.75" customHeight="1">
       <c r="A449" s="2"/>
       <c r="B449" s="2"/>
       <c r="C449" s="2"/>
@@ -10539,7 +10518,7 @@
       <c r="R449" s="2"/>
       <c r="S449" s="2"/>
     </row>
-    <row r="450" spans="1:19">
+    <row r="450" ht="15.75" customHeight="1">
       <c r="A450" s="2"/>
       <c r="B450" s="2"/>
       <c r="C450" s="2"/>
@@ -10560,7 +10539,7 @@
       <c r="R450" s="2"/>
       <c r="S450" s="2"/>
     </row>
-    <row r="451" spans="1:19">
+    <row r="451" ht="15.75" customHeight="1">
       <c r="A451" s="2"/>
       <c r="B451" s="2"/>
       <c r="C451" s="2"/>
@@ -10581,7 +10560,7 @@
       <c r="R451" s="2"/>
       <c r="S451" s="2"/>
     </row>
-    <row r="452" spans="1:19">
+    <row r="452" ht="15.75" customHeight="1">
       <c r="A452" s="2"/>
       <c r="B452" s="2"/>
       <c r="C452" s="2"/>
@@ -10602,7 +10581,7 @@
       <c r="R452" s="2"/>
       <c r="S452" s="2"/>
     </row>
-    <row r="453" spans="1:19">
+    <row r="453" ht="15.75" customHeight="1">
       <c r="A453" s="2"/>
       <c r="B453" s="2"/>
       <c r="C453" s="2"/>
@@ -10623,7 +10602,7 @@
       <c r="R453" s="2"/>
       <c r="S453" s="2"/>
     </row>
-    <row r="454" spans="1:19">
+    <row r="454" ht="15.75" customHeight="1">
       <c r="A454" s="2"/>
       <c r="B454" s="2"/>
       <c r="C454" s="2"/>
@@ -10644,7 +10623,7 @@
       <c r="R454" s="2"/>
       <c r="S454" s="2"/>
     </row>
-    <row r="455" spans="1:19">
+    <row r="455" ht="15.75" customHeight="1">
       <c r="A455" s="2"/>
       <c r="B455" s="2"/>
       <c r="C455" s="2"/>
@@ -10665,7 +10644,7 @@
       <c r="R455" s="2"/>
       <c r="S455" s="2"/>
     </row>
-    <row r="456" spans="1:19">
+    <row r="456" ht="15.75" customHeight="1">
       <c r="A456" s="2"/>
       <c r="B456" s="2"/>
       <c r="C456" s="2"/>
@@ -10686,7 +10665,7 @@
       <c r="R456" s="2"/>
       <c r="S456" s="2"/>
     </row>
-    <row r="457" spans="1:19">
+    <row r="457" ht="15.75" customHeight="1">
       <c r="A457" s="2"/>
       <c r="B457" s="2"/>
       <c r="C457" s="2"/>
@@ -10707,7 +10686,7 @@
       <c r="R457" s="2"/>
       <c r="S457" s="2"/>
     </row>
-    <row r="458" spans="1:19">
+    <row r="458" ht="15.75" customHeight="1">
       <c r="A458" s="2"/>
       <c r="B458" s="2"/>
       <c r="C458" s="2"/>
@@ -10728,7 +10707,7 @@
       <c r="R458" s="2"/>
       <c r="S458" s="2"/>
     </row>
-    <row r="459" spans="1:19">
+    <row r="459" ht="15.75" customHeight="1">
       <c r="A459" s="2"/>
       <c r="B459" s="2"/>
       <c r="C459" s="2"/>
@@ -10749,7 +10728,7 @@
       <c r="R459" s="2"/>
       <c r="S459" s="2"/>
     </row>
-    <row r="460" spans="1:19">
+    <row r="460" ht="15.75" customHeight="1">
       <c r="A460" s="2"/>
       <c r="B460" s="2"/>
       <c r="C460" s="2"/>
@@ -10770,7 +10749,7 @@
       <c r="R460" s="2"/>
       <c r="S460" s="2"/>
     </row>
-    <row r="461" spans="1:19">
+    <row r="461" ht="15.75" customHeight="1">
       <c r="A461" s="2"/>
       <c r="B461" s="2"/>
       <c r="C461" s="2"/>
@@ -10791,7 +10770,7 @@
       <c r="R461" s="2"/>
       <c r="S461" s="2"/>
     </row>
-    <row r="462" spans="1:19">
+    <row r="462" ht="15.75" customHeight="1">
       <c r="A462" s="2"/>
       <c r="B462" s="2"/>
       <c r="C462" s="2"/>
@@ -10812,7 +10791,7 @@
       <c r="R462" s="2"/>
       <c r="S462" s="2"/>
     </row>
-    <row r="463" spans="1:19">
+    <row r="463" ht="15.75" customHeight="1">
       <c r="A463" s="2"/>
       <c r="B463" s="2"/>
       <c r="C463" s="2"/>
@@ -10833,7 +10812,7 @@
       <c r="R463" s="2"/>
       <c r="S463" s="2"/>
     </row>
-    <row r="464" spans="1:19">
+    <row r="464" ht="15.75" customHeight="1">
       <c r="A464" s="2"/>
       <c r="B464" s="2"/>
       <c r="C464" s="2"/>
@@ -10854,7 +10833,7 @@
       <c r="R464" s="2"/>
       <c r="S464" s="2"/>
     </row>
-    <row r="465" spans="1:19">
+    <row r="465" ht="15.75" customHeight="1">
       <c r="A465" s="2"/>
       <c r="B465" s="2"/>
       <c r="C465" s="2"/>
@@ -10875,7 +10854,7 @@
       <c r="R465" s="2"/>
       <c r="S465" s="2"/>
     </row>
-    <row r="466" spans="1:19">
+    <row r="466" ht="15.75" customHeight="1">
       <c r="A466" s="2"/>
       <c r="B466" s="2"/>
       <c r="C466" s="2"/>
@@ -10896,7 +10875,7 @@
       <c r="R466" s="2"/>
       <c r="S466" s="2"/>
     </row>
-    <row r="467" spans="1:19">
+    <row r="467" ht="15.75" customHeight="1">
       <c r="A467" s="2"/>
       <c r="B467" s="2"/>
       <c r="C467" s="2"/>
@@ -10917,7 +10896,7 @@
       <c r="R467" s="2"/>
       <c r="S467" s="2"/>
     </row>
-    <row r="468" spans="1:19">
+    <row r="468" ht="15.75" customHeight="1">
       <c r="A468" s="2"/>
       <c r="B468" s="2"/>
       <c r="C468" s="2"/>
@@ -10938,7 +10917,7 @@
       <c r="R468" s="2"/>
       <c r="S468" s="2"/>
     </row>
-    <row r="469" spans="1:19">
+    <row r="469" ht="15.75" customHeight="1">
       <c r="A469" s="2"/>
       <c r="B469" s="2"/>
       <c r="C469" s="2"/>
@@ -10959,7 +10938,7 @@
       <c r="R469" s="2"/>
       <c r="S469" s="2"/>
     </row>
-    <row r="470" spans="1:19">
+    <row r="470" ht="15.75" customHeight="1">
       <c r="A470" s="2"/>
       <c r="B470" s="2"/>
       <c r="C470" s="2"/>
@@ -10980,7 +10959,7 @@
       <c r="R470" s="2"/>
       <c r="S470" s="2"/>
     </row>
-    <row r="471" spans="1:19">
+    <row r="471" ht="15.75" customHeight="1">
       <c r="A471" s="2"/>
       <c r="B471" s="2"/>
       <c r="C471" s="2"/>
@@ -11001,7 +10980,7 @@
       <c r="R471" s="2"/>
       <c r="S471" s="2"/>
     </row>
-    <row r="472" spans="1:19">
+    <row r="472" ht="15.75" customHeight="1">
       <c r="A472" s="2"/>
       <c r="B472" s="2"/>
       <c r="C472" s="2"/>
@@ -11022,7 +11001,7 @@
       <c r="R472" s="2"/>
       <c r="S472" s="2"/>
     </row>
-    <row r="473" spans="1:19">
+    <row r="473" ht="15.75" customHeight="1">
       <c r="A473" s="2"/>
       <c r="B473" s="2"/>
       <c r="C473" s="2"/>
@@ -11043,7 +11022,7 @@
       <c r="R473" s="2"/>
       <c r="S473" s="2"/>
     </row>
-    <row r="474" spans="1:19">
+    <row r="474" ht="15.75" customHeight="1">
       <c r="A474" s="2"/>
       <c r="B474" s="2"/>
       <c r="C474" s="2"/>
@@ -11064,7 +11043,7 @@
       <c r="R474" s="2"/>
       <c r="S474" s="2"/>
     </row>
-    <row r="475" spans="1:19">
+    <row r="475" ht="15.75" customHeight="1">
       <c r="A475" s="2"/>
       <c r="B475" s="2"/>
       <c r="C475" s="2"/>
@@ -11085,7 +11064,7 @@
       <c r="R475" s="2"/>
       <c r="S475" s="2"/>
     </row>
-    <row r="476" spans="1:19">
+    <row r="476" ht="15.75" customHeight="1">
       <c r="A476" s="2"/>
       <c r="B476" s="2"/>
       <c r="C476" s="2"/>
@@ -11106,7 +11085,7 @@
       <c r="R476" s="2"/>
       <c r="S476" s="2"/>
     </row>
-    <row r="477" spans="1:19">
+    <row r="477" ht="15.75" customHeight="1">
       <c r="A477" s="2"/>
       <c r="B477" s="2"/>
       <c r="C477" s="2"/>
@@ -11127,7 +11106,7 @@
       <c r="R477" s="2"/>
       <c r="S477" s="2"/>
     </row>
-    <row r="478" spans="1:19">
+    <row r="478" ht="15.75" customHeight="1">
       <c r="A478" s="2"/>
       <c r="B478" s="2"/>
       <c r="C478" s="2"/>
@@ -11148,7 +11127,7 @@
       <c r="R478" s="2"/>
       <c r="S478" s="2"/>
     </row>
-    <row r="479" spans="1:19">
+    <row r="479" ht="15.75" customHeight="1">
       <c r="A479" s="2"/>
       <c r="B479" s="2"/>
       <c r="C479" s="2"/>
@@ -11169,7 +11148,7 @@
       <c r="R479" s="2"/>
       <c r="S479" s="2"/>
     </row>
-    <row r="480" spans="1:19">
+    <row r="480" ht="15.75" customHeight="1">
       <c r="A480" s="2"/>
       <c r="B480" s="2"/>
       <c r="C480" s="2"/>
@@ -11190,7 +11169,7 @@
       <c r="R480" s="2"/>
       <c r="S480" s="2"/>
     </row>
-    <row r="481" spans="1:19">
+    <row r="481" ht="15.75" customHeight="1">
       <c r="A481" s="2"/>
       <c r="B481" s="2"/>
       <c r="C481" s="2"/>
@@ -11211,7 +11190,7 @@
       <c r="R481" s="2"/>
       <c r="S481" s="2"/>
     </row>
-    <row r="482" spans="1:19">
+    <row r="482" ht="15.75" customHeight="1">
       <c r="A482" s="2"/>
       <c r="B482" s="2"/>
       <c r="C482" s="2"/>
@@ -11232,7 +11211,7 @@
       <c r="R482" s="2"/>
       <c r="S482" s="2"/>
     </row>
-    <row r="483" spans="1:19">
+    <row r="483" ht="15.75" customHeight="1">
       <c r="A483" s="2"/>
       <c r="B483" s="2"/>
       <c r="C483" s="2"/>
@@ -11253,7 +11232,7 @@
       <c r="R483" s="2"/>
       <c r="S483" s="2"/>
     </row>
-    <row r="484" spans="1:19">
+    <row r="484" ht="15.75" customHeight="1">
       <c r="A484" s="2"/>
       <c r="B484" s="2"/>
       <c r="C484" s="2"/>
@@ -11274,7 +11253,7 @@
       <c r="R484" s="2"/>
       <c r="S484" s="2"/>
     </row>
-    <row r="485" spans="1:19">
+    <row r="485" ht="15.75" customHeight="1">
       <c r="A485" s="2"/>
       <c r="B485" s="2"/>
       <c r="C485" s="2"/>
@@ -11295,7 +11274,7 @@
       <c r="R485" s="2"/>
       <c r="S485" s="2"/>
     </row>
-    <row r="486" spans="1:19">
+    <row r="486" ht="15.75" customHeight="1">
       <c r="A486" s="2"/>
       <c r="B486" s="2"/>
       <c r="C486" s="2"/>
@@ -11316,7 +11295,7 @@
       <c r="R486" s="2"/>
       <c r="S486" s="2"/>
     </row>
-    <row r="487" spans="1:19">
+    <row r="487" ht="15.75" customHeight="1">
       <c r="A487" s="2"/>
       <c r="B487" s="2"/>
       <c r="C487" s="2"/>
@@ -11337,7 +11316,7 @@
       <c r="R487" s="2"/>
       <c r="S487" s="2"/>
     </row>
-    <row r="488" spans="1:19">
+    <row r="488" ht="15.75" customHeight="1">
       <c r="A488" s="2"/>
       <c r="B488" s="2"/>
       <c r="C488" s="2"/>
@@ -11358,7 +11337,7 @@
       <c r="R488" s="2"/>
       <c r="S488" s="2"/>
     </row>
-    <row r="489" spans="1:19">
+    <row r="489" ht="15.75" customHeight="1">
       <c r="A489" s="2"/>
       <c r="B489" s="2"/>
       <c r="C489" s="2"/>
@@ -11379,7 +11358,7 @@
       <c r="R489" s="2"/>
       <c r="S489" s="2"/>
     </row>
-    <row r="490" spans="1:19">
+    <row r="490" ht="15.75" customHeight="1">
       <c r="A490" s="2"/>
       <c r="B490" s="2"/>
       <c r="C490" s="2"/>
@@ -11400,7 +11379,7 @@
       <c r="R490" s="2"/>
       <c r="S490" s="2"/>
     </row>
-    <row r="491" spans="1:19">
+    <row r="491" ht="15.75" customHeight="1">
       <c r="A491" s="2"/>
       <c r="B491" s="2"/>
       <c r="C491" s="2"/>
@@ -11421,7 +11400,7 @@
       <c r="R491" s="2"/>
       <c r="S491" s="2"/>
     </row>
-    <row r="492" spans="1:19">
+    <row r="492" ht="15.75" customHeight="1">
       <c r="A492" s="2"/>
       <c r="B492" s="2"/>
       <c r="C492" s="2"/>
@@ -11442,7 +11421,7 @@
       <c r="R492" s="2"/>
       <c r="S492" s="2"/>
     </row>
-    <row r="493" spans="1:19">
+    <row r="493" ht="15.75" customHeight="1">
       <c r="A493" s="2"/>
       <c r="B493" s="2"/>
       <c r="C493" s="2"/>
@@ -11463,7 +11442,7 @@
       <c r="R493" s="2"/>
       <c r="S493" s="2"/>
     </row>
-    <row r="494" spans="1:19">
+    <row r="494" ht="15.75" customHeight="1">
       <c r="A494" s="2"/>
       <c r="B494" s="2"/>
       <c r="C494" s="2"/>
@@ -11484,7 +11463,7 @@
       <c r="R494" s="2"/>
       <c r="S494" s="2"/>
     </row>
-    <row r="495" spans="1:19">
+    <row r="495" ht="15.75" customHeight="1">
       <c r="A495" s="2"/>
       <c r="B495" s="2"/>
       <c r="C495" s="2"/>
@@ -11505,7 +11484,7 @@
       <c r="R495" s="2"/>
       <c r="S495" s="2"/>
     </row>
-    <row r="496" spans="1:19">
+    <row r="496" ht="15.75" customHeight="1">
       <c r="A496" s="2"/>
       <c r="B496" s="2"/>
       <c r="C496" s="2"/>
@@ -11526,7 +11505,7 @@
       <c r="R496" s="2"/>
       <c r="S496" s="2"/>
     </row>
-    <row r="497" spans="1:19">
+    <row r="497" ht="15.75" customHeight="1">
       <c r="A497" s="2"/>
       <c r="B497" s="2"/>
       <c r="C497" s="2"/>
@@ -11547,7 +11526,7 @@
       <c r="R497" s="2"/>
       <c r="S497" s="2"/>
     </row>
-    <row r="498" spans="1:19">
+    <row r="498" ht="15.75" customHeight="1">
       <c r="A498" s="2"/>
       <c r="B498" s="2"/>
       <c r="C498" s="2"/>
@@ -11568,7 +11547,7 @@
       <c r="R498" s="2"/>
       <c r="S498" s="2"/>
     </row>
-    <row r="499" spans="1:19">
+    <row r="499" ht="15.75" customHeight="1">
       <c r="A499" s="2"/>
       <c r="B499" s="2"/>
       <c r="C499" s="2"/>
@@ -11589,7 +11568,7 @@
       <c r="R499" s="2"/>
       <c r="S499" s="2"/>
     </row>
-    <row r="500" spans="1:19">
+    <row r="500" ht="15.75" customHeight="1">
       <c r="A500" s="2"/>
       <c r="B500" s="2"/>
       <c r="C500" s="2"/>
@@ -11610,7 +11589,7 @@
       <c r="R500" s="2"/>
       <c r="S500" s="2"/>
     </row>
-    <row r="501" spans="1:19">
+    <row r="501" ht="15.75" customHeight="1">
       <c r="A501" s="2"/>
       <c r="B501" s="2"/>
       <c r="C501" s="2"/>
@@ -11631,7 +11610,7 @@
       <c r="R501" s="2"/>
       <c r="S501" s="2"/>
     </row>
-    <row r="502" spans="1:19">
+    <row r="502" ht="15.75" customHeight="1">
       <c r="A502" s="2"/>
       <c r="B502" s="2"/>
       <c r="C502" s="2"/>
@@ -11652,7 +11631,7 @@
       <c r="R502" s="2"/>
       <c r="S502" s="2"/>
     </row>
-    <row r="503" spans="1:19">
+    <row r="503" ht="15.75" customHeight="1">
       <c r="A503" s="2"/>
       <c r="B503" s="2"/>
       <c r="C503" s="2"/>
@@ -11673,7 +11652,7 @@
       <c r="R503" s="2"/>
       <c r="S503" s="2"/>
     </row>
-    <row r="504" spans="1:19">
+    <row r="504" ht="15.75" customHeight="1">
       <c r="A504" s="2"/>
       <c r="B504" s="2"/>
       <c r="C504" s="2"/>
@@ -11694,7 +11673,7 @@
       <c r="R504" s="2"/>
       <c r="S504" s="2"/>
     </row>
-    <row r="505" spans="1:19">
+    <row r="505" ht="15.75" customHeight="1">
       <c r="A505" s="2"/>
       <c r="B505" s="2"/>
       <c r="C505" s="2"/>
@@ -11715,7 +11694,7 @@
       <c r="R505" s="2"/>
       <c r="S505" s="2"/>
     </row>
-    <row r="506" spans="1:19">
+    <row r="506" ht="15.75" customHeight="1">
       <c r="A506" s="2"/>
       <c r="B506" s="2"/>
       <c r="C506" s="2"/>
@@ -11736,7 +11715,7 @@
       <c r="R506" s="2"/>
       <c r="S506" s="2"/>
     </row>
-    <row r="507" spans="1:19">
+    <row r="507" ht="15.75" customHeight="1">
       <c r="A507" s="2"/>
       <c r="B507" s="2"/>
       <c r="C507" s="2"/>
@@ -11757,7 +11736,7 @@
       <c r="R507" s="2"/>
       <c r="S507" s="2"/>
     </row>
-    <row r="508" spans="1:19">
+    <row r="508" ht="15.75" customHeight="1">
       <c r="A508" s="2"/>
       <c r="B508" s="2"/>
       <c r="C508" s="2"/>
@@ -11778,7 +11757,7 @@
       <c r="R508" s="2"/>
       <c r="S508" s="2"/>
     </row>
-    <row r="509" spans="1:19">
+    <row r="509" ht="15.75" customHeight="1">
       <c r="A509" s="2"/>
       <c r="B509" s="2"/>
       <c r="C509" s="2"/>
@@ -11799,7 +11778,7 @@
       <c r="R509" s="2"/>
       <c r="S509" s="2"/>
     </row>
-    <row r="510" spans="1:19">
+    <row r="510" ht="15.75" customHeight="1">
       <c r="A510" s="2"/>
       <c r="B510" s="2"/>
       <c r="C510" s="2"/>
@@ -11820,7 +11799,7 @@
       <c r="R510" s="2"/>
       <c r="S510" s="2"/>
     </row>
-    <row r="511" spans="1:19">
+    <row r="511" ht="15.75" customHeight="1">
       <c r="A511" s="2"/>
       <c r="B511" s="2"/>
       <c r="C511" s="2"/>
@@ -11841,7 +11820,7 @@
       <c r="R511" s="2"/>
       <c r="S511" s="2"/>
     </row>
-    <row r="512" spans="1:19">
+    <row r="512" ht="15.75" customHeight="1">
       <c r="A512" s="2"/>
       <c r="B512" s="2"/>
       <c r="C512" s="2"/>
@@ -11862,7 +11841,7 @@
       <c r="R512" s="2"/>
       <c r="S512" s="2"/>
     </row>
-    <row r="513" spans="1:19">
+    <row r="513" ht="15.75" customHeight="1">
       <c r="A513" s="2"/>
       <c r="B513" s="2"/>
       <c r="C513" s="2"/>
@@ -11883,7 +11862,7 @@
       <c r="R513" s="2"/>
       <c r="S513" s="2"/>
     </row>
-    <row r="514" spans="1:19">
+    <row r="514" ht="15.75" customHeight="1">
       <c r="A514" s="2"/>
       <c r="B514" s="2"/>
       <c r="C514" s="2"/>
@@ -11904,7 +11883,7 @@
       <c r="R514" s="2"/>
       <c r="S514" s="2"/>
     </row>
-    <row r="515" spans="1:19">
+    <row r="515" ht="15.75" customHeight="1">
       <c r="A515" s="2"/>
       <c r="B515" s="2"/>
       <c r="C515" s="2"/>
@@ -11925,7 +11904,7 @@
       <c r="R515" s="2"/>
       <c r="S515" s="2"/>
     </row>
-    <row r="516" spans="1:19">
+    <row r="516" ht="15.75" customHeight="1">
       <c r="A516" s="2"/>
       <c r="B516" s="2"/>
       <c r="C516" s="2"/>
@@ -11946,7 +11925,7 @@
       <c r="R516" s="2"/>
       <c r="S516" s="2"/>
     </row>
-    <row r="517" spans="1:19">
+    <row r="517" ht="15.75" customHeight="1">
       <c r="A517" s="2"/>
       <c r="B517" s="2"/>
       <c r="C517" s="2"/>
@@ -11967,7 +11946,7 @@
       <c r="R517" s="2"/>
       <c r="S517" s="2"/>
     </row>
-    <row r="518" spans="1:19">
+    <row r="518" ht="15.75" customHeight="1">
       <c r="A518" s="2"/>
       <c r="B518" s="2"/>
       <c r="C518" s="2"/>
@@ -11988,7 +11967,7 @@
       <c r="R518" s="2"/>
       <c r="S518" s="2"/>
     </row>
-    <row r="519" spans="1:19">
+    <row r="519" ht="15.75" customHeight="1">
       <c r="A519" s="2"/>
       <c r="B519" s="2"/>
       <c r="C519" s="2"/>
@@ -12009,7 +11988,7 @@
       <c r="R519" s="2"/>
       <c r="S519" s="2"/>
     </row>
-    <row r="520" spans="1:19">
+    <row r="520" ht="15.75" customHeight="1">
       <c r="A520" s="2"/>
       <c r="B520" s="2"/>
       <c r="C520" s="2"/>
@@ -12030,7 +12009,7 @@
       <c r="R520" s="2"/>
       <c r="S520" s="2"/>
     </row>
-    <row r="521" spans="1:19">
+    <row r="521" ht="15.75" customHeight="1">
       <c r="A521" s="2"/>
       <c r="B521" s="2"/>
       <c r="C521" s="2"/>
@@ -12051,7 +12030,7 @@
       <c r="R521" s="2"/>
       <c r="S521" s="2"/>
     </row>
-    <row r="522" spans="1:19">
+    <row r="522" ht="15.75" customHeight="1">
       <c r="A522" s="2"/>
       <c r="B522" s="2"/>
       <c r="C522" s="2"/>
@@ -12072,7 +12051,7 @@
       <c r="R522" s="2"/>
       <c r="S522" s="2"/>
     </row>
-    <row r="523" spans="1:19">
+    <row r="523" ht="15.75" customHeight="1">
       <c r="A523" s="2"/>
       <c r="B523" s="2"/>
       <c r="C523" s="2"/>
@@ -12093,7 +12072,7 @@
       <c r="R523" s="2"/>
       <c r="S523" s="2"/>
     </row>
-    <row r="524" spans="1:19">
+    <row r="524" ht="15.75" customHeight="1">
       <c r="A524" s="2"/>
       <c r="B524" s="2"/>
       <c r="C524" s="2"/>
@@ -12114,7 +12093,7 @@
       <c r="R524" s="2"/>
       <c r="S524" s="2"/>
     </row>
-    <row r="525" spans="1:19">
+    <row r="525" ht="15.75" customHeight="1">
       <c r="A525" s="2"/>
       <c r="B525" s="2"/>
       <c r="C525" s="2"/>
@@ -12135,7 +12114,7 @@
       <c r="R525" s="2"/>
       <c r="S525" s="2"/>
     </row>
-    <row r="526" spans="1:19">
+    <row r="526" ht="15.75" customHeight="1">
       <c r="A526" s="2"/>
       <c r="B526" s="2"/>
       <c r="C526" s="2"/>
@@ -12156,7 +12135,7 @@
       <c r="R526" s="2"/>
       <c r="S526" s="2"/>
     </row>
-    <row r="527" spans="1:19">
+    <row r="527" ht="15.75" customHeight="1">
       <c r="A527" s="2"/>
       <c r="B527" s="2"/>
       <c r="C527" s="2"/>
@@ -12177,7 +12156,7 @@
       <c r="R527" s="2"/>
       <c r="S527" s="2"/>
     </row>
-    <row r="528" spans="1:19">
+    <row r="528" ht="15.75" customHeight="1">
       <c r="A528" s="2"/>
       <c r="B528" s="2"/>
       <c r="C528" s="2"/>
@@ -12198,7 +12177,7 @@
       <c r="R528" s="2"/>
       <c r="S528" s="2"/>
     </row>
-    <row r="529" spans="1:19">
+    <row r="529" ht="15.75" customHeight="1">
       <c r="A529" s="2"/>
       <c r="B529" s="2"/>
       <c r="C529" s="2"/>
@@ -12219,7 +12198,7 @@
       <c r="R529" s="2"/>
       <c r="S529" s="2"/>
     </row>
-    <row r="530" spans="1:19">
+    <row r="530" ht="15.75" customHeight="1">
       <c r="A530" s="2"/>
       <c r="B530" s="2"/>
       <c r="C530" s="2"/>
@@ -12240,7 +12219,7 @@
       <c r="R530" s="2"/>
       <c r="S530" s="2"/>
     </row>
-    <row r="531" spans="1:19">
+    <row r="531" ht="15.75" customHeight="1">
       <c r="A531" s="2"/>
       <c r="B531" s="2"/>
       <c r="C531" s="2"/>
@@ -12261,7 +12240,7 @@
       <c r="R531" s="2"/>
       <c r="S531" s="2"/>
     </row>
-    <row r="532" spans="1:19">
+    <row r="532" ht="15.75" customHeight="1">
       <c r="A532" s="2"/>
       <c r="B532" s="2"/>
       <c r="C532" s="2"/>
@@ -12282,7 +12261,7 @@
       <c r="R532" s="2"/>
       <c r="S532" s="2"/>
     </row>
-    <row r="533" spans="1:19">
+    <row r="533" ht="15.75" customHeight="1">
       <c r="A533" s="2"/>
       <c r="B533" s="2"/>
       <c r="C533" s="2"/>
@@ -12303,7 +12282,7 @@
       <c r="R533" s="2"/>
       <c r="S533" s="2"/>
     </row>
-    <row r="534" spans="1:19">
+    <row r="534" ht="15.75" customHeight="1">
       <c r="A534" s="2"/>
       <c r="B534" s="2"/>
       <c r="C534" s="2"/>
@@ -12324,7 +12303,7 @@
       <c r="R534" s="2"/>
       <c r="S534" s="2"/>
     </row>
-    <row r="535" spans="1:19">
+    <row r="535" ht="15.75" customHeight="1">
       <c r="A535" s="2"/>
       <c r="B535" s="2"/>
       <c r="C535" s="2"/>
@@ -12345,7 +12324,7 @@
       <c r="R535" s="2"/>
       <c r="S535" s="2"/>
     </row>
-    <row r="536" spans="1:19">
+    <row r="536" ht="15.75" customHeight="1">
       <c r="A536" s="2"/>
       <c r="B536" s="2"/>
       <c r="C536" s="2"/>
@@ -12366,7 +12345,7 @@
       <c r="R536" s="2"/>
       <c r="S536" s="2"/>
     </row>
-    <row r="537" spans="1:19">
+    <row r="537" ht="15.75" customHeight="1">
       <c r="A537" s="2"/>
       <c r="B537" s="2"/>
       <c r="C537" s="2"/>
@@ -12387,7 +12366,7 @@
       <c r="R537" s="2"/>
       <c r="S537" s="2"/>
     </row>
-    <row r="538" spans="1:19">
+    <row r="538" ht="15.75" customHeight="1">
       <c r="A538" s="2"/>
       <c r="B538" s="2"/>
       <c r="C538" s="2"/>
@@ -12408,7 +12387,7 @@
       <c r="R538" s="2"/>
       <c r="S538" s="2"/>
     </row>
-    <row r="539" spans="1:19">
+    <row r="539" ht="15.75" customHeight="1">
       <c r="A539" s="2"/>
       <c r="B539" s="2"/>
       <c r="C539" s="2"/>
@@ -12429,7 +12408,7 @@
       <c r="R539" s="2"/>
       <c r="S539" s="2"/>
     </row>
-    <row r="540" spans="1:19">
+    <row r="540" ht="15.75" customHeight="1">
       <c r="A540" s="2"/>
       <c r="B540" s="2"/>
       <c r="C540" s="2"/>
@@ -12450,7 +12429,7 @@
       <c r="R540" s="2"/>
       <c r="S540" s="2"/>
     </row>
-    <row r="541" spans="1:19">
+    <row r="541" ht="15.75" customHeight="1">
       <c r="A541" s="2"/>
       <c r="B541" s="2"/>
       <c r="C541" s="2"/>
@@ -12471,7 +12450,7 @@
       <c r="R541" s="2"/>
       <c r="S541" s="2"/>
     </row>
-    <row r="542" spans="1:19">
+    <row r="542" ht="15.75" customHeight="1">
       <c r="A542" s="2"/>
       <c r="B542" s="2"/>
       <c r="C542" s="2"/>
@@ -12492,7 +12471,7 @@
       <c r="R542" s="2"/>
       <c r="S542" s="2"/>
     </row>
-    <row r="543" spans="1:19">
+    <row r="543" ht="15.75" customHeight="1">
       <c r="A543" s="2"/>
       <c r="B543" s="2"/>
       <c r="C543" s="2"/>
@@ -12513,7 +12492,7 @@
       <c r="R543" s="2"/>
       <c r="S543" s="2"/>
     </row>
-    <row r="544" spans="1:19">
+    <row r="544" ht="15.75" customHeight="1">
       <c r="A544" s="2"/>
       <c r="B544" s="2"/>
       <c r="C544" s="2"/>
@@ -12534,7 +12513,7 @@
       <c r="R544" s="2"/>
       <c r="S544" s="2"/>
     </row>
-    <row r="545" spans="1:19">
+    <row r="545" ht="15.75" customHeight="1">
       <c r="A545" s="2"/>
       <c r="B545" s="2"/>
       <c r="C545" s="2"/>
@@ -12555,7 +12534,7 @@
       <c r="R545" s="2"/>
       <c r="S545" s="2"/>
     </row>
-    <row r="546" spans="1:19">
+    <row r="546" ht="15.75" customHeight="1">
       <c r="A546" s="2"/>
       <c r="B546" s="2"/>
       <c r="C546" s="2"/>
@@ -12576,7 +12555,7 @@
       <c r="R546" s="2"/>
       <c r="S546" s="2"/>
     </row>
-    <row r="547" spans="1:19">
+    <row r="547" ht="15.75" customHeight="1">
       <c r="A547" s="2"/>
       <c r="B547" s="2"/>
       <c r="C547" s="2"/>
@@ -12597,7 +12576,7 @@
       <c r="R547" s="2"/>
       <c r="S547" s="2"/>
     </row>
-    <row r="548" spans="1:19">
+    <row r="548" ht="15.75" customHeight="1">
       <c r="A548" s="2"/>
       <c r="B548" s="2"/>
       <c r="C548" s="2"/>
@@ -12618,7 +12597,7 @@
       <c r="R548" s="2"/>
       <c r="S548" s="2"/>
     </row>
-    <row r="549" spans="1:19">
+    <row r="549" ht="15.75" customHeight="1">
       <c r="A549" s="2"/>
       <c r="B549" s="2"/>
       <c r="C549" s="2"/>
@@ -12639,7 +12618,7 @@
       <c r="R549" s="2"/>
       <c r="S549" s="2"/>
     </row>
-    <row r="550" spans="1:19">
+    <row r="550" ht="15.75" customHeight="1">
       <c r="A550" s="2"/>
       <c r="B550" s="2"/>
       <c r="C550" s="2"/>
@@ -12660,7 +12639,7 @@
       <c r="R550" s="2"/>
       <c r="S550" s="2"/>
     </row>
-    <row r="551" spans="1:19">
+    <row r="551" ht="15.75" customHeight="1">
       <c r="A551" s="2"/>
       <c r="B551" s="2"/>
       <c r="C551" s="2"/>
@@ -12681,7 +12660,7 @@
       <c r="R551" s="2"/>
       <c r="S551" s="2"/>
     </row>
-    <row r="552" spans="1:19">
+    <row r="552" ht="15.75" customHeight="1">
       <c r="A552" s="2"/>
       <c r="B552" s="2"/>
       <c r="C552" s="2"/>
@@ -12702,7 +12681,7 @@
       <c r="R552" s="2"/>
       <c r="S552" s="2"/>
     </row>
-    <row r="553" spans="1:19">
+    <row r="553" ht="15.75" customHeight="1">
       <c r="A553" s="2"/>
       <c r="B553" s="2"/>
       <c r="C553" s="2"/>
@@ -12723,7 +12702,7 @@
       <c r="R553" s="2"/>
       <c r="S553" s="2"/>
     </row>
-    <row r="554" spans="1:19">
+    <row r="554" ht="15.75" customHeight="1">
       <c r="A554" s="2"/>
       <c r="B554" s="2"/>
       <c r="C554" s="2"/>
@@ -12744,7 +12723,7 @@
       <c r="R554" s="2"/>
       <c r="S554" s="2"/>
     </row>
-    <row r="555" spans="1:19">
+    <row r="555" ht="15.75" customHeight="1">
       <c r="A555" s="2"/>
       <c r="B555" s="2"/>
       <c r="C555" s="2"/>
@@ -12765,7 +12744,7 @@
       <c r="R555" s="2"/>
       <c r="S555" s="2"/>
     </row>
-    <row r="556" spans="1:19">
+    <row r="556" ht="15.75" customHeight="1">
       <c r="A556" s="2"/>
       <c r="B556" s="2"/>
       <c r="C556" s="2"/>
@@ -12786,7 +12765,7 @@
       <c r="R556" s="2"/>
       <c r="S556" s="2"/>
     </row>
-    <row r="557" spans="1:19">
+    <row r="557" ht="15.75" customHeight="1">
       <c r="A557" s="2"/>
       <c r="B557" s="2"/>
       <c r="C557" s="2"/>
@@ -12807,7 +12786,7 @@
       <c r="R557" s="2"/>
       <c r="S557" s="2"/>
     </row>
-    <row r="558" spans="1:19">
+    <row r="558" ht="15.75" customHeight="1">
       <c r="A558" s="2"/>
       <c r="B558" s="2"/>
       <c r="C558" s="2"/>
@@ -12828,7 +12807,7 @@
       <c r="R558" s="2"/>
       <c r="S558" s="2"/>
     </row>
-    <row r="559" spans="1:19">
+    <row r="559" ht="15.75" customHeight="1">
       <c r="A559" s="2"/>
       <c r="B559" s="2"/>
       <c r="C559" s="2"/>
@@ -12849,7 +12828,7 @@
       <c r="R559" s="2"/>
       <c r="S559" s="2"/>
     </row>
-    <row r="560" spans="1:19">
+    <row r="560" ht="15.75" customHeight="1">
       <c r="A560" s="2"/>
       <c r="B560" s="2"/>
       <c r="C560" s="2"/>
@@ -12870,7 +12849,7 @@
       <c r="R560" s="2"/>
       <c r="S560" s="2"/>
     </row>
-    <row r="561" spans="1:19">
+    <row r="561" ht="15.75" customHeight="1">
       <c r="A561" s="2"/>
       <c r="B561" s="2"/>
       <c r="C561" s="2"/>
@@ -12891,7 +12870,7 @@
       <c r="R561" s="2"/>
       <c r="S561" s="2"/>
     </row>
-    <row r="562" spans="1:19">
+    <row r="562" ht="15.75" customHeight="1">
       <c r="A562" s="2"/>
       <c r="B562" s="2"/>
       <c r="C562" s="2"/>
@@ -12912,7 +12891,7 @@
       <c r="R562" s="2"/>
       <c r="S562" s="2"/>
     </row>
-    <row r="563" spans="1:19">
+    <row r="563" ht="15.75" customHeight="1">
       <c r="A563" s="2"/>
       <c r="B563" s="2"/>
       <c r="C563" s="2"/>
@@ -12933,7 +12912,7 @@
       <c r="R563" s="2"/>
       <c r="S563" s="2"/>
     </row>
-    <row r="564" spans="1:19">
+    <row r="564" ht="15.75" customHeight="1">
       <c r="A564" s="2"/>
       <c r="B564" s="2"/>
       <c r="C564" s="2"/>
@@ -12954,7 +12933,7 @@
       <c r="R564" s="2"/>
       <c r="S564" s="2"/>
     </row>
-    <row r="565" spans="1:19">
+    <row r="565" ht="15.75" customHeight="1">
       <c r="A565" s="2"/>
       <c r="B565" s="2"/>
       <c r="C565" s="2"/>
@@ -12975,7 +12954,7 @@
       <c r="R565" s="2"/>
       <c r="S565" s="2"/>
     </row>
-    <row r="566" spans="1:19">
+    <row r="566" ht="15.75" customHeight="1">
       <c r="A566" s="2"/>
       <c r="B566" s="2"/>
       <c r="C566" s="2"/>
@@ -12996,7 +12975,7 @@
       <c r="R566" s="2"/>
       <c r="S566" s="2"/>
     </row>
-    <row r="567" spans="1:19">
+    <row r="567" ht="15.75" customHeight="1">
       <c r="A567" s="2"/>
       <c r="B567" s="2"/>
       <c r="C567" s="2"/>
@@ -13017,7 +12996,7 @@
       <c r="R567" s="2"/>
       <c r="S567" s="2"/>
     </row>
-    <row r="568" spans="1:19">
+    <row r="568" ht="15.75" customHeight="1">
       <c r="A568" s="2"/>
       <c r="B568" s="2"/>
       <c r="C568" s="2"/>
@@ -13038,7 +13017,7 @@
       <c r="R568" s="2"/>
       <c r="S568" s="2"/>
     </row>
-    <row r="569" spans="1:19">
+    <row r="569" ht="15.75" customHeight="1">
       <c r="A569" s="2"/>
       <c r="B569" s="2"/>
       <c r="C569" s="2"/>
@@ -13059,7 +13038,7 @@
       <c r="R569" s="2"/>
       <c r="S569" s="2"/>
     </row>
-    <row r="570" spans="1:19">
+    <row r="570" ht="15.75" customHeight="1">
       <c r="A570" s="2"/>
       <c r="B570" s="2"/>
       <c r="C570" s="2"/>
@@ -13080,7 +13059,7 @@
       <c r="R570" s="2"/>
       <c r="S570" s="2"/>
     </row>
-    <row r="571" spans="1:19">
+    <row r="571" ht="15.75" customHeight="1">
       <c r="A571" s="2"/>
       <c r="B571" s="2"/>
       <c r="C571" s="2"/>
@@ -13101,7 +13080,7 @@
       <c r="R571" s="2"/>
       <c r="S571" s="2"/>
     </row>
-    <row r="572" spans="1:19">
+    <row r="572" ht="15.75" customHeight="1">
       <c r="A572" s="2"/>
       <c r="B572" s="2"/>
       <c r="C572" s="2"/>
@@ -13122,7 +13101,7 @@
       <c r="R572" s="2"/>
       <c r="S572" s="2"/>
     </row>
-    <row r="573" spans="1:19">
+    <row r="573" ht="15.75" customHeight="1">
       <c r="A573" s="2"/>
       <c r="B573" s="2"/>
       <c r="C573" s="2"/>
@@ -13143,7 +13122,7 @@
       <c r="R573" s="2"/>
       <c r="S573" s="2"/>
     </row>
-    <row r="574" spans="1:19">
+    <row r="574" ht="15.75" customHeight="1">
       <c r="A574" s="2"/>
       <c r="B574" s="2"/>
       <c r="C574" s="2"/>
@@ -13164,7 +13143,7 @@
       <c r="R574" s="2"/>
       <c r="S574" s="2"/>
     </row>
-    <row r="575" spans="1:19">
+    <row r="575" ht="15.75" customHeight="1">
       <c r="A575" s="2"/>
       <c r="B575" s="2"/>
       <c r="C575" s="2"/>
@@ -13185,7 +13164,7 @@
       <c r="R575" s="2"/>
       <c r="S575" s="2"/>
     </row>
-    <row r="576" spans="1:19">
+    <row r="576" ht="15.75" customHeight="1">
       <c r="A576" s="2"/>
       <c r="B576" s="2"/>
       <c r="C576" s="2"/>
@@ -13206,7 +13185,7 @@
       <c r="R576" s="2"/>
       <c r="S576" s="2"/>
     </row>
-    <row r="577" spans="1:19">
+    <row r="577" ht="15.75" customHeight="1">
       <c r="A577" s="2"/>
       <c r="B577" s="2"/>
       <c r="C577" s="2"/>
@@ -13227,7 +13206,7 @@
       <c r="R577" s="2"/>
       <c r="S577" s="2"/>
     </row>
-    <row r="578" spans="1:19">
+    <row r="578" ht="15.75" customHeight="1">
       <c r="A578" s="2"/>
       <c r="B578" s="2"/>
       <c r="C578" s="2"/>
@@ -13248,7 +13227,7 @@
       <c r="R578" s="2"/>
       <c r="S578" s="2"/>
     </row>
-    <row r="579" spans="1:19">
+    <row r="579" ht="15.75" customHeight="1">
       <c r="A579" s="2"/>
       <c r="B579" s="2"/>
       <c r="C579" s="2"/>
@@ -13269,7 +13248,7 @@
       <c r="R579" s="2"/>
       <c r="S579" s="2"/>
     </row>
-    <row r="580" spans="1:19">
+    <row r="580" ht="15.75" customHeight="1">
       <c r="A580" s="2"/>
       <c r="B580" s="2"/>
       <c r="C580" s="2"/>
@@ -13290,7 +13269,7 @@
       <c r="R580" s="2"/>
       <c r="S580" s="2"/>
     </row>
-    <row r="581" spans="1:19">
+    <row r="581" ht="15.75" customHeight="1">
       <c r="A581" s="2"/>
       <c r="B581" s="2"/>
       <c r="C581" s="2"/>
@@ -13311,7 +13290,7 @@
       <c r="R581" s="2"/>
       <c r="S581" s="2"/>
     </row>
-    <row r="582" spans="1:19">
+    <row r="582" ht="15.75" customHeight="1">
       <c r="A582" s="2"/>
       <c r="B582" s="2"/>
       <c r="C582" s="2"/>
@@ -13332,7 +13311,7 @@
       <c r="R582" s="2"/>
       <c r="S582" s="2"/>
     </row>
-    <row r="583" spans="1:19">
+    <row r="583" ht="15.75" customHeight="1">
       <c r="A583" s="2"/>
       <c r="B583" s="2"/>
       <c r="C583" s="2"/>
@@ -13353,7 +13332,7 @@
       <c r="R583" s="2"/>
       <c r="S583" s="2"/>
     </row>
-    <row r="584" spans="1:19">
+    <row r="584" ht="15.75" customHeight="1">
       <c r="A584" s="2"/>
       <c r="B584" s="2"/>
       <c r="C584" s="2"/>
@@ -13374,7 +13353,7 @@
       <c r="R584" s="2"/>
       <c r="S584" s="2"/>
     </row>
-    <row r="585" spans="1:19">
+    <row r="585" ht="15.75" customHeight="1">
       <c r="A585" s="2"/>
       <c r="B585" s="2"/>
       <c r="C585" s="2"/>
@@ -13395,7 +13374,7 @@
       <c r="R585" s="2"/>
       <c r="S585" s="2"/>
     </row>
-    <row r="586" spans="1:19">
+    <row r="586" ht="15.75" customHeight="1">
       <c r="A586" s="2"/>
       <c r="B586" s="2"/>
       <c r="C586" s="2"/>
@@ -13416,7 +13395,7 @@
       <c r="R586" s="2"/>
       <c r="S586" s="2"/>
     </row>
-    <row r="587" spans="1:19">
+    <row r="587" ht="15.75" customHeight="1">
       <c r="A587" s="2"/>
       <c r="B587" s="2"/>
       <c r="C587" s="2"/>
@@ -13437,7 +13416,7 @@
       <c r="R587" s="2"/>
       <c r="S587" s="2"/>
     </row>
-    <row r="588" spans="1:19">
+    <row r="588" ht="15.75" customHeight="1">
       <c r="A588" s="2"/>
       <c r="B588" s="2"/>
       <c r="C588" s="2"/>
@@ -13458,7 +13437,7 @@
       <c r="R588" s="2"/>
       <c r="S588" s="2"/>
     </row>
-    <row r="589" spans="1:19">
+    <row r="589" ht="15.75" customHeight="1">
       <c r="A589" s="2"/>
       <c r="B589" s="2"/>
       <c r="C589" s="2"/>
@@ -13479,7 +13458,7 @@
       <c r="R589" s="2"/>
       <c r="S589" s="2"/>
     </row>
-    <row r="590" spans="1:19">
+    <row r="590" ht="15.75" customHeight="1">
       <c r="A590" s="2"/>
       <c r="B590" s="2"/>
       <c r="C590" s="2"/>
@@ -13500,7 +13479,7 @@
       <c r="R590" s="2"/>
       <c r="S590" s="2"/>
     </row>
-    <row r="591" spans="1:19">
+    <row r="591" ht="15.75" customHeight="1">
       <c r="A591" s="2"/>
       <c r="B591" s="2"/>
       <c r="C591" s="2"/>
@@ -13521,7 +13500,7 @@
       <c r="R591" s="2"/>
       <c r="S591" s="2"/>
     </row>
-    <row r="592" spans="1:19">
+    <row r="592" ht="15.75" customHeight="1">
       <c r="A592" s="2"/>
       <c r="B592" s="2"/>
       <c r="C592" s="2"/>
@@ -13542,7 +13521,7 @@
       <c r="R592" s="2"/>
       <c r="S592" s="2"/>
     </row>
-    <row r="593" spans="1:19">
+    <row r="593" ht="15.75" customHeight="1">
       <c r="A593" s="2"/>
       <c r="B593" s="2"/>
       <c r="C593" s="2"/>
@@ -13563,7 +13542,7 @@
       <c r="R593" s="2"/>
       <c r="S593" s="2"/>
     </row>
-    <row r="594" spans="1:19">
+    <row r="594" ht="15.75" customHeight="1">
       <c r="A594" s="2"/>
       <c r="B594" s="2"/>
       <c r="C594" s="2"/>
@@ -13584,7 +13563,7 @@
       <c r="R594" s="2"/>
       <c r="S594" s="2"/>
     </row>
-    <row r="595" spans="1:19">
+    <row r="595" ht="15.75" customHeight="1">
       <c r="A595" s="2"/>
       <c r="B595" s="2"/>
       <c r="C595" s="2"/>
@@ -13605,7 +13584,7 @@
       <c r="R595" s="2"/>
       <c r="S595" s="2"/>
     </row>
-    <row r="596" spans="1:19">
+    <row r="596" ht="15.75" customHeight="1">
       <c r="A596" s="2"/>
       <c r="B596" s="2"/>
       <c r="C596" s="2"/>
@@ -13626,7 +13605,7 @@
       <c r="R596" s="2"/>
       <c r="S596" s="2"/>
     </row>
-    <row r="597" spans="1:19">
+    <row r="597" ht="15.75" customHeight="1">
       <c r="A597" s="2"/>
       <c r="B597" s="2"/>
       <c r="C597" s="2"/>
@@ -13647,7 +13626,7 @@
       <c r="R597" s="2"/>
       <c r="S597" s="2"/>
     </row>
-    <row r="598" spans="1:19">
+    <row r="598" ht="15.75" customHeight="1">
       <c r="A598" s="2"/>
       <c r="B598" s="2"/>
       <c r="C598" s="2"/>
@@ -13668,7 +13647,7 @@
       <c r="R598" s="2"/>
       <c r="S598" s="2"/>
     </row>
-    <row r="599" spans="1:19">
+    <row r="599" ht="15.75" customHeight="1">
       <c r="A599" s="2"/>
       <c r="B599" s="2"/>
       <c r="C599" s="2"/>
@@ -13689,7 +13668,7 @@
       <c r="R599" s="2"/>
       <c r="S599" s="2"/>
     </row>
-    <row r="600" spans="1:19">
+    <row r="600" ht="15.75" customHeight="1">
       <c r="A600" s="2"/>
       <c r="B600" s="2"/>
       <c r="C600" s="2"/>
@@ -13710,7 +13689,7 @@
       <c r="R600" s="2"/>
       <c r="S600" s="2"/>
     </row>
-    <row r="601" spans="1:19">
+    <row r="601" ht="15.75" customHeight="1">
       <c r="A601" s="2"/>
       <c r="B601" s="2"/>
       <c r="C601" s="2"/>
@@ -13731,7 +13710,7 @@
       <c r="R601" s="2"/>
       <c r="S601" s="2"/>
     </row>
-    <row r="602" spans="1:19">
+    <row r="602" ht="15.75" customHeight="1">
       <c r="A602" s="2"/>
       <c r="B602" s="2"/>
       <c r="C602" s="2"/>
@@ -13752,7 +13731,7 @@
       <c r="R602" s="2"/>
       <c r="S602" s="2"/>
     </row>
-    <row r="603" spans="1:19">
+    <row r="603" ht="15.75" customHeight="1">
       <c r="A603" s="2"/>
       <c r="B603" s="2"/>
       <c r="C603" s="2"/>
@@ -13773,7 +13752,7 @@
       <c r="R603" s="2"/>
       <c r="S603" s="2"/>
     </row>
-    <row r="604" spans="1:19">
+    <row r="604" ht="15.75" customHeight="1">
       <c r="A604" s="2"/>
       <c r="B604" s="2"/>
       <c r="C604" s="2"/>
@@ -13794,7 +13773,7 @@
       <c r="R604" s="2"/>
       <c r="S604" s="2"/>
     </row>
-    <row r="605" spans="1:19">
+    <row r="605" ht="15.75" customHeight="1">
       <c r="A605" s="2"/>
       <c r="B605" s="2"/>
       <c r="C605" s="2"/>
@@ -13815,7 +13794,7 @@
       <c r="R605" s="2"/>
       <c r="S605" s="2"/>
     </row>
-    <row r="606" spans="1:19">
+    <row r="606" ht="15.75" customHeight="1">
       <c r="A606" s="2"/>
       <c r="B606" s="2"/>
       <c r="C606" s="2"/>
@@ -13836,7 +13815,7 @@
       <c r="R606" s="2"/>
       <c r="S606" s="2"/>
     </row>
-    <row r="607" spans="1:19">
+    <row r="607" ht="15.75" customHeight="1">
       <c r="A607" s="2"/>
       <c r="B607" s="2"/>
       <c r="C607" s="2"/>
@@ -13857,7 +13836,7 @@
       <c r="R607" s="2"/>
       <c r="S607" s="2"/>
     </row>
-    <row r="608" spans="1:19">
+    <row r="608" ht="15.75" customHeight="1">
       <c r="A608" s="2"/>
       <c r="B608" s="2"/>
       <c r="C608" s="2"/>
@@ -13878,7 +13857,7 @@
       <c r="R608" s="2"/>
       <c r="S608" s="2"/>
     </row>
-    <row r="609" spans="1:19">
+    <row r="609" ht="15.75" customHeight="1">
       <c r="A609" s="2"/>
       <c r="B609" s="2"/>
       <c r="C609" s="2"/>
@@ -13899,7 +13878,7 @@
       <c r="R609" s="2"/>
       <c r="S609" s="2"/>
     </row>
-    <row r="610" spans="1:19">
+    <row r="610" ht="15.75" customHeight="1">
       <c r="A610" s="2"/>
       <c r="B610" s="2"/>
       <c r="C610" s="2"/>
@@ -13920,7 +13899,7 @@
       <c r="R610" s="2"/>
       <c r="S610" s="2"/>
     </row>
-    <row r="611" spans="1:19">
+    <row r="611" ht="15.75" customHeight="1">
       <c r="A611" s="2"/>
       <c r="B611" s="2"/>
       <c r="C611" s="2"/>
@@ -13941,7 +13920,7 @@
       <c r="R611" s="2"/>
       <c r="S611" s="2"/>
     </row>
-    <row r="612" spans="1:19">
+    <row r="612" ht="15.75" customHeight="1">
       <c r="A612" s="2"/>
       <c r="B612" s="2"/>
       <c r="C612" s="2"/>
@@ -13962,7 +13941,7 @@
       <c r="R612" s="2"/>
       <c r="S612" s="2"/>
     </row>
-    <row r="613" spans="1:19">
+    <row r="613" ht="15.75" customHeight="1">
       <c r="A613" s="2"/>
       <c r="B613" s="2"/>
       <c r="C613" s="2"/>
@@ -13983,7 +13962,7 @@
       <c r="R613" s="2"/>
       <c r="S613" s="2"/>
     </row>
-    <row r="614" spans="1:19">
+    <row r="614" ht="15.75" customHeight="1">
       <c r="A614" s="2"/>
       <c r="B614" s="2"/>
       <c r="C614" s="2"/>
@@ -14004,7 +13983,7 @@
       <c r="R614" s="2"/>
       <c r="S614" s="2"/>
     </row>
-    <row r="615" spans="1:19">
+    <row r="615" ht="15.75" customHeight="1">
       <c r="A615" s="2"/>
       <c r="B615" s="2"/>
       <c r="C615" s="2"/>
@@ -14025,7 +14004,7 @@
       <c r="R615" s="2"/>
       <c r="S615" s="2"/>
     </row>
-    <row r="616" spans="1:19">
+    <row r="616" ht="15.75" customHeight="1">
       <c r="A616" s="2"/>
       <c r="B616" s="2"/>
       <c r="C616" s="2"/>
@@ -14046,7 +14025,7 @@
       <c r="R616" s="2"/>
       <c r="S616" s="2"/>
     </row>
-    <row r="617" spans="1:19">
+    <row r="617" ht="15.75" customHeight="1">
       <c r="A617" s="2"/>
       <c r="B617" s="2"/>
       <c r="C617" s="2"/>
@@ -14067,7 +14046,7 @@
       <c r="R617" s="2"/>
       <c r="S617" s="2"/>
     </row>
-    <row r="618" spans="1:19">
+    <row r="618" ht="15.75" customHeight="1">
       <c r="A618" s="2"/>
       <c r="B618" s="2"/>
       <c r="C618" s="2"/>
@@ -14088,7 +14067,7 @@
       <c r="R618" s="2"/>
       <c r="S618" s="2"/>
     </row>
-    <row r="619" spans="1:19">
+    <row r="619" ht="15.75" customHeight="1">
       <c r="A619" s="2"/>
       <c r="B619" s="2"/>
       <c r="C619" s="2"/>
@@ -14109,7 +14088,7 @@
       <c r="R619" s="2"/>
       <c r="S619" s="2"/>
     </row>
-    <row r="620" spans="1:19">
+    <row r="620" ht="15.75" customHeight="1">
       <c r="A620" s="2"/>
       <c r="B620" s="2"/>
       <c r="C620" s="2"/>
@@ -14130,7 +14109,7 @@
       <c r="R620" s="2"/>
       <c r="S620" s="2"/>
     </row>
-    <row r="621" spans="1:19">
+    <row r="621" ht="15.75" customHeight="1">
       <c r="A621" s="2"/>
       <c r="B621" s="2"/>
       <c r="C621" s="2"/>
@@ -14151,7 +14130,7 @@
       <c r="R621" s="2"/>
       <c r="S621" s="2"/>
     </row>
-    <row r="622" spans="1:19">
+    <row r="622" ht="15.75" customHeight="1">
       <c r="A622" s="2"/>
       <c r="B622" s="2"/>
       <c r="C622" s="2"/>
@@ -14172,7 +14151,7 @@
       <c r="R622" s="2"/>
       <c r="S622" s="2"/>
     </row>
-    <row r="623" spans="1:19">
+    <row r="623" ht="15.75" customHeight="1">
       <c r="A623" s="2"/>
       <c r="B623" s="2"/>
       <c r="C623" s="2"/>
@@ -14193,7 +14172,7 @@
       <c r="R623" s="2"/>
       <c r="S623" s="2"/>
     </row>
-    <row r="624" spans="1:19">
+    <row r="624" ht="15.75" customHeight="1">
       <c r="A624" s="2"/>
       <c r="B624" s="2"/>
       <c r="C624" s="2"/>
@@ -14214,7 +14193,7 @@
       <c r="R624" s="2"/>
       <c r="S624" s="2"/>
     </row>
-    <row r="625" spans="1:19">
+    <row r="625" ht="15.75" customHeight="1">
       <c r="A625" s="2"/>
       <c r="B625" s="2"/>
       <c r="C625" s="2"/>
@@ -14235,7 +14214,7 @@
       <c r="R625" s="2"/>
       <c r="S625" s="2"/>
     </row>
-    <row r="626" spans="1:19">
+    <row r="626" ht="15.75" customHeight="1">
       <c r="A626" s="2"/>
       <c r="B626" s="2"/>
       <c r="C626" s="2"/>
@@ -14256,7 +14235,7 @@
       <c r="R626" s="2"/>
       <c r="S626" s="2"/>
     </row>
-    <row r="627" spans="1:19">
+    <row r="627" ht="15.75" customHeight="1">
       <c r="A627" s="2"/>
       <c r="B627" s="2"/>
       <c r="C627" s="2"/>
@@ -14277,7 +14256,7 @@
       <c r="R627" s="2"/>
       <c r="S627" s="2"/>
     </row>
-    <row r="628" spans="1:19">
+    <row r="628" ht="15.75" customHeight="1">
       <c r="A628" s="2"/>
       <c r="B628" s="2"/>
       <c r="C628" s="2"/>
@@ -14298,7 +14277,7 @@
       <c r="R628" s="2"/>
       <c r="S628" s="2"/>
     </row>
-    <row r="629" spans="1:19">
+    <row r="629" ht="15.75" customHeight="1">
       <c r="A629" s="2"/>
       <c r="B629" s="2"/>
       <c r="C629" s="2"/>
@@ -14319,7 +14298,7 @@
       <c r="R629" s="2"/>
       <c r="S629" s="2"/>
     </row>
-    <row r="630" spans="1:19">
+    <row r="630" ht="15.75" customHeight="1">
       <c r="A630" s="2"/>
       <c r="B630" s="2"/>
       <c r="C630" s="2"/>
@@ -14340,7 +14319,7 @@
       <c r="R630" s="2"/>
       <c r="S630" s="2"/>
     </row>
-    <row r="631" spans="1:19">
+    <row r="631" ht="15.75" customHeight="1">
       <c r="A631" s="2"/>
       <c r="B631" s="2"/>
       <c r="C631" s="2"/>
@@ -14361,7 +14340,7 @@
       <c r="R631" s="2"/>
       <c r="S631" s="2"/>
     </row>
-    <row r="632" spans="1:19">
+    <row r="632" ht="15.75" customHeight="1">
       <c r="A632" s="2"/>
       <c r="B632" s="2"/>
       <c r="C632" s="2"/>
@@ -14382,7 +14361,7 @@
       <c r="R632" s="2"/>
       <c r="S632" s="2"/>
     </row>
-    <row r="633" spans="1:19">
+    <row r="633" ht="15.75" customHeight="1">
       <c r="A633" s="2"/>
       <c r="B633" s="2"/>
       <c r="C633" s="2"/>
@@ -14403,7 +14382,7 @@
       <c r="R633" s="2"/>
       <c r="S633" s="2"/>
     </row>
-    <row r="634" spans="1:19">
+    <row r="634" ht="15.75" customHeight="1">
       <c r="A634" s="2"/>
       <c r="B634" s="2"/>
       <c r="C634" s="2"/>
@@ -14424,7 +14403,7 @@
       <c r="R634" s="2"/>
       <c r="S634" s="2"/>
     </row>
-    <row r="635" spans="1:19">
+    <row r="635" ht="15.75" customHeight="1">
       <c r="A635" s="2"/>
       <c r="B635" s="2"/>
       <c r="C635" s="2"/>
@@ -14445,7 +14424,7 @@
       <c r="R635" s="2"/>
       <c r="S635" s="2"/>
     </row>
-    <row r="636" spans="1:19">
+    <row r="636" ht="15.75" customHeight="1">
       <c r="A636" s="2"/>
       <c r="B636" s="2"/>
       <c r="C636" s="2"/>
@@ -14466,7 +14445,7 @@
       <c r="R636" s="2"/>
       <c r="S636" s="2"/>
     </row>
-    <row r="637" spans="1:19">
+    <row r="637" ht="15.75" customHeight="1">
       <c r="A637" s="2"/>
       <c r="B637" s="2"/>
       <c r="C637" s="2"/>
@@ -14487,7 +14466,7 @@
       <c r="R637" s="2"/>
       <c r="S637" s="2"/>
     </row>
-    <row r="638" spans="1:19">
+    <row r="638" ht="15.75" customHeight="1">
       <c r="A638" s="2"/>
       <c r="B638" s="2"/>
       <c r="C638" s="2"/>
@@ -14508,7 +14487,7 @@
       <c r="R638" s="2"/>
       <c r="S638" s="2"/>
     </row>
-    <row r="639" spans="1:19">
+    <row r="639" ht="15.75" customHeight="1">
       <c r="A639" s="2"/>
       <c r="B639" s="2"/>
       <c r="C639" s="2"/>
@@ -14529,7 +14508,7 @@
       <c r="R639" s="2"/>
       <c r="S639" s="2"/>
     </row>
-    <row r="640" spans="1:19">
+    <row r="640" ht="15.75" customHeight="1">
       <c r="A640" s="2"/>
       <c r="B640" s="2"/>
       <c r="C640" s="2"/>
@@ -14550,7 +14529,7 @@
       <c r="R640" s="2"/>
       <c r="S640" s="2"/>
     </row>
-    <row r="641" spans="1:19">
+    <row r="641" ht="15.75" customHeight="1">
       <c r="A641" s="2"/>
       <c r="B641" s="2"/>
       <c r="C641" s="2"/>
@@ -14571,7 +14550,7 @@
       <c r="R641" s="2"/>
       <c r="S641" s="2"/>
     </row>
-    <row r="642" spans="1:19">
+    <row r="642" ht="15.75" customHeight="1">
       <c r="A642" s="2"/>
       <c r="B642" s="2"/>
       <c r="C642" s="2"/>
@@ -14592,7 +14571,7 @@
       <c r="R642" s="2"/>
       <c r="S642" s="2"/>
     </row>
-    <row r="643" spans="1:19">
+    <row r="643" ht="15.75" customHeight="1">
       <c r="A643" s="2"/>
       <c r="B643" s="2"/>
       <c r="C643" s="2"/>
@@ -14613,7 +14592,7 @@
       <c r="R643" s="2"/>
       <c r="S643" s="2"/>
     </row>
-    <row r="644" spans="1:19">
+    <row r="644" ht="15.75" customHeight="1">
       <c r="A644" s="2"/>
       <c r="B644" s="2"/>
       <c r="C644" s="2"/>
@@ -14634,7 +14613,7 @@
       <c r="R644" s="2"/>
       <c r="S644" s="2"/>
     </row>
-    <row r="645" spans="1:19">
+    <row r="645" ht="15.75" customHeight="1">
       <c r="A645" s="2"/>
       <c r="B645" s="2"/>
       <c r="C645" s="2"/>
@@ -14655,7 +14634,7 @@
       <c r="R645" s="2"/>
       <c r="S645" s="2"/>
     </row>
-    <row r="646" spans="1:19">
+    <row r="646" ht="15.75" customHeight="1">
       <c r="A646" s="2"/>
       <c r="B646" s="2"/>
       <c r="C646" s="2"/>
@@ -14676,7 +14655,7 @@
       <c r="R646" s="2"/>
       <c r="S646" s="2"/>
     </row>
-    <row r="647" spans="1:19">
+    <row r="647" ht="15.75" customHeight="1">
       <c r="A647" s="2"/>
       <c r="B647" s="2"/>
       <c r="C647" s="2"/>
@@ -14697,7 +14676,7 @@
       <c r="R647" s="2"/>
       <c r="S647" s="2"/>
     </row>
-    <row r="648" spans="1:19">
+    <row r="648" ht="15.75" customHeight="1">
       <c r="A648" s="2"/>
       <c r="B648" s="2"/>
       <c r="C648" s="2"/>
@@ -14718,7 +14697,7 @@
       <c r="R648" s="2"/>
       <c r="S648" s="2"/>
     </row>
-    <row r="649" spans="1:19">
+    <row r="649" ht="15.75" customHeight="1">
       <c r="A649" s="2"/>
       <c r="B649" s="2"/>
       <c r="C649" s="2"/>
@@ -14739,7 +14718,7 @@
       <c r="R649" s="2"/>
       <c r="S649" s="2"/>
     </row>
-    <row r="650" spans="1:19">
+    <row r="650" ht="15.75" customHeight="1">
       <c r="A650" s="2"/>
       <c r="B650" s="2"/>
       <c r="C650" s="2"/>
@@ -14760,7 +14739,7 @@
       <c r="R650" s="2"/>
       <c r="S650" s="2"/>
     </row>
-    <row r="651" spans="1:19">
+    <row r="651" ht="15.75" customHeight="1">
       <c r="A651" s="2"/>
       <c r="B651" s="2"/>
       <c r="C651" s="2"/>
@@ -14781,7 +14760,7 @@
       <c r="R651" s="2"/>
       <c r="S651" s="2"/>
     </row>
-    <row r="652" spans="1:19">
+    <row r="652" ht="15.75" customHeight="1">
       <c r="A652" s="2"/>
       <c r="B652" s="2"/>
       <c r="C652" s="2"/>
@@ -14802,7 +14781,7 @@
       <c r="R652" s="2"/>
       <c r="S652" s="2"/>
     </row>
-    <row r="653" spans="1:19">
+    <row r="653" ht="15.75" customHeight="1">
       <c r="A653" s="2"/>
       <c r="B653" s="2"/>
       <c r="C653" s="2"/>
@@ -14823,7 +14802,7 @@
       <c r="R653" s="2"/>
       <c r="S653" s="2"/>
     </row>
-    <row r="654" spans="1:19">
+    <row r="654" ht="15.75" customHeight="1">
       <c r="A654" s="2"/>
       <c r="B654" s="2"/>
       <c r="C654" s="2"/>
@@ -14844,7 +14823,7 @@
       <c r="R654" s="2"/>
       <c r="S654" s="2"/>
     </row>
-    <row r="655" spans="1:19">
+    <row r="655" ht="15.75" customHeight="1">
       <c r="A655" s="2"/>
       <c r="B655" s="2"/>
       <c r="C655" s="2"/>
@@ -14865,7 +14844,7 @@
       <c r="R655" s="2"/>
       <c r="S655" s="2"/>
     </row>
-    <row r="656" spans="1:19">
+    <row r="656" ht="15.75" customHeight="1">
       <c r="A656" s="2"/>
       <c r="B656" s="2"/>
       <c r="C656" s="2"/>
@@ -14886,7 +14865,7 @@
       <c r="R656" s="2"/>
       <c r="S656" s="2"/>
     </row>
-    <row r="657" spans="1:19">
+    <row r="657" ht="15.75" customHeight="1">
       <c r="A657" s="2"/>
       <c r="B657" s="2"/>
       <c r="C657" s="2"/>
@@ -14907,7 +14886,7 @@
       <c r="R657" s="2"/>
       <c r="S657" s="2"/>
     </row>
-    <row r="658" spans="1:19">
+    <row r="658" ht="15.75" customHeight="1">
       <c r="A658" s="2"/>
       <c r="B658" s="2"/>
       <c r="C658" s="2"/>
@@ -14928,7 +14907,7 @@
       <c r="R658" s="2"/>
       <c r="S658" s="2"/>
     </row>
-    <row r="659" spans="1:19">
+    <row r="659" ht="15.75" customHeight="1">
       <c r="A659" s="2"/>
       <c r="B659" s="2"/>
       <c r="C659" s="2"/>
@@ -14949,7 +14928,7 @@
       <c r="R659" s="2"/>
       <c r="S659" s="2"/>
     </row>
-    <row r="660" spans="1:19">
+    <row r="660" ht="15.75" customHeight="1">
       <c r="A660" s="2"/>
       <c r="B660" s="2"/>
       <c r="C660" s="2"/>
@@ -14970,7 +14949,7 @@
       <c r="R660" s="2"/>
       <c r="S660" s="2"/>
     </row>
-    <row r="661" spans="1:19">
+    <row r="661" ht="15.75" customHeight="1">
       <c r="A661" s="2"/>
       <c r="B661" s="2"/>
       <c r="C661" s="2"/>
@@ -14991,7 +14970,7 @@
       <c r="R661" s="2"/>
       <c r="S661" s="2"/>
     </row>
-    <row r="662" spans="1:19">
+    <row r="662" ht="15.75" customHeight="1">
       <c r="A662" s="2"/>
       <c r="B662" s="2"/>
       <c r="C662" s="2"/>
@@ -15012,7 +14991,7 @@
       <c r="R662" s="2"/>
       <c r="S662" s="2"/>
     </row>
-    <row r="663" spans="1:19">
+    <row r="663" ht="15.75" customHeight="1">
       <c r="A663" s="2"/>
       <c r="B663" s="2"/>
       <c r="C663" s="2"/>
@@ -15033,7 +15012,7 @@
       <c r="R663" s="2"/>
       <c r="S663" s="2"/>
     </row>
-    <row r="664" spans="1:19">
+    <row r="664" ht="15.75" customHeight="1">
       <c r="A664" s="2"/>
       <c r="B664" s="2"/>
       <c r="C664" s="2"/>
@@ -15054,7 +15033,7 @@
       <c r="R664" s="2"/>
       <c r="S664" s="2"/>
     </row>
-    <row r="665" spans="1:19">
+    <row r="665" ht="15.75" customHeight="1">
       <c r="A665" s="2"/>
       <c r="B665" s="2"/>
       <c r="C665" s="2"/>
@@ -15075,7 +15054,7 @@
       <c r="R665" s="2"/>
       <c r="S665" s="2"/>
     </row>
-    <row r="666" spans="1:19">
+    <row r="666" ht="15.75" customHeight="1">
       <c r="A666" s="2"/>
       <c r="B666" s="2"/>
       <c r="C666" s="2"/>
@@ -15096,7 +15075,7 @@
       <c r="R666" s="2"/>
       <c r="S666" s="2"/>
     </row>
-    <row r="667" spans="1:19">
+    <row r="667" ht="15.75" customHeight="1">
       <c r="A667" s="2"/>
       <c r="B667" s="2"/>
       <c r="C667" s="2"/>
@@ -15117,7 +15096,7 @@
       <c r="R667" s="2"/>
       <c r="S667" s="2"/>
     </row>
-    <row r="668" spans="1:19">
+    <row r="668" ht="15.75" customHeight="1">
       <c r="A668" s="2"/>
       <c r="B668" s="2"/>
       <c r="C668" s="2"/>
@@ -15138,7 +15117,7 @@
       <c r="R668" s="2"/>
       <c r="S668" s="2"/>
     </row>
-    <row r="669" spans="1:19">
+    <row r="669" ht="15.75" customHeight="1">
       <c r="A669" s="2"/>
       <c r="B669" s="2"/>
       <c r="C669" s="2"/>
@@ -15159,7 +15138,7 @@
       <c r="R669" s="2"/>
       <c r="S669" s="2"/>
     </row>
-    <row r="670" spans="1:19">
+    <row r="670" ht="15.75" customHeight="1">
       <c r="A670" s="2"/>
       <c r="B670" s="2"/>
       <c r="C670" s="2"/>
@@ -15180,7 +15159,7 @@
       <c r="R670" s="2"/>
       <c r="S670" s="2"/>
     </row>
-    <row r="671" spans="1:19">
+    <row r="671" ht="15.75" customHeight="1">
       <c r="A671" s="2"/>
       <c r="B671" s="2"/>
       <c r="C671" s="2"/>
@@ -15201,7 +15180,7 @@
       <c r="R671" s="2"/>
       <c r="S671" s="2"/>
     </row>
-    <row r="672" spans="1:19">
+    <row r="672" ht="15.75" customHeight="1">
       <c r="A672" s="2"/>
       <c r="B672" s="2"/>
       <c r="C672" s="2"/>
@@ -15222,7 +15201,7 @@
       <c r="R672" s="2"/>
       <c r="S672" s="2"/>
     </row>
-    <row r="673" spans="1:19">
+    <row r="673" ht="15.75" customHeight="1">
       <c r="A673" s="2"/>
       <c r="B673" s="2"/>
       <c r="C673" s="2"/>
@@ -15243,7 +15222,7 @@
       <c r="R673" s="2"/>
       <c r="S673" s="2"/>
     </row>
-    <row r="674" spans="1:19">
+    <row r="674" ht="15.75" customHeight="1">
       <c r="A674" s="2"/>
       <c r="B674" s="2"/>
       <c r="C674" s="2"/>
@@ -15264,7 +15243,7 @@
       <c r="R674" s="2"/>
       <c r="S674" s="2"/>
     </row>
-    <row r="675" spans="1:19">
+    <row r="675" ht="15.75" customHeight="1">
       <c r="A675" s="2"/>
       <c r="B675" s="2"/>
       <c r="C675" s="2"/>
@@ -15285,7 +15264,7 @@
       <c r="R675" s="2"/>
       <c r="S675" s="2"/>
     </row>
-    <row r="676" spans="1:19">
+    <row r="676" ht="15.75" customHeight="1">
       <c r="A676" s="2"/>
       <c r="B676" s="2"/>
       <c r="C676" s="2"/>
@@ -15306,7 +15285,7 @@
       <c r="R676" s="2"/>
       <c r="S676" s="2"/>
     </row>
-    <row r="677" spans="1:19">
+    <row r="677" ht="15.75" customHeight="1">
       <c r="A677" s="2"/>
       <c r="B677" s="2"/>
       <c r="C677" s="2"/>
@@ -15327,7 +15306,7 @@
       <c r="R677" s="2"/>
       <c r="S677" s="2"/>
     </row>
-    <row r="678" spans="1:19">
+    <row r="678" ht="15.75" customHeight="1">
       <c r="A678" s="2"/>
       <c r="B678" s="2"/>
       <c r="C678" s="2"/>
@@ -15348,7 +15327,7 @@
       <c r="R678" s="2"/>
       <c r="S678" s="2"/>
     </row>
-    <row r="679" spans="1:19">
+    <row r="679" ht="15.75" customHeight="1">
       <c r="A679" s="2"/>
       <c r="B679" s="2"/>
       <c r="C679" s="2"/>
@@ -15369,7 +15348,7 @@
       <c r="R679" s="2"/>
       <c r="S679" s="2"/>
     </row>
-    <row r="680" spans="1:19">
+    <row r="680" ht="15.75" customHeight="1">
       <c r="A680" s="2"/>
       <c r="B680" s="2"/>
       <c r="C680" s="2"/>
@@ -15390,7 +15369,7 @@
       <c r="R680" s="2"/>
       <c r="S680" s="2"/>
     </row>
-    <row r="681" spans="1:19">
+    <row r="681" ht="15.75" customHeight="1">
       <c r="A681" s="2"/>
       <c r="B681" s="2"/>
       <c r="C681" s="2"/>
@@ -15411,7 +15390,7 @@
       <c r="R681" s="2"/>
       <c r="S681" s="2"/>
     </row>
-    <row r="682" spans="1:19">
+    <row r="682" ht="15.75" customHeight="1">
       <c r="A682" s="2"/>
       <c r="B682" s="2"/>
       <c r="C682" s="2"/>
@@ -15432,7 +15411,7 @@
       <c r="R682" s="2"/>
       <c r="S682" s="2"/>
     </row>
-    <row r="683" spans="1:19">
+    <row r="683" ht="15.75" customHeight="1">
       <c r="A683" s="2"/>
       <c r="B683" s="2"/>
       <c r="C683" s="2"/>
@@ -15453,7 +15432,7 @@
       <c r="R683" s="2"/>
       <c r="S683" s="2"/>
     </row>
-    <row r="684" spans="1:19">
+    <row r="684" ht="15.75" customHeight="1">
       <c r="A684" s="2"/>
       <c r="B684" s="2"/>
       <c r="C684" s="2"/>
@@ -15474,7 +15453,7 @@
       <c r="R684" s="2"/>
       <c r="S684" s="2"/>
     </row>
-    <row r="685" spans="1:19">
+    <row r="685" ht="15.75" customHeight="1">
       <c r="A685" s="2"/>
       <c r="B685" s="2"/>
       <c r="C685" s="2"/>
@@ -15495,7 +15474,7 @@
       <c r="R685" s="2"/>
       <c r="S685" s="2"/>
     </row>
-    <row r="686" spans="1:19">
+    <row r="686" ht="15.75" customHeight="1">
       <c r="A686" s="2"/>
       <c r="B686" s="2"/>
       <c r="C686" s="2"/>
@@ -15516,7 +15495,7 @@
       <c r="R686" s="2"/>
       <c r="S686" s="2"/>
     </row>
-    <row r="687" spans="1:19">
+    <row r="687" ht="15.75" customHeight="1">
       <c r="A687" s="2"/>
       <c r="B687" s="2"/>
       <c r="C687" s="2"/>
@@ -15537,7 +15516,7 @@
       <c r="R687" s="2"/>
       <c r="S687" s="2"/>
     </row>
-    <row r="688" spans="1:19">
+    <row r="688" ht="15.75" customHeight="1">
       <c r="A688" s="2"/>
       <c r="B688" s="2"/>
       <c r="C688" s="2"/>
@@ -15558,7 +15537,7 @@
       <c r="R688" s="2"/>
       <c r="S688" s="2"/>
     </row>
-    <row r="689" spans="1:19">
+    <row r="689" ht="15.75" customHeight="1">
       <c r="A689" s="2"/>
       <c r="B689" s="2"/>
       <c r="C689" s="2"/>
@@ -15579,7 +15558,7 @@
       <c r="R689" s="2"/>
       <c r="S689" s="2"/>
     </row>
-    <row r="690" spans="1:19">
+    <row r="690" ht="15.75" customHeight="1">
       <c r="A690" s="2"/>
       <c r="B690" s="2"/>
       <c r="C690" s="2"/>
@@ -15600,7 +15579,7 @@
       <c r="R690" s="2"/>
       <c r="S690" s="2"/>
     </row>
-    <row r="691" spans="1:19">
+    <row r="691" ht="15.75" customHeight="1">
       <c r="A691" s="2"/>
       <c r="B691" s="2"/>
       <c r="C691" s="2"/>
@@ -15621,7 +15600,7 @@
       <c r="R691" s="2"/>
       <c r="S691" s="2"/>
     </row>
-    <row r="692" spans="1:19">
+    <row r="692" ht="15.75" customHeight="1">
       <c r="A692" s="2"/>
       <c r="B692" s="2"/>
       <c r="C692" s="2"/>
@@ -15642,7 +15621,7 @@
       <c r="R692" s="2"/>
       <c r="S692" s="2"/>
     </row>
-    <row r="693" spans="1:19">
+    <row r="693" ht="15.75" customHeight="1">
       <c r="A693" s="2"/>
       <c r="B693" s="2"/>
       <c r="C693" s="2"/>
@@ -15663,7 +15642,7 @@
       <c r="R693" s="2"/>
       <c r="S693" s="2"/>
     </row>
-    <row r="694" spans="1:19">
+    <row r="694" ht="15.75" customHeight="1">
       <c r="A694" s="2"/>
       <c r="B694" s="2"/>
       <c r="C694" s="2"/>
@@ -15684,7 +15663,7 @@
       <c r="R694" s="2"/>
       <c r="S694" s="2"/>
     </row>
-    <row r="695" spans="1:19">
+    <row r="695" ht="15.75" customHeight="1">
       <c r="A695" s="2"/>
       <c r="B695" s="2"/>
       <c r="C695" s="2"/>
@@ -15705,7 +15684,7 @@
       <c r="R695" s="2"/>
       <c r="S695" s="2"/>
     </row>
-    <row r="696" spans="1:19">
+    <row r="696" ht="15.75" customHeight="1">
       <c r="A696" s="2"/>
       <c r="B696" s="2"/>
       <c r="C696" s="2"/>
@@ -15726,7 +15705,7 @@
       <c r="R696" s="2"/>
       <c r="S696" s="2"/>
     </row>
-    <row r="697" spans="1:19">
+    <row r="697" ht="15.75" customHeight="1">
       <c r="A697" s="2"/>
       <c r="B697" s="2"/>
       <c r="C697" s="2"/>
@@ -15747,7 +15726,7 @@
       <c r="R697" s="2"/>
       <c r="S697" s="2"/>
     </row>
-    <row r="698" spans="1:19">
+    <row r="698" ht="15.75" customHeight="1">
       <c r="A698" s="2"/>
       <c r="B698" s="2"/>
       <c r="C698" s="2"/>
@@ -15768,7 +15747,7 @@
       <c r="R698" s="2"/>
       <c r="S698" s="2"/>
     </row>
-    <row r="699" spans="1:19">
+    <row r="699" ht="15.75" customHeight="1">
       <c r="A699" s="2"/>
       <c r="B699" s="2"/>
       <c r="C699" s="2"/>
@@ -15789,7 +15768,7 @@
       <c r="R699" s="2"/>
       <c r="S699" s="2"/>
     </row>
-    <row r="700" spans="1:19">
+    <row r="700" ht="15.75" customHeight="1">
       <c r="A700" s="2"/>
       <c r="B700" s="2"/>
       <c r="C700" s="2"/>
@@ -15810,7 +15789,7 @@
       <c r="R700" s="2"/>
       <c r="S700" s="2"/>
     </row>
-    <row r="701" spans="1:19">
+    <row r="701" ht="15.75" customHeight="1">
       <c r="A701" s="2"/>
       <c r="B701" s="2"/>
       <c r="C701" s="2"/>
@@ -15831,7 +15810,7 @@
       <c r="R701" s="2"/>
       <c r="S701" s="2"/>
     </row>
-    <row r="702" spans="1:19">
+    <row r="702" ht="15.75" customHeight="1">
       <c r="A702" s="2"/>
       <c r="B702" s="2"/>
       <c r="C702" s="2"/>
@@ -15852,7 +15831,7 @@
       <c r="R702" s="2"/>
       <c r="S702" s="2"/>
     </row>
-    <row r="703" spans="1:19">
+    <row r="703" ht="15.75" customHeight="1">
       <c r="A703" s="2"/>
       <c r="B703" s="2"/>
       <c r="C703" s="2"/>
@@ -15873,7 +15852,7 @@
       <c r="R703" s="2"/>
       <c r="S703" s="2"/>
     </row>
-    <row r="704" spans="1:19">
+    <row r="704" ht="15.75" customHeight="1">
       <c r="A704" s="2"/>
       <c r="B704" s="2"/>
       <c r="C704" s="2"/>
@@ -15894,7 +15873,7 @@
       <c r="R704" s="2"/>
       <c r="S704" s="2"/>
     </row>
-    <row r="705" spans="1:19">
+    <row r="705" ht="15.75" customHeight="1">
       <c r="A705" s="2"/>
       <c r="B705" s="2"/>
       <c r="C705" s="2"/>
@@ -15915,7 +15894,7 @@
       <c r="R705" s="2"/>
       <c r="S705" s="2"/>
     </row>
-    <row r="706" spans="1:19">
+    <row r="706" ht="15.75" customHeight="1">
       <c r="A706" s="2"/>
       <c r="B706" s="2"/>
       <c r="C706" s="2"/>
@@ -15936,7 +15915,7 @@
       <c r="R706" s="2"/>
       <c r="S706" s="2"/>
     </row>
-    <row r="707" spans="1:19">
+    <row r="707" ht="15.75" customHeight="1">
       <c r="A707" s="2"/>
       <c r="B707" s="2"/>
       <c r="C707" s="2"/>
@@ -15957,7 +15936,7 @@
       <c r="R707" s="2"/>
       <c r="S707" s="2"/>
     </row>
-    <row r="708" spans="1:19">
+    <row r="708" ht="15.75" customHeight="1">
       <c r="A708" s="2"/>
       <c r="B708" s="2"/>
       <c r="C708" s="2"/>
@@ -15978,7 +15957,7 @@
       <c r="R708" s="2"/>
       <c r="S708" s="2"/>
     </row>
-    <row r="709" spans="1:19">
+    <row r="709" ht="15.75" customHeight="1">
       <c r="A709" s="2"/>
       <c r="B709" s="2"/>
       <c r="C709" s="2"/>
@@ -15999,7 +15978,7 @@
       <c r="R709" s="2"/>
       <c r="S709" s="2"/>
     </row>
-    <row r="710" spans="1:19">
+    <row r="710" ht="15.75" customHeight="1">
       <c r="A710" s="2"/>
       <c r="B710" s="2"/>
       <c r="C710" s="2"/>
@@ -16020,7 +15999,7 @@
       <c r="R710" s="2"/>
       <c r="S710" s="2"/>
     </row>
-    <row r="711" spans="1:19">
+    <row r="711" ht="15.75" customHeight="1">
       <c r="A711" s="2"/>
       <c r="B711" s="2"/>
       <c r="C711" s="2"/>
@@ -16041,7 +16020,7 @@
       <c r="R711" s="2"/>
       <c r="S711" s="2"/>
     </row>
-    <row r="712" spans="1:19">
+    <row r="712" ht="15.75" customHeight="1">
       <c r="A712" s="2"/>
       <c r="B712" s="2"/>
       <c r="C712" s="2"/>
@@ -16062,7 +16041,7 @@
       <c r="R712" s="2"/>
       <c r="S712" s="2"/>
     </row>
-    <row r="713" spans="1:19">
+    <row r="713" ht="15.75" customHeight="1">
       <c r="A713" s="2"/>
       <c r="B713" s="2"/>
       <c r="C713" s="2"/>
@@ -16083,7 +16062,7 @@
       <c r="R713" s="2"/>
       <c r="S713" s="2"/>
     </row>
-    <row r="714" spans="1:19">
+    <row r="714" ht="15.75" customHeight="1">
       <c r="A714" s="2"/>
       <c r="B714" s="2"/>
       <c r="C714" s="2"/>
@@ -16104,7 +16083,7 @@
       <c r="R714" s="2"/>
       <c r="S714" s="2"/>
     </row>
-    <row r="715" spans="1:19">
+    <row r="715" ht="15.75" customHeight="1">
       <c r="A715" s="2"/>
       <c r="B715" s="2"/>
       <c r="C715" s="2"/>
@@ -16125,7 +16104,7 @@
       <c r="R715" s="2"/>
       <c r="S715" s="2"/>
     </row>
-    <row r="716" spans="1:19">
+    <row r="716" ht="15.75" customHeight="1">
       <c r="A716" s="2"/>
       <c r="B716" s="2"/>
       <c r="C716" s="2"/>
@@ -16146,7 +16125,7 @@
       <c r="R716" s="2"/>
       <c r="S716" s="2"/>
     </row>
-    <row r="717" spans="1:19">
+    <row r="717" ht="15.75" customHeight="1">
       <c r="A717" s="2"/>
       <c r="B717" s="2"/>
       <c r="C717" s="2"/>
@@ -16167,7 +16146,7 @@
       <c r="R717" s="2"/>
       <c r="S717" s="2"/>
     </row>
-    <row r="718" spans="1:19">
+    <row r="718" ht="15.75" customHeight="1">
       <c r="A718" s="2"/>
       <c r="B718" s="2"/>
       <c r="C718" s="2"/>
@@ -16188,7 +16167,7 @@
       <c r="R718" s="2"/>
       <c r="S718" s="2"/>
     </row>
-    <row r="719" spans="1:19">
+    <row r="719" ht="15.75" customHeight="1">
       <c r="A719" s="2"/>
       <c r="B719" s="2"/>
       <c r="C719" s="2"/>
@@ -16209,7 +16188,7 @@
       <c r="R719" s="2"/>
       <c r="S719" s="2"/>
     </row>
-    <row r="720" spans="1:19">
+    <row r="720" ht="15.75" customHeight="1">
       <c r="A720" s="2"/>
       <c r="B720" s="2"/>
       <c r="C720" s="2"/>
@@ -16230,7 +16209,7 @@
       <c r="R720" s="2"/>
       <c r="S720" s="2"/>
     </row>
-    <row r="721" spans="1:19">
+    <row r="721" ht="15.75" customHeight="1">
       <c r="A721" s="2"/>
       <c r="B721" s="2"/>
       <c r="C721" s="2"/>
@@ -16251,7 +16230,7 @@
       <c r="R721" s="2"/>
       <c r="S721" s="2"/>
     </row>
-    <row r="722" spans="1:19">
+    <row r="722" ht="15.75" customHeight="1">
       <c r="A722" s="2"/>
       <c r="B722" s="2"/>
       <c r="C722" s="2"/>
@@ -16272,7 +16251,7 @@
       <c r="R722" s="2"/>
       <c r="S722" s="2"/>
     </row>
-    <row r="723" spans="1:19">
+    <row r="723" ht="15.75" customHeight="1">
       <c r="A723" s="2"/>
       <c r="B723" s="2"/>
       <c r="C723" s="2"/>
@@ -16293,7 +16272,7 @@
       <c r="R723" s="2"/>
       <c r="S723" s="2"/>
     </row>
-    <row r="724" spans="1:19">
+    <row r="724" ht="15.75" customHeight="1">
       <c r="A724" s="2"/>
       <c r="B724" s="2"/>
       <c r="C724" s="2"/>
@@ -16314,7 +16293,7 @@
       <c r="R724" s="2"/>
       <c r="S724" s="2"/>
     </row>
-    <row r="725" spans="1:19">
+    <row r="725" ht="15.75" customHeight="1">
       <c r="A725" s="2"/>
       <c r="B725" s="2"/>
       <c r="C725" s="2"/>
@@ -16335,7 +16314,7 @@
       <c r="R725" s="2"/>
       <c r="S725" s="2"/>
     </row>
-    <row r="726" spans="1:19">
+    <row r="726" ht="15.75" customHeight="1">
       <c r="A726" s="2"/>
       <c r="B726" s="2"/>
       <c r="C726" s="2"/>
@@ -16356,7 +16335,7 @@
       <c r="R726" s="2"/>
       <c r="S726" s="2"/>
     </row>
-    <row r="727" spans="1:19">
+    <row r="727" ht="15.75" customHeight="1">
       <c r="A727" s="2"/>
       <c r="B727" s="2"/>
       <c r="C727" s="2"/>
@@ -16377,7 +16356,7 @@
       <c r="R727" s="2"/>
       <c r="S727" s="2"/>
     </row>
-    <row r="728" spans="1:19">
+    <row r="728" ht="15.75" customHeight="1">
       <c r="A728" s="2"/>
       <c r="B728" s="2"/>
       <c r="C728" s="2"/>
@@ -16398,7 +16377,7 @@
       <c r="R728" s="2"/>
       <c r="S728" s="2"/>
     </row>
-    <row r="729" spans="1:19">
+    <row r="729" ht="15.75" customHeight="1">
       <c r="A729" s="2"/>
       <c r="B729" s="2"/>
       <c r="C729" s="2"/>
@@ -16419,7 +16398,7 @@
       <c r="R729" s="2"/>
       <c r="S729" s="2"/>
     </row>
-    <row r="730" spans="1:19">
+    <row r="730" ht="15.75" customHeight="1">
       <c r="A730" s="2"/>
       <c r="B730" s="2"/>
       <c r="C730" s="2"/>
@@ -16440,7 +16419,7 @@
       <c r="R730" s="2"/>
       <c r="S730" s="2"/>
     </row>
-    <row r="731" spans="1:19">
+    <row r="731" ht="15.75" customHeight="1">
       <c r="A731" s="2"/>
       <c r="B731" s="2"/>
       <c r="C731" s="2"/>
@@ -16461,7 +16440,7 @@
       <c r="R731" s="2"/>
       <c r="S731" s="2"/>
     </row>
-    <row r="732" spans="1:19">
+    <row r="732" ht="15.75" customHeight="1">
       <c r="A732" s="2"/>
       <c r="B732" s="2"/>
       <c r="C732" s="2"/>
@@ -16482,7 +16461,7 @@
       <c r="R732" s="2"/>
       <c r="S732" s="2"/>
     </row>
-    <row r="733" spans="1:19">
+    <row r="733" ht="15.75" customHeight="1">
       <c r="A733" s="2"/>
       <c r="B733" s="2"/>
       <c r="C733" s="2"/>
@@ -16503,7 +16482,7 @@
       <c r="R733" s="2"/>
       <c r="S733" s="2"/>
     </row>
-    <row r="734" spans="1:19">
+    <row r="734" ht="15.75" customHeight="1">
       <c r="A734" s="2"/>
       <c r="B734" s="2"/>
       <c r="C734" s="2"/>
@@ -16524,7 +16503,7 @@
       <c r="R734" s="2"/>
       <c r="S734" s="2"/>
     </row>
-    <row r="735" spans="1:19">
+    <row r="735" ht="15.75" customHeight="1">
       <c r="A735" s="2"/>
       <c r="B735" s="2"/>
       <c r="C735" s="2"/>
@@ -16545,7 +16524,7 @@
       <c r="R735" s="2"/>
       <c r="S735" s="2"/>
     </row>
-    <row r="736" spans="1:19">
+    <row r="736" ht="15.75" customHeight="1">
       <c r="A736" s="2"/>
       <c r="B736" s="2"/>
       <c r="C736" s="2"/>
@@ -16566,7 +16545,7 @@
       <c r="R736" s="2"/>
       <c r="S736" s="2"/>
     </row>
-    <row r="737" spans="1:19">
+    <row r="737" ht="15.75" customHeight="1">
       <c r="A737" s="2"/>
       <c r="B737" s="2"/>
       <c r="C737" s="2"/>
@@ -16587,7 +16566,7 @@
       <c r="R737" s="2"/>
       <c r="S737" s="2"/>
     </row>
-    <row r="738" spans="1:19">
+    <row r="738" ht="15.75" customHeight="1">
       <c r="A738" s="2"/>
       <c r="B738" s="2"/>
       <c r="C738" s="2"/>
@@ -16608,7 +16587,7 @@
       <c r="R738" s="2"/>
       <c r="S738" s="2"/>
     </row>
-    <row r="739" spans="1:19">
+    <row r="739" ht="15.75" customHeight="1">
       <c r="A739" s="2"/>
       <c r="B739" s="2"/>
       <c r="C739" s="2"/>
@@ -16629,7 +16608,7 @@
       <c r="R739" s="2"/>
       <c r="S739" s="2"/>
     </row>
-    <row r="740" spans="1:19">
+    <row r="740" ht="15.75" customHeight="1">
       <c r="A740" s="2"/>
       <c r="B740" s="2"/>
       <c r="C740" s="2"/>
@@ -16650,7 +16629,7 @@
       <c r="R740" s="2"/>
       <c r="S740" s="2"/>
     </row>
-    <row r="741" spans="1:19">
+    <row r="741" ht="15.75" customHeight="1">
       <c r="A741" s="2"/>
       <c r="B741" s="2"/>
       <c r="C741" s="2"/>
@@ -16671,7 +16650,7 @@
       <c r="R741" s="2"/>
       <c r="S741" s="2"/>
     </row>
-    <row r="742" spans="1:19">
+    <row r="742" ht="15.75" customHeight="1">
       <c r="A742" s="2"/>
       <c r="B742" s="2"/>
       <c r="C742" s="2"/>
@@ -16692,7 +16671,7 @@
       <c r="R742" s="2"/>
       <c r="S742" s="2"/>
     </row>
-    <row r="743" spans="1:19">
+    <row r="743" ht="15.75" customHeight="1">
       <c r="A743" s="2"/>
       <c r="B743" s="2"/>
       <c r="C743" s="2"/>
@@ -16713,7 +16692,7 @@
       <c r="R743" s="2"/>
       <c r="S743" s="2"/>
     </row>
-    <row r="744" spans="1:19">
+    <row r="744" ht="15.75" customHeight="1">
       <c r="A744" s="2"/>
       <c r="B744" s="2"/>
       <c r="C744" s="2"/>
@@ -16734,7 +16713,7 @@
       <c r="R744" s="2"/>
       <c r="S744" s="2"/>
     </row>
-    <row r="745" spans="1:19">
+    <row r="745" ht="15.75" customHeight="1">
       <c r="A745" s="2"/>
       <c r="B745" s="2"/>
       <c r="C745" s="2"/>
@@ -16755,7 +16734,7 @@
       <c r="R745" s="2"/>
       <c r="S745" s="2"/>
     </row>
-    <row r="746" spans="1:19">
+    <row r="746" ht="15.75" customHeight="1">
       <c r="A746" s="2"/>
       <c r="B746" s="2"/>
       <c r="C746" s="2"/>
@@ -16776,7 +16755,7 @@
       <c r="R746" s="2"/>
       <c r="S746" s="2"/>
     </row>
-    <row r="747" spans="1:19">
+    <row r="747" ht="15.75" customHeight="1">
       <c r="A747" s="2"/>
       <c r="B747" s="2"/>
       <c r="C747" s="2"/>
@@ -16797,7 +16776,7 @@
       <c r="R747" s="2"/>
       <c r="S747" s="2"/>
     </row>
-    <row r="748" spans="1:19">
+    <row r="748" ht="15.75" customHeight="1">
       <c r="A748" s="2"/>
       <c r="B748" s="2"/>
       <c r="C748" s="2"/>
@@ -16818,7 +16797,7 @@
       <c r="R748" s="2"/>
       <c r="S748" s="2"/>
     </row>
-    <row r="749" spans="1:19">
+    <row r="749" ht="15.75" customHeight="1">
       <c r="A749" s="2"/>
       <c r="B749" s="2"/>
       <c r="C749" s="2"/>
@@ -16839,7 +16818,7 @@
       <c r="R749" s="2"/>
       <c r="S749" s="2"/>
     </row>
-    <row r="750" spans="1:19">
+    <row r="750" ht="15.75" customHeight="1">
       <c r="A750" s="2"/>
       <c r="B750" s="2"/>
       <c r="C750" s="2"/>
@@ -16860,7 +16839,7 @@
       <c r="R750" s="2"/>
       <c r="S750" s="2"/>
     </row>
-    <row r="751" spans="1:19">
+    <row r="751" ht="15.75" customHeight="1">
       <c r="A751" s="2"/>
       <c r="B751" s="2"/>
       <c r="C751" s="2"/>
@@ -16881,7 +16860,7 @@
       <c r="R751" s="2"/>
       <c r="S751" s="2"/>
     </row>
-    <row r="752" spans="1:19">
+    <row r="752" ht="15.75" customHeight="1">
       <c r="A752" s="2"/>
       <c r="B752" s="2"/>
       <c r="C752" s="2"/>
@@ -16902,7 +16881,7 @@
       <c r="R752" s="2"/>
       <c r="S752" s="2"/>
     </row>
-    <row r="753" spans="1:19">
+    <row r="753" ht="15.75" customHeight="1">
       <c r="A753" s="2"/>
       <c r="B753" s="2"/>
       <c r="C753" s="2"/>
@@ -16923,7 +16902,7 @@
       <c r="R753" s="2"/>
       <c r="S753" s="2"/>
     </row>
-    <row r="754" spans="1:19">
+    <row r="754" ht="15.75" customHeight="1">
       <c r="A754" s="2"/>
       <c r="B754" s="2"/>
       <c r="C754" s="2"/>
@@ -16944,7 +16923,7 @@
       <c r="R754" s="2"/>
       <c r="S754" s="2"/>
     </row>
-    <row r="755" spans="1:19">
+    <row r="755" ht="15.75" customHeight="1">
       <c r="A755" s="2"/>
       <c r="B755" s="2"/>
       <c r="C755" s="2"/>
@@ -16965,7 +16944,7 @@
       <c r="R755" s="2"/>
       <c r="S755" s="2"/>
     </row>
-    <row r="756" spans="1:19">
+    <row r="756" ht="15.75" customHeight="1">
       <c r="A756" s="2"/>
       <c r="B756" s="2"/>
       <c r="C756" s="2"/>
@@ -16986,7 +16965,7 @@
       <c r="R756" s="2"/>
       <c r="S756" s="2"/>
     </row>
-    <row r="757" spans="1:19">
+    <row r="757" ht="15.75" customHeight="1">
       <c r="A757" s="2"/>
       <c r="B757" s="2"/>
       <c r="C757" s="2"/>
@@ -17007,7 +16986,7 @@
       <c r="R757" s="2"/>
       <c r="S757" s="2"/>
     </row>
-    <row r="758" spans="1:19">
+    <row r="758" ht="15.75" customHeight="1">
       <c r="A758" s="2"/>
       <c r="B758" s="2"/>
       <c r="C758" s="2"/>
@@ -17028,7 +17007,7 @@
       <c r="R758" s="2"/>
       <c r="S758" s="2"/>
     </row>
-    <row r="759" spans="1:19">
+    <row r="759" ht="15.75" customHeight="1">
       <c r="A759" s="2"/>
       <c r="B759" s="2"/>
       <c r="C759" s="2"/>
@@ -17049,7 +17028,7 @@
       <c r="R759" s="2"/>
       <c r="S759" s="2"/>
     </row>
-    <row r="760" spans="1:19">
+    <row r="760" ht="15.75" customHeight="1">
       <c r="A760" s="2"/>
       <c r="B760" s="2"/>
       <c r="C760" s="2"/>
@@ -17070,7 +17049,7 @@
       <c r="R760" s="2"/>
       <c r="S760" s="2"/>
     </row>
-    <row r="761" spans="1:19">
+    <row r="761" ht="15.75" customHeight="1">
       <c r="A761" s="2"/>
       <c r="B761" s="2"/>
       <c r="C761" s="2"/>
@@ -17091,7 +17070,7 @@
       <c r="R761" s="2"/>
       <c r="S761" s="2"/>
     </row>
-    <row r="762" spans="1:19">
+    <row r="762" ht="15.75" customHeight="1">
       <c r="A762" s="2"/>
       <c r="B762" s="2"/>
       <c r="C762" s="2"/>
@@ -17112,7 +17091,7 @@
       <c r="R762" s="2"/>
       <c r="S762" s="2"/>
     </row>
-    <row r="763" spans="1:19">
+    <row r="763" ht="15.75" customHeight="1">
       <c r="A763" s="2"/>
       <c r="B763" s="2"/>
       <c r="C763" s="2"/>
@@ -17133,7 +17112,7 @@
       <c r="R763" s="2"/>
       <c r="S763" s="2"/>
     </row>
-    <row r="764" spans="1:19">
+    <row r="764" ht="15.75" customHeight="1">
       <c r="A764" s="2"/>
       <c r="B764" s="2"/>
       <c r="C764" s="2"/>
@@ -17154,7 +17133,7 @@
       <c r="R764" s="2"/>
       <c r="S764" s="2"/>
     </row>
-    <row r="765" spans="1:19">
+    <row r="765" ht="15.75" customHeight="1">
       <c r="A765" s="2"/>
       <c r="B765" s="2"/>
       <c r="C765" s="2"/>
@@ -17175,7 +17154,7 @@
       <c r="R765" s="2"/>
       <c r="S765" s="2"/>
     </row>
-    <row r="766" spans="1:19">
+    <row r="766" ht="15.75" customHeight="1">
       <c r="A766" s="2"/>
       <c r="B766" s="2"/>
       <c r="C766" s="2"/>
@@ -17196,7 +17175,7 @@
       <c r="R766" s="2"/>
       <c r="S766" s="2"/>
     </row>
-    <row r="767" spans="1:19">
+    <row r="767" ht="15.75" customHeight="1">
       <c r="A767" s="2"/>
       <c r="B767" s="2"/>
       <c r="C767" s="2"/>
@@ -17217,7 +17196,7 @@
       <c r="R767" s="2"/>
       <c r="S767" s="2"/>
     </row>
-    <row r="768" spans="1:19">
+    <row r="768" ht="15.75" customHeight="1">
       <c r="A768" s="2"/>
       <c r="B768" s="2"/>
       <c r="C768" s="2"/>
@@ -17238,7 +17217,7 @@
       <c r="R768" s="2"/>
       <c r="S768" s="2"/>
     </row>
-    <row r="769" spans="1:19">
+    <row r="769" ht="15.75" customHeight="1">
       <c r="A769" s="2"/>
       <c r="B769" s="2"/>
       <c r="C769" s="2"/>
@@ -17259,7 +17238,7 @@
       <c r="R769" s="2"/>
       <c r="S769" s="2"/>
     </row>
-    <row r="770" spans="1:19">
+    <row r="770" ht="15.75" customHeight="1">
       <c r="A770" s="2"/>
       <c r="B770" s="2"/>
       <c r="C770" s="2"/>
@@ -17280,7 +17259,7 @@
       <c r="R770" s="2"/>
       <c r="S770" s="2"/>
     </row>
-    <row r="771" spans="1:19">
+    <row r="771" ht="15.75" customHeight="1">
       <c r="A771" s="2"/>
       <c r="B771" s="2"/>
       <c r="C771" s="2"/>
@@ -17301,7 +17280,7 @@
       <c r="R771" s="2"/>
       <c r="S771" s="2"/>
     </row>
-    <row r="772" spans="1:19">
+    <row r="772" ht="15.75" customHeight="1">
       <c r="A772" s="2"/>
       <c r="B772" s="2"/>
       <c r="C772" s="2"/>
@@ -17322,7 +17301,7 @@
       <c r="R772" s="2"/>
       <c r="S772" s="2"/>
     </row>
-    <row r="773" spans="1:19">
+    <row r="773" ht="15.75" customHeight="1">
       <c r="A773" s="2"/>
       <c r="B773" s="2"/>
       <c r="C773" s="2"/>
@@ -17343,7 +17322,7 @@
       <c r="R773" s="2"/>
       <c r="S773" s="2"/>
     </row>
-    <row r="774" spans="1:19">
+    <row r="774" ht="15.75" customHeight="1">
       <c r="A774" s="2"/>
       <c r="B774" s="2"/>
       <c r="C774" s="2"/>
@@ -17364,7 +17343,7 @@
       <c r="R774" s="2"/>
       <c r="S774" s="2"/>
     </row>
-    <row r="775" spans="1:19">
+    <row r="775" ht="15.75" customHeight="1">
       <c r="A775" s="2"/>
       <c r="B775" s="2"/>
       <c r="C775" s="2"/>
@@ -17385,7 +17364,7 @@
       <c r="R775" s="2"/>
       <c r="S775" s="2"/>
     </row>
-    <row r="776" spans="1:19">
+    <row r="776" ht="15.75" customHeight="1">
       <c r="A776" s="2"/>
       <c r="B776" s="2"/>
       <c r="C776" s="2"/>
@@ -17406,7 +17385,7 @@
       <c r="R776" s="2"/>
       <c r="S776" s="2"/>
     </row>
-    <row r="777" spans="1:19">
+    <row r="777" ht="15.75" customHeight="1">
       <c r="A777" s="2"/>
       <c r="B777" s="2"/>
       <c r="C777" s="2"/>
@@ -17427,7 +17406,7 @@
       <c r="R777" s="2"/>
       <c r="S777" s="2"/>
     </row>
-    <row r="778" spans="1:19">
+    <row r="778" ht="15.75" customHeight="1">
       <c r="A778" s="2"/>
       <c r="B778" s="2"/>
       <c r="C778" s="2"/>
@@ -17448,7 +17427,7 @@
       <c r="R778" s="2"/>
       <c r="S778" s="2"/>
     </row>
-    <row r="779" spans="1:19">
+    <row r="779" ht="15.75" customHeight="1">
       <c r="A779" s="2"/>
       <c r="B779" s="2"/>
       <c r="C779" s="2"/>
@@ -17469,7 +17448,7 @@
       <c r="R779" s="2"/>
       <c r="S779" s="2"/>
     </row>
-    <row r="780" spans="1:19">
+    <row r="780" ht="15.75" customHeight="1">
       <c r="A780" s="2"/>
       <c r="B780" s="2"/>
       <c r="C780" s="2"/>
@@ -17490,7 +17469,7 @@
       <c r="R780" s="2"/>
       <c r="S780" s="2"/>
     </row>
-    <row r="781" spans="1:19">
+    <row r="781" ht="15.75" customHeight="1">
       <c r="A781" s="2"/>
       <c r="B781" s="2"/>
       <c r="C781" s="2"/>
@@ -17511,7 +17490,7 @@
       <c r="R781" s="2"/>
       <c r="S781" s="2"/>
     </row>
-    <row r="782" spans="1:19">
+    <row r="782" ht="15.75" customHeight="1">
       <c r="A782" s="2"/>
       <c r="B782" s="2"/>
       <c r="C782" s="2"/>
@@ -17532,7 +17511,7 @@
       <c r="R782" s="2"/>
       <c r="S782" s="2"/>
     </row>
-    <row r="783" spans="1:19">
+    <row r="783" ht="15.75" customHeight="1">
       <c r="A783" s="2"/>
       <c r="B783" s="2"/>
       <c r="C783" s="2"/>
@@ -17553,7 +17532,7 @@
       <c r="R783" s="2"/>
       <c r="S783" s="2"/>
     </row>
-    <row r="784" spans="1:19">
+    <row r="784" ht="15.75" customHeight="1">
       <c r="A784" s="2"/>
       <c r="B784" s="2"/>
       <c r="C784" s="2"/>
@@ -17574,7 +17553,7 @@
       <c r="R784" s="2"/>
       <c r="S784" s="2"/>
     </row>
-    <row r="785" spans="1:19">
+    <row r="785" ht="15.75" customHeight="1">
       <c r="A785" s="2"/>
       <c r="B785" s="2"/>
       <c r="C785" s="2"/>
@@ -17595,7 +17574,7 @@
       <c r="R785" s="2"/>
       <c r="S785" s="2"/>
     </row>
-    <row r="786" spans="1:19">
+    <row r="786" ht="15.75" customHeight="1">
       <c r="A786" s="2"/>
       <c r="B786" s="2"/>
       <c r="C786" s="2"/>
@@ -17616,7 +17595,7 @@
       <c r="R786" s="2"/>
       <c r="S786" s="2"/>
     </row>
-    <row r="787" spans="1:19">
+    <row r="787" ht="15.75" customHeight="1">
       <c r="A787" s="2"/>
       <c r="B787" s="2"/>
       <c r="C787" s="2"/>
@@ -17637,7 +17616,7 @@
       <c r="R787" s="2"/>
       <c r="S787" s="2"/>
     </row>
-    <row r="788" spans="1:19">
+    <row r="788" ht="15.75" customHeight="1">
       <c r="A788" s="2"/>
       <c r="B788" s="2"/>
       <c r="C788" s="2"/>
@@ -17658,7 +17637,7 @@
       <c r="R788" s="2"/>
       <c r="S788" s="2"/>
     </row>
-    <row r="789" spans="1:19">
+    <row r="789" ht="15.75" customHeight="1">
       <c r="A789" s="2"/>
       <c r="B789" s="2"/>
       <c r="C789" s="2"/>
@@ -17679,7 +17658,7 @@
       <c r="R789" s="2"/>
       <c r="S789" s="2"/>
     </row>
-    <row r="790" spans="1:19">
+    <row r="790" ht="15.75" customHeight="1">
       <c r="A790" s="2"/>
       <c r="B790" s="2"/>
       <c r="C790" s="2"/>
@@ -17700,7 +17679,7 @@
       <c r="R790" s="2"/>
       <c r="S790" s="2"/>
     </row>
-    <row r="791" spans="1:19">
+    <row r="791" ht="15.75" customHeight="1">
       <c r="A791" s="2"/>
       <c r="B791" s="2"/>
       <c r="C791" s="2"/>
@@ -17721,7 +17700,7 @@
       <c r="R791" s="2"/>
       <c r="S791" s="2"/>
     </row>
-    <row r="792" spans="1:19">
+    <row r="792" ht="15.75" customHeight="1">
       <c r="A792" s="2"/>
       <c r="B792" s="2"/>
       <c r="C792" s="2"/>
@@ -17742,7 +17721,7 @@
       <c r="R792" s="2"/>
       <c r="S792" s="2"/>
     </row>
-    <row r="793" spans="1:19">
+    <row r="793" ht="15.75" customHeight="1">
       <c r="A793" s="2"/>
       <c r="B793" s="2"/>
       <c r="C793" s="2"/>
@@ -17763,7 +17742,7 @@
       <c r="R793" s="2"/>
       <c r="S793" s="2"/>
     </row>
-    <row r="794" spans="1:19">
+    <row r="794" ht="15.75" customHeight="1">
       <c r="A794" s="2"/>
       <c r="B794" s="2"/>
       <c r="C794" s="2"/>
@@ -17784,7 +17763,7 @@
       <c r="R794" s="2"/>
       <c r="S794" s="2"/>
     </row>
-    <row r="795" spans="1:19">
+    <row r="795" ht="15.75" customHeight="1">
       <c r="A795" s="2"/>
       <c r="B795" s="2"/>
       <c r="C795" s="2"/>
@@ -17805,7 +17784,7 @@
       <c r="R795" s="2"/>
       <c r="S795" s="2"/>
     </row>
-    <row r="796" spans="1:19">
+    <row r="796" ht="15.75" customHeight="1">
       <c r="A796" s="2"/>
       <c r="B796" s="2"/>
       <c r="C796" s="2"/>
@@ -17826,7 +17805,7 @@
       <c r="R796" s="2"/>
       <c r="S796" s="2"/>
     </row>
-    <row r="797" spans="1:19">
+    <row r="797" ht="15.75" customHeight="1">
       <c r="A797" s="2"/>
       <c r="B797" s="2"/>
       <c r="C797" s="2"/>
@@ -17847,7 +17826,7 @@
       <c r="R797" s="2"/>
       <c r="S797" s="2"/>
     </row>
-    <row r="798" spans="1:19">
+    <row r="798" ht="15.75" customHeight="1">
       <c r="A798" s="2"/>
       <c r="B798" s="2"/>
       <c r="C798" s="2"/>
@@ -17868,7 +17847,7 @@
       <c r="R798" s="2"/>
       <c r="S798" s="2"/>
     </row>
-    <row r="799" spans="1:19">
+    <row r="799" ht="15.75" customHeight="1">
       <c r="A799" s="2"/>
       <c r="B799" s="2"/>
       <c r="C799" s="2"/>
@@ -17889,7 +17868,7 @@
       <c r="R799" s="2"/>
       <c r="S799" s="2"/>
     </row>
-    <row r="800" spans="1:19">
+    <row r="800" ht="15.75" customHeight="1">
       <c r="A800" s="2"/>
       <c r="B800" s="2"/>
       <c r="C800" s="2"/>
@@ -17910,7 +17889,7 @@
       <c r="R800" s="2"/>
       <c r="S800" s="2"/>
     </row>
-    <row r="801" spans="1:19">
+    <row r="801" ht="15.75" customHeight="1">
       <c r="A801" s="2"/>
       <c r="B801" s="2"/>
       <c r="C801" s="2"/>
@@ -17931,7 +17910,7 @@
       <c r="R801" s="2"/>
       <c r="S801" s="2"/>
     </row>
-    <row r="802" spans="1:19">
+    <row r="802" ht="15.75" customHeight="1">
       <c r="A802" s="2"/>
       <c r="B802" s="2"/>
       <c r="C802" s="2"/>
@@ -17952,7 +17931,7 @@
       <c r="R802" s="2"/>
       <c r="S802" s="2"/>
     </row>
-    <row r="803" spans="1:19">
+    <row r="803" ht="15.75" customHeight="1">
       <c r="A803" s="2"/>
       <c r="B803" s="2"/>
       <c r="C803" s="2"/>
@@ -17973,7 +17952,7 @@
       <c r="R803" s="2"/>
       <c r="S803" s="2"/>
     </row>
-    <row r="804" spans="1:19">
+    <row r="804" ht="15.75" customHeight="1">
       <c r="A804" s="2"/>
       <c r="B804" s="2"/>
       <c r="C804" s="2"/>
@@ -17994,7 +17973,7 @@
       <c r="R804" s="2"/>
       <c r="S804" s="2"/>
     </row>
-    <row r="805" spans="1:19">
+    <row r="805" ht="15.75" customHeight="1">
       <c r="A805" s="2"/>
       <c r="B805" s="2"/>
       <c r="C805" s="2"/>
@@ -18015,7 +17994,7 @@
       <c r="R805" s="2"/>
       <c r="S805" s="2"/>
     </row>
-    <row r="806" spans="1:19">
+    <row r="806" ht="15.75" customHeight="1">
       <c r="A806" s="2"/>
       <c r="B806" s="2"/>
       <c r="C806" s="2"/>
@@ -18036,7 +18015,7 @@
       <c r="R806" s="2"/>
       <c r="S806" s="2"/>
     </row>
-    <row r="807" spans="1:19">
+    <row r="807" ht="15.75" customHeight="1">
       <c r="A807" s="2"/>
       <c r="B807" s="2"/>
       <c r="C807" s="2"/>
@@ -18057,7 +18036,7 @@
       <c r="R807" s="2"/>
       <c r="S807" s="2"/>
     </row>
-    <row r="808" spans="1:19">
+    <row r="808" ht="15.75" customHeight="1">
       <c r="A808" s="2"/>
       <c r="B808" s="2"/>
       <c r="C808" s="2"/>
@@ -18078,7 +18057,7 @@
       <c r="R808" s="2"/>
       <c r="S808" s="2"/>
     </row>
-    <row r="809" spans="1:19">
+    <row r="809" ht="15.75" customHeight="1">
       <c r="A809" s="2"/>
       <c r="B809" s="2"/>
       <c r="C809" s="2"/>
@@ -18099,7 +18078,7 @@
       <c r="R809" s="2"/>
       <c r="S809" s="2"/>
     </row>
-    <row r="810" spans="1:19">
+    <row r="810" ht="15.75" customHeight="1">
       <c r="A810" s="2"/>
       <c r="B810" s="2"/>
       <c r="C810" s="2"/>
@@ -18120,7 +18099,7 @@
       <c r="R810" s="2"/>
       <c r="S810" s="2"/>
     </row>
-    <row r="811" spans="1:19">
+    <row r="811" ht="15.75" customHeight="1">
       <c r="A811" s="2"/>
       <c r="B811" s="2"/>
       <c r="C811" s="2"/>
@@ -18141,7 +18120,7 @@
       <c r="R811" s="2"/>
       <c r="S811" s="2"/>
     </row>
-    <row r="812" spans="1:19">
+    <row r="812" ht="15.75" customHeight="1">
       <c r="A812" s="2"/>
       <c r="B812" s="2"/>
       <c r="C812" s="2"/>
@@ -18162,7 +18141,7 @@
       <c r="R812" s="2"/>
       <c r="S812" s="2"/>
     </row>
-    <row r="813" spans="1:19">
+    <row r="813" ht="15.75" customHeight="1">
       <c r="A813" s="2"/>
       <c r="B813" s="2"/>
       <c r="C813" s="2"/>
@@ -18183,7 +18162,7 @@
       <c r="R813" s="2"/>
       <c r="S813" s="2"/>
     </row>
-    <row r="814" spans="1:19">
+    <row r="814" ht="15.75" customHeight="1">
       <c r="A814" s="2"/>
       <c r="B814" s="2"/>
       <c r="C814" s="2"/>
@@ -18204,7 +18183,7 @@
       <c r="R814" s="2"/>
       <c r="S814" s="2"/>
     </row>
-    <row r="815" spans="1:19">
+    <row r="815" ht="15.75" customHeight="1">
       <c r="A815" s="2"/>
       <c r="B815" s="2"/>
       <c r="C815" s="2"/>
@@ -18225,7 +18204,7 @@
       <c r="R815" s="2"/>
       <c r="S815" s="2"/>
     </row>
-    <row r="816" spans="1:19">
+    <row r="816" ht="15.75" customHeight="1">
       <c r="A816" s="2"/>
       <c r="B816" s="2"/>
       <c r="C816" s="2"/>
@@ -18246,7 +18225,7 @@
       <c r="R816" s="2"/>
       <c r="S816" s="2"/>
     </row>
-    <row r="817" spans="1:19">
+    <row r="817" ht="15.75" customHeight="1">
       <c r="A817" s="2"/>
       <c r="B817" s="2"/>
       <c r="C817" s="2"/>
@@ -18267,7 +18246,7 @@
       <c r="R817" s="2"/>
       <c r="S817" s="2"/>
     </row>
-    <row r="818" spans="1:19">
+    <row r="818" ht="15.75" customHeight="1">
       <c r="A818" s="2"/>
       <c r="B818" s="2"/>
       <c r="C818" s="2"/>
@@ -18288,7 +18267,7 @@
       <c r="R818" s="2"/>
       <c r="S818" s="2"/>
     </row>
-    <row r="819" spans="1:19">
+    <row r="819" ht="15.75" customHeight="1">
       <c r="A819" s="2"/>
       <c r="B819" s="2"/>
       <c r="C819" s="2"/>
@@ -18309,7 +18288,7 @@
       <c r="R819" s="2"/>
       <c r="S819" s="2"/>
     </row>
-    <row r="820" spans="1:19">
+    <row r="820" ht="15.75" customHeight="1">
       <c r="A820" s="2"/>
       <c r="B820" s="2"/>
       <c r="C820" s="2"/>
@@ -18330,7 +18309,7 @@
       <c r="R820" s="2"/>
       <c r="S820" s="2"/>
     </row>
-    <row r="821" spans="1:19">
+    <row r="821" ht="15.75" customHeight="1">
       <c r="A821" s="2"/>
       <c r="B821" s="2"/>
       <c r="C821" s="2"/>
@@ -18351,7 +18330,7 @@
       <c r="R821" s="2"/>
       <c r="S821" s="2"/>
     </row>
-    <row r="822" spans="1:19">
+    <row r="822" ht="15.75" customHeight="1">
       <c r="A822" s="2"/>
       <c r="B822" s="2"/>
       <c r="C822" s="2"/>
@@ -18372,7 +18351,7 @@
       <c r="R822" s="2"/>
       <c r="S822" s="2"/>
     </row>
-    <row r="823" spans="1:19">
+    <row r="823" ht="15.75" customHeight="1">
       <c r="A823" s="2"/>
       <c r="B823" s="2"/>
       <c r="C823" s="2"/>
@@ -18393,7 +18372,7 @@
       <c r="R823" s="2"/>
       <c r="S823" s="2"/>
     </row>
-    <row r="824" spans="1:19">
+    <row r="824" ht="15.75" customHeight="1">
       <c r="A824" s="2"/>
       <c r="B824" s="2"/>
       <c r="C824" s="2"/>
@@ -18414,7 +18393,7 @@
       <c r="R824" s="2"/>
       <c r="S824" s="2"/>
     </row>
-    <row r="825" spans="1:19">
+    <row r="825" ht="15.75" customHeight="1">
       <c r="A825" s="2"/>
       <c r="B825" s="2"/>
       <c r="C825" s="2"/>
@@ -18435,7 +18414,7 @@
       <c r="R825" s="2"/>
       <c r="S825" s="2"/>
     </row>
-    <row r="826" spans="1:19">
+    <row r="826" ht="15.75" customHeight="1">
       <c r="A826" s="2"/>
       <c r="B826" s="2"/>
       <c r="C826" s="2"/>
@@ -18456,7 +18435,7 @@
       <c r="R826" s="2"/>
       <c r="S826" s="2"/>
     </row>
-    <row r="827" spans="1:19">
+    <row r="827" ht="15.75" customHeight="1">
       <c r="A827" s="2"/>
       <c r="B827" s="2"/>
       <c r="C827" s="2"/>
@@ -18477,7 +18456,7 @@
       <c r="R827" s="2"/>
       <c r="S827" s="2"/>
     </row>
-    <row r="828" spans="1:19">
+    <row r="828" ht="15.75" customHeight="1">
       <c r="A828" s="2"/>
       <c r="B828" s="2"/>
       <c r="C828" s="2"/>
@@ -18498,7 +18477,7 @@
       <c r="R828" s="2"/>
       <c r="S828" s="2"/>
     </row>
-    <row r="829" spans="1:19">
+    <row r="829" ht="15.75" customHeight="1">
       <c r="A829" s="2"/>
       <c r="B829" s="2"/>
       <c r="C829" s="2"/>
@@ -18519,7 +18498,7 @@
       <c r="R829" s="2"/>
       <c r="S829" s="2"/>
     </row>
-    <row r="830" spans="1:19">
+    <row r="830" ht="15.75" customHeight="1">
       <c r="A830" s="2"/>
       <c r="B830" s="2"/>
       <c r="C830" s="2"/>
@@ -18540,7 +18519,7 @@
       <c r="R830" s="2"/>
       <c r="S830" s="2"/>
     </row>
-    <row r="831" spans="1:19">
+    <row r="831" ht="15.75" customHeight="1">
       <c r="A831" s="2"/>
       <c r="B831" s="2"/>
       <c r="C831" s="2"/>
@@ -18561,7 +18540,7 @@
       <c r="R831" s="2"/>
       <c r="S831" s="2"/>
     </row>
-    <row r="832" spans="1:19">
+    <row r="832" ht="15.75" customHeight="1">
       <c r="A832" s="2"/>
       <c r="B832" s="2"/>
       <c r="C832" s="2"/>
@@ -18582,7 +18561,7 @@
       <c r="R832" s="2"/>
       <c r="S832" s="2"/>
     </row>
-    <row r="833" spans="1:19">
+    <row r="833" ht="15.75" customHeight="1">
       <c r="A833" s="2"/>
       <c r="B833" s="2"/>
       <c r="C833" s="2"/>
@@ -18603,7 +18582,7 @@
       <c r="R833" s="2"/>
       <c r="S833" s="2"/>
     </row>
-    <row r="834" spans="1:19">
+    <row r="834" ht="15.75" customHeight="1">
       <c r="A834" s="2"/>
       <c r="B834" s="2"/>
       <c r="C834" s="2"/>
@@ -18624,7 +18603,7 @@
       <c r="R834" s="2"/>
       <c r="S834" s="2"/>
     </row>
-    <row r="835" spans="1:19">
+    <row r="835" ht="15.75" customHeight="1">
       <c r="A835" s="2"/>
       <c r="B835" s="2"/>
       <c r="C835" s="2"/>
@@ -18645,7 +18624,7 @@
       <c r="R835" s="2"/>
       <c r="S835" s="2"/>
     </row>
-    <row r="836" spans="1:19">
+    <row r="836" ht="15.75" customHeight="1">
       <c r="A836" s="2"/>
       <c r="B836" s="2"/>
       <c r="C836" s="2"/>
@@ -18666,7 +18645,7 @@
       <c r="R836" s="2"/>
       <c r="S836" s="2"/>
     </row>
-    <row r="837" spans="1:19">
+    <row r="837" ht="15.75" customHeight="1">
       <c r="A837" s="2"/>
       <c r="B837" s="2"/>
       <c r="C837" s="2"/>
@@ -18687,7 +18666,7 @@
       <c r="R837" s="2"/>
       <c r="S837" s="2"/>
     </row>
-    <row r="838" spans="1:19">
+    <row r="838" ht="15.75" customHeight="1">
       <c r="A838" s="2"/>
       <c r="B838" s="2"/>
       <c r="C838" s="2"/>
@@ -18708,7 +18687,7 @@
       <c r="R838" s="2"/>
       <c r="S838" s="2"/>
     </row>
-    <row r="839" spans="1:19">
+    <row r="839" ht="15.75" customHeight="1">
       <c r="A839" s="2"/>
       <c r="B839" s="2"/>
       <c r="C839" s="2"/>
@@ -18729,7 +18708,7 @@
       <c r="R839" s="2"/>
       <c r="S839" s="2"/>
     </row>
-    <row r="840" spans="1:19">
+    <row r="840" ht="15.75" customHeight="1">
       <c r="A840" s="2"/>
       <c r="B840" s="2"/>
       <c r="C840" s="2"/>
@@ -18750,7 +18729,7 @@
       <c r="R840" s="2"/>
       <c r="S840" s="2"/>
     </row>
-    <row r="841" spans="1:19">
+    <row r="841" ht="15.75" customHeight="1">
       <c r="A841" s="2"/>
       <c r="B841" s="2"/>
       <c r="C841" s="2"/>
@@ -18771,7 +18750,7 @@
       <c r="R841" s="2"/>
       <c r="S841" s="2"/>
     </row>
-    <row r="842" spans="1:19">
+    <row r="842" ht="15.75" customHeight="1">
       <c r="A842" s="2"/>
       <c r="B842" s="2"/>
       <c r="C842" s="2"/>
@@ -18792,7 +18771,7 @@
       <c r="R842" s="2"/>
       <c r="S842" s="2"/>
     </row>
-    <row r="843" spans="1:19">
+    <row r="843" ht="15.75" customHeight="1">
       <c r="A843" s="2"/>
       <c r="B843" s="2"/>
       <c r="C843" s="2"/>
@@ -18813,7 +18792,7 @@
       <c r="R843" s="2"/>
       <c r="S843" s="2"/>
     </row>
-    <row r="844" spans="1:19">
+    <row r="844" ht="15.75" customHeight="1">
       <c r="A844" s="2"/>
       <c r="B844" s="2"/>
       <c r="C844" s="2"/>
@@ -18834,7 +18813,7 @@
       <c r="R844" s="2"/>
       <c r="S844" s="2"/>
     </row>
-    <row r="845" spans="1:19">
+    <row r="845" ht="15.75" customHeight="1">
       <c r="A845" s="2"/>
       <c r="B845" s="2"/>
       <c r="C845" s="2"/>
@@ -18855,7 +18834,7 @@
       <c r="R845" s="2"/>
       <c r="S845" s="2"/>
     </row>
-    <row r="846" spans="1:19">
+    <row r="846" ht="15.75" customHeight="1">
       <c r="A846" s="2"/>
       <c r="B846" s="2"/>
       <c r="C846" s="2"/>
@@ -18876,7 +18855,7 @@
       <c r="R846" s="2"/>
       <c r="S846" s="2"/>
     </row>
-    <row r="847" spans="1:19">
+    <row r="847" ht="15.75" customHeight="1">
       <c r="A847" s="2"/>
       <c r="B847" s="2"/>
       <c r="C847" s="2"/>
@@ -18897,7 +18876,7 @@
       <c r="R847" s="2"/>
       <c r="S847" s="2"/>
     </row>
-    <row r="848" spans="1:19">
+    <row r="848" ht="15.75" customHeight="1">
       <c r="A848" s="2"/>
       <c r="B848" s="2"/>
       <c r="C848" s="2"/>
@@ -18918,7 +18897,7 @@
       <c r="R848" s="2"/>
       <c r="S848" s="2"/>
     </row>
-    <row r="849" spans="1:19">
+    <row r="849" ht="15.75" customHeight="1">
       <c r="A849" s="2"/>
       <c r="B849" s="2"/>
       <c r="C849" s="2"/>
@@ -18939,7 +18918,7 @@
       <c r="R849" s="2"/>
       <c r="S849" s="2"/>
     </row>
-    <row r="850" spans="1:19">
+    <row r="850" ht="15.75" customHeight="1">
       <c r="A850" s="2"/>
       <c r="B850" s="2"/>
       <c r="C850" s="2"/>
@@ -18960,7 +18939,7 @@
       <c r="R850" s="2"/>
       <c r="S850" s="2"/>
     </row>
-    <row r="851" spans="1:19">
+    <row r="851" ht="15.75" customHeight="1">
       <c r="A851" s="2"/>
       <c r="B851" s="2"/>
       <c r="C851" s="2"/>
@@ -18981,7 +18960,7 @@
       <c r="R851" s="2"/>
       <c r="S851" s="2"/>
     </row>
-    <row r="852" spans="1:19">
+    <row r="852" ht="15.75" customHeight="1">
       <c r="A852" s="2"/>
       <c r="B852" s="2"/>
       <c r="C852" s="2"/>
@@ -19002,7 +18981,7 @@
       <c r="R852" s="2"/>
       <c r="S852" s="2"/>
     </row>
-    <row r="853" spans="1:19">
+    <row r="853" ht="15.75" customHeight="1">
       <c r="A853" s="2"/>
       <c r="B853" s="2"/>
       <c r="C853" s="2"/>
@@ -19023,7 +19002,7 @@
       <c r="R853" s="2"/>
       <c r="S853" s="2"/>
     </row>
-    <row r="854" spans="1:19">
+    <row r="854" ht="15.75" customHeight="1">
       <c r="A854" s="2"/>
       <c r="B854" s="2"/>
       <c r="C854" s="2"/>
@@ -19044,7 +19023,7 @@
       <c r="R854" s="2"/>
       <c r="S854" s="2"/>
     </row>
-    <row r="855" spans="1:19">
+    <row r="855" ht="15.75" customHeight="1">
       <c r="A855" s="2"/>
       <c r="B855" s="2"/>
       <c r="C855" s="2"/>
@@ -19065,7 +19044,7 @@
       <c r="R855" s="2"/>
       <c r="S855" s="2"/>
     </row>
-    <row r="856" spans="1:19">
+    <row r="856" ht="15.75" customHeight="1">
       <c r="A856" s="2"/>
       <c r="B856" s="2"/>
       <c r="C856" s="2"/>
@@ -19086,7 +19065,7 @@
       <c r="R856" s="2"/>
       <c r="S856" s="2"/>
     </row>
-    <row r="857" spans="1:19">
+    <row r="857" ht="15.75" customHeight="1">
       <c r="A857" s="2"/>
       <c r="B857" s="2"/>
       <c r="C857" s="2"/>
@@ -19107,7 +19086,7 @@
       <c r="R857" s="2"/>
       <c r="S857" s="2"/>
     </row>
-    <row r="858" spans="1:19">
+    <row r="858" ht="15.75" customHeight="1">
       <c r="A858" s="2"/>
       <c r="B858" s="2"/>
       <c r="C858" s="2"/>
@@ -19128,7 +19107,7 @@
       <c r="R858" s="2"/>
       <c r="S858" s="2"/>
     </row>
-    <row r="859" spans="1:19">
+    <row r="859" ht="15.75" customHeight="1">
       <c r="A859" s="2"/>
       <c r="B859" s="2"/>
       <c r="C859" s="2"/>
@@ -19149,7 +19128,7 @@
       <c r="R859" s="2"/>
       <c r="S859" s="2"/>
     </row>
-    <row r="860" spans="1:19">
+    <row r="860" ht="15.75" customHeight="1">
       <c r="A860" s="2"/>
       <c r="B860" s="2"/>
       <c r="C860" s="2"/>
@@ -19170,7 +19149,7 @@
       <c r="R860" s="2"/>
       <c r="S860" s="2"/>
     </row>
-    <row r="861" spans="1:19">
+    <row r="861" ht="15.75" customHeight="1">
       <c r="A861" s="2"/>
       <c r="B861" s="2"/>
       <c r="C861" s="2"/>
@@ -19191,7 +19170,7 @@
       <c r="R861" s="2"/>
       <c r="S861" s="2"/>
     </row>
-    <row r="862" spans="1:19">
+    <row r="862" ht="15.75" customHeight="1">
       <c r="A862" s="2"/>
       <c r="B862" s="2"/>
       <c r="C862" s="2"/>
@@ -19212,7 +19191,7 @@
       <c r="R862" s="2"/>
       <c r="S862" s="2"/>
     </row>
-    <row r="863" spans="1:19">
+    <row r="863" ht="15.75" customHeight="1">
       <c r="A863" s="2"/>
       <c r="B863" s="2"/>
       <c r="C863" s="2"/>
@@ -19233,7 +19212,7 @@
       <c r="R863" s="2"/>
       <c r="S863" s="2"/>
     </row>
-    <row r="864" spans="1:19">
+    <row r="864" ht="15.75" customHeight="1">
       <c r="A864" s="2"/>
       <c r="B864" s="2"/>
       <c r="C864" s="2"/>
@@ -19254,7 +19233,7 @@
       <c r="R864" s="2"/>
       <c r="S864" s="2"/>
     </row>
-    <row r="865" spans="1:19">
+    <row r="865" ht="15.75" customHeight="1">
       <c r="A865" s="2"/>
       <c r="B865" s="2"/>
       <c r="C865" s="2"/>
@@ -19275,7 +19254,7 @@
       <c r="R865" s="2"/>
       <c r="S865" s="2"/>
     </row>
-    <row r="866" spans="1:19">
+    <row r="866" ht="15.75" customHeight="1">
       <c r="A866" s="2"/>
       <c r="B866" s="2"/>
       <c r="C866" s="2"/>
@@ -19296,7 +19275,7 @@
       <c r="R866" s="2"/>
       <c r="S866" s="2"/>
     </row>
-    <row r="867" spans="1:19">
+    <row r="867" ht="15.75" customHeight="1">
       <c r="A867" s="2"/>
       <c r="B867" s="2"/>
       <c r="C867" s="2"/>
@@ -19317,7 +19296,7 @@
       <c r="R867" s="2"/>
       <c r="S867" s="2"/>
     </row>
-    <row r="868" spans="1:19">
+    <row r="868" ht="15.75" customHeight="1">
       <c r="A868" s="2"/>
       <c r="B868" s="2"/>
       <c r="C868" s="2"/>
@@ -19338,7 +19317,7 @@
       <c r="R868" s="2"/>
       <c r="S868" s="2"/>
     </row>
-    <row r="869" spans="1:19">
+    <row r="869" ht="15.75" customHeight="1">
       <c r="A869" s="2"/>
       <c r="B869" s="2"/>
       <c r="C869" s="2"/>
@@ -19359,7 +19338,7 @@
       <c r="R869" s="2"/>
       <c r="S869" s="2"/>
     </row>
-    <row r="870" spans="1:19">
+    <row r="870" ht="15.75" customHeight="1">
       <c r="A870" s="2"/>
       <c r="B870" s="2"/>
       <c r="C870" s="2"/>
@@ -19380,7 +19359,7 @@
       <c r="R870" s="2"/>
       <c r="S870" s="2"/>
     </row>
-    <row r="871" spans="1:19">
+    <row r="871" ht="15.75" customHeight="1">
       <c r="A871" s="2"/>
       <c r="B871" s="2"/>
       <c r="C871" s="2"/>
@@ -19401,7 +19380,7 @@
       <c r="R871" s="2"/>
       <c r="S871" s="2"/>
     </row>
-    <row r="872" spans="1:19">
+    <row r="872" ht="15.75" customHeight="1">
       <c r="A872" s="2"/>
       <c r="B872" s="2"/>
       <c r="C872" s="2"/>
@@ -19422,7 +19401,7 @@
       <c r="R872" s="2"/>
       <c r="S872" s="2"/>
     </row>
-    <row r="873" spans="1:19">
+    <row r="873" ht="15.75" customHeight="1">
       <c r="A873" s="2"/>
       <c r="B873" s="2"/>
       <c r="C873" s="2"/>
@@ -19443,7 +19422,7 @@
       <c r="R873" s="2"/>
       <c r="S873" s="2"/>
     </row>
-    <row r="874" spans="1:19">
+    <row r="874" ht="15.75" customHeight="1">
       <c r="A874" s="2"/>
       <c r="B874" s="2"/>
       <c r="C874" s="2"/>
@@ -19464,7 +19443,7 @@
       <c r="R874" s="2"/>
       <c r="S874" s="2"/>
     </row>
-    <row r="875" spans="1:19">
+    <row r="875" ht="15.75" customHeight="1">
       <c r="A875" s="2"/>
       <c r="B875" s="2"/>
       <c r="C875" s="2"/>
@@ -19485,7 +19464,7 @@
       <c r="R875" s="2"/>
       <c r="S875" s="2"/>
     </row>
-    <row r="876" spans="1:19">
+    <row r="876" ht="15.75" customHeight="1">
       <c r="A876" s="2"/>
       <c r="B876" s="2"/>
       <c r="C876" s="2"/>
@@ -19506,7 +19485,7 @@
       <c r="R876" s="2"/>
       <c r="S876" s="2"/>
     </row>
-    <row r="877" spans="1:19">
+    <row r="877" ht="15.75" customHeight="1">
       <c r="A877" s="2"/>
       <c r="B877" s="2"/>
       <c r="C877" s="2"/>
@@ -19527,7 +19506,7 @@
       <c r="R877" s="2"/>
       <c r="S877" s="2"/>
     </row>
-    <row r="878" spans="1:19">
+    <row r="878" ht="15.75" customHeight="1">
       <c r="A878" s="2"/>
       <c r="B878" s="2"/>
       <c r="C878" s="2"/>
@@ -19548,7 +19527,7 @@
       <c r="R878" s="2"/>
       <c r="S878" s="2"/>
     </row>
-    <row r="879" spans="1:19">
+    <row r="879" ht="15.75" customHeight="1">
       <c r="A879" s="2"/>
       <c r="B879" s="2"/>
       <c r="C879" s="2"/>
@@ -19569,7 +19548,7 @@
       <c r="R879" s="2"/>
       <c r="S879" s="2"/>
     </row>
-    <row r="880" spans="1:19">
+    <row r="880" ht="15.75" customHeight="1">
       <c r="A880" s="2"/>
       <c r="B880" s="2"/>
       <c r="C880" s="2"/>
@@ -19590,7 +19569,7 @@
       <c r="R880" s="2"/>
       <c r="S880" s="2"/>
     </row>
-    <row r="881" spans="1:19">
+    <row r="881" ht="15.75" customHeight="1">
       <c r="A881" s="2"/>
       <c r="B881" s="2"/>
       <c r="C881" s="2"/>
@@ -19611,7 +19590,7 @@
       <c r="R881" s="2"/>
       <c r="S881" s="2"/>
     </row>
-    <row r="882" spans="1:19">
+    <row r="882" ht="15.75" customHeight="1">
       <c r="A882" s="2"/>
       <c r="B882" s="2"/>
       <c r="C882" s="2"/>
@@ -19632,7 +19611,7 @@
       <c r="R882" s="2"/>
       <c r="S882" s="2"/>
     </row>
-    <row r="883" spans="1:19">
+    <row r="883" ht="15.75" customHeight="1">
       <c r="A883" s="2"/>
       <c r="B883" s="2"/>
       <c r="C883" s="2"/>
@@ -19653,7 +19632,7 @@
       <c r="R883" s="2"/>
       <c r="S883" s="2"/>
     </row>
-    <row r="884" spans="1:19">
+    <row r="884" ht="15.75" customHeight="1">
       <c r="A884" s="2"/>
       <c r="B884" s="2"/>
       <c r="C884" s="2"/>
@@ -19674,7 +19653,7 @@
       <c r="R884" s="2"/>
       <c r="S884" s="2"/>
     </row>
-    <row r="885" spans="1:19">
+    <row r="885" ht="15.75" customHeight="1">
       <c r="A885" s="2"/>
       <c r="B885" s="2"/>
       <c r="C885" s="2"/>
@@ -19695,7 +19674,7 @@
       <c r="R885" s="2"/>
       <c r="S885" s="2"/>
     </row>
-    <row r="886" spans="1:19">
+    <row r="886" ht="15.75" customHeight="1">
       <c r="A886" s="2"/>
       <c r="B886" s="2"/>
       <c r="C886" s="2"/>
@@ -19716,7 +19695,7 @@
       <c r="R886" s="2"/>
       <c r="S886" s="2"/>
     </row>
-    <row r="887" spans="1:19">
+    <row r="887" ht="15.75" customHeight="1">
       <c r="A887" s="2"/>
       <c r="B887" s="2"/>
       <c r="C887" s="2"/>
@@ -19737,7 +19716,7 @@
       <c r="R887" s="2"/>
       <c r="S887" s="2"/>
     </row>
-    <row r="888" spans="1:19">
+    <row r="888" ht="15.75" customHeight="1">
       <c r="A888" s="2"/>
       <c r="B888" s="2"/>
       <c r="C888" s="2"/>
@@ -19758,7 +19737,7 @@
       <c r="R888" s="2"/>
       <c r="S888" s="2"/>
     </row>
-    <row r="889" spans="1:19">
+    <row r="889" ht="15.75" customHeight="1">
       <c r="A889" s="2"/>
       <c r="B889" s="2"/>
       <c r="C889" s="2"/>
@@ -19779,7 +19758,7 @@
       <c r="R889" s="2"/>
       <c r="S889" s="2"/>
     </row>
-    <row r="890" spans="1:19">
+    <row r="890" ht="15.75" customHeight="1">
       <c r="A890" s="2"/>
       <c r="B890" s="2"/>
       <c r="C890" s="2"/>
@@ -19800,7 +19779,7 @@
       <c r="R890" s="2"/>
       <c r="S890" s="2"/>
     </row>
-    <row r="891" spans="1:19">
+    <row r="891" ht="15.75" customHeight="1">
       <c r="A891" s="2"/>
       <c r="B891" s="2"/>
       <c r="C891" s="2"/>
@@ -19821,7 +19800,7 @@
       <c r="R891" s="2"/>
       <c r="S891" s="2"/>
     </row>
-    <row r="892" spans="1:19">
+    <row r="892" ht="15.75" customHeight="1">
       <c r="A892" s="2"/>
       <c r="B892" s="2"/>
       <c r="C892" s="2"/>
@@ -19842,7 +19821,7 @@
       <c r="R892" s="2"/>
       <c r="S892" s="2"/>
     </row>
-    <row r="893" spans="1:19">
+    <row r="893" ht="15.75" customHeight="1">
       <c r="A893" s="2"/>
       <c r="B893" s="2"/>
       <c r="C893" s="2"/>
@@ -19863,7 +19842,7 @@
       <c r="R893" s="2"/>
       <c r="S893" s="2"/>
     </row>
-    <row r="894" spans="1:19">
+    <row r="894" ht="15.75" customHeight="1">
       <c r="A894" s="2"/>
       <c r="B894" s="2"/>
       <c r="C894" s="2"/>
@@ -19884,7 +19863,7 @@
       <c r="R894" s="2"/>
       <c r="S894" s="2"/>
     </row>
-    <row r="895" spans="1:19">
+    <row r="895" ht="15.75" customHeight="1">
       <c r="A895" s="2"/>
       <c r="B895" s="2"/>
       <c r="C895" s="2"/>
@@ -19905,7 +19884,7 @@
       <c r="R895" s="2"/>
       <c r="S895" s="2"/>
     </row>
-    <row r="896" spans="1:19">
+    <row r="896" ht="15.75" customHeight="1">
       <c r="A896" s="2"/>
       <c r="B896" s="2"/>
       <c r="C896" s="2"/>
@@ -19926,7 +19905,7 @@
       <c r="R896" s="2"/>
       <c r="S896" s="2"/>
     </row>
-    <row r="897" spans="1:19">
+    <row r="897" ht="15.75" customHeight="1">
       <c r="A897" s="2"/>
       <c r="B897" s="2"/>
       <c r="C897" s="2"/>
@@ -19947,7 +19926,7 @@
       <c r="R897" s="2"/>
       <c r="S897" s="2"/>
     </row>
-    <row r="898" spans="1:19">
+    <row r="898" ht="15.75" customHeight="1">
       <c r="A898" s="2"/>
       <c r="B898" s="2"/>
       <c r="C898" s="2"/>
@@ -19968,7 +19947,7 @@
       <c r="R898" s="2"/>
       <c r="S898" s="2"/>
     </row>
-    <row r="899" spans="1:19">
+    <row r="899" ht="15.75" customHeight="1">
       <c r="A899" s="2"/>
       <c r="B899" s="2"/>
       <c r="C899" s="2"/>
@@ -19989,7 +19968,7 @@
       <c r="R899" s="2"/>
       <c r="S899" s="2"/>
     </row>
-    <row r="900" spans="1:19">
+    <row r="900" ht="15.75" customHeight="1">
       <c r="A900" s="2"/>
       <c r="B900" s="2"/>
       <c r="C900" s="2"/>
@@ -20010,7 +19989,7 @@
       <c r="R900" s="2"/>
       <c r="S900" s="2"/>
     </row>
-    <row r="901" spans="1:19">
+    <row r="901" ht="15.75" customHeight="1">
       <c r="A901" s="2"/>
       <c r="B901" s="2"/>
       <c r="C901" s="2"/>
@@ -20031,7 +20010,7 @@
       <c r="R901" s="2"/>
       <c r="S901" s="2"/>
     </row>
-    <row r="902" spans="1:19">
+    <row r="902" ht="15.75" customHeight="1">
       <c r="A902" s="2"/>
       <c r="B902" s="2"/>
       <c r="C902" s="2"/>
@@ -20052,7 +20031,7 @@
       <c r="R902" s="2"/>
       <c r="S902" s="2"/>
     </row>
-    <row r="903" spans="1:19">
+    <row r="903" ht="15.75" customHeight="1">
       <c r="A903" s="2"/>
       <c r="B903" s="2"/>
       <c r="C903" s="2"/>
@@ -20073,7 +20052,7 @@
       <c r="R903" s="2"/>
       <c r="S903" s="2"/>
     </row>
-    <row r="904" spans="1:19">
+    <row r="904" ht="15.75" customHeight="1">
       <c r="A904" s="2"/>
       <c r="B904" s="2"/>
       <c r="C904" s="2"/>
@@ -20094,7 +20073,7 @@
       <c r="R904" s="2"/>
       <c r="S904" s="2"/>
     </row>
-    <row r="905" spans="1:19">
+    <row r="905" ht="15.75" customHeight="1">
       <c r="A905" s="2"/>
       <c r="B905" s="2"/>
       <c r="C905" s="2"/>
@@ -20115,7 +20094,7 @@
       <c r="R905" s="2"/>
       <c r="S905" s="2"/>
     </row>
-    <row r="906" spans="1:19">
+    <row r="906" ht="15.75" customHeight="1">
       <c r="A906" s="2"/>
       <c r="B906" s="2"/>
       <c r="C906" s="2"/>
@@ -20136,7 +20115,7 @@
       <c r="R906" s="2"/>
       <c r="S906" s="2"/>
     </row>
-    <row r="907" spans="1:19">
+    <row r="907" ht="15.75" customHeight="1">
       <c r="A907" s="2"/>
       <c r="B907" s="2"/>
       <c r="C907" s="2"/>
@@ -20157,7 +20136,7 @@
       <c r="R907" s="2"/>
       <c r="S907" s="2"/>
     </row>
-    <row r="908" spans="1:19">
+    <row r="908" ht="15.75" customHeight="1">
       <c r="A908" s="2"/>
       <c r="B908" s="2"/>
       <c r="C908" s="2"/>
@@ -20178,7 +20157,7 @@
       <c r="R908" s="2"/>
       <c r="S908" s="2"/>
     </row>
-    <row r="909" spans="1:19">
+    <row r="909" ht="15.75" customHeight="1">
       <c r="A909" s="2"/>
       <c r="B909" s="2"/>
       <c r="C909" s="2"/>
@@ -20199,7 +20178,7 @@
       <c r="R909" s="2"/>
       <c r="S909" s="2"/>
     </row>
-    <row r="910" spans="1:19">
+    <row r="910" ht="15.75" customHeight="1">
       <c r="A910" s="2"/>
       <c r="B910" s="2"/>
       <c r="C910" s="2"/>
@@ -20220,7 +20199,7 @@
       <c r="R910" s="2"/>
       <c r="S910" s="2"/>
     </row>
-    <row r="911" spans="1:19">
+    <row r="911" ht="15.75" customHeight="1">
       <c r="A911" s="2"/>
       <c r="B911" s="2"/>
       <c r="C911" s="2"/>
@@ -20241,7 +20220,7 @@
       <c r="R911" s="2"/>
       <c r="S911" s="2"/>
     </row>
-    <row r="912" spans="1:19">
+    <row r="912" ht="15.75" customHeight="1">
       <c r="A912" s="2"/>
       <c r="B912" s="2"/>
       <c r="C912" s="2"/>
@@ -20262,7 +20241,7 @@
       <c r="R912" s="2"/>
       <c r="S912" s="2"/>
     </row>
-    <row r="913" spans="1:19">
+    <row r="913" ht="15.75" customHeight="1">
       <c r="A913" s="2"/>
       <c r="B913" s="2"/>
       <c r="C913" s="2"/>
@@ -20283,7 +20262,7 @@
       <c r="R913" s="2"/>
       <c r="S913" s="2"/>
     </row>
-    <row r="914" spans="1:19">
+    <row r="914" ht="15.75" customHeight="1">
       <c r="A914" s="2"/>
       <c r="B914" s="2"/>
       <c r="C914" s="2"/>
@@ -20304,7 +20283,7 @@
       <c r="R914" s="2"/>
       <c r="S914" s="2"/>
     </row>
-    <row r="915" spans="1:19">
+    <row r="915" ht="15.75" customHeight="1">
       <c r="A915" s="2"/>
       <c r="B915" s="2"/>
       <c r="C915" s="2"/>
@@ -20325,7 +20304,7 @@
       <c r="R915" s="2"/>
       <c r="S915" s="2"/>
     </row>
-    <row r="916" spans="1:19">
+    <row r="916" ht="15.75" customHeight="1">
       <c r="A916" s="2"/>
       <c r="B916" s="2"/>
       <c r="C916" s="2"/>
@@ -20346,7 +20325,7 @@
       <c r="R916" s="2"/>
       <c r="S916" s="2"/>
     </row>
-    <row r="917" spans="1:19">
+    <row r="917" ht="15.75" customHeight="1">
       <c r="A917" s="2"/>
       <c r="B917" s="2"/>
       <c r="C917" s="2"/>
@@ -20367,7 +20346,7 @@
       <c r="R917" s="2"/>
       <c r="S917" s="2"/>
     </row>
-    <row r="918" spans="1:19">
+    <row r="918" ht="15.75" customHeight="1">
       <c r="A918" s="2"/>
       <c r="B918" s="2"/>
       <c r="C918" s="2"/>
@@ -20388,7 +20367,7 @@
       <c r="R918" s="2"/>
       <c r="S918" s="2"/>
     </row>
-    <row r="919" spans="1:19">
+    <row r="919" ht="15.75" customHeight="1">
       <c r="A919" s="2"/>
       <c r="B919" s="2"/>
       <c r="C919" s="2"/>
@@ -20409,7 +20388,7 @@
       <c r="R919" s="2"/>
       <c r="S919" s="2"/>
     </row>
-    <row r="920" spans="1:19">
+    <row r="920" ht="15.75" customHeight="1">
       <c r="A920" s="2"/>
       <c r="B920" s="2"/>
       <c r="C920" s="2"/>
@@ -20430,7 +20409,7 @@
       <c r="R920" s="2"/>
       <c r="S920" s="2"/>
     </row>
-    <row r="921" spans="1:19">
+    <row r="921" ht="15.75" customHeight="1">
       <c r="A921" s="2"/>
       <c r="B921" s="2"/>
       <c r="C921" s="2"/>
@@ -20451,7 +20430,7 @@
       <c r="R921" s="2"/>
       <c r="S921" s="2"/>
     </row>
-    <row r="922" spans="1:19">
+    <row r="922" ht="15.75" customHeight="1">
       <c r="A922" s="2"/>
       <c r="B922" s="2"/>
       <c r="C922" s="2"/>
@@ -20472,7 +20451,7 @@
       <c r="R922" s="2"/>
       <c r="S922" s="2"/>
     </row>
-    <row r="923" spans="1:19">
+    <row r="923" ht="15.75" customHeight="1">
       <c r="A923" s="2"/>
       <c r="B923" s="2"/>
       <c r="C923" s="2"/>
@@ -20493,7 +20472,7 @@
       <c r="R923" s="2"/>
       <c r="S923" s="2"/>
     </row>
-    <row r="924" spans="1:19">
+    <row r="924" ht="15.75" customHeight="1">
       <c r="A924" s="2"/>
       <c r="B924" s="2"/>
       <c r="C924" s="2"/>
@@ -20514,7 +20493,7 @@
       <c r="R924" s="2"/>
       <c r="S924" s="2"/>
     </row>
-    <row r="925" spans="1:19">
+    <row r="925" ht="15.75" customHeight="1">
       <c r="A925" s="2"/>
       <c r="B925" s="2"/>
       <c r="C925" s="2"/>
@@ -20535,7 +20514,7 @@
       <c r="R925" s="2"/>
       <c r="S925" s="2"/>
     </row>
-    <row r="926" spans="1:19">
+    <row r="926" ht="15.75" customHeight="1">
       <c r="A926" s="2"/>
       <c r="B926" s="2"/>
       <c r="C926" s="2"/>
@@ -20556,7 +20535,7 @@
       <c r="R926" s="2"/>
       <c r="S926" s="2"/>
     </row>
-    <row r="927" spans="1:19">
+    <row r="927" ht="15.75" customHeight="1">
       <c r="A927" s="2"/>
       <c r="B927" s="2"/>
       <c r="C927" s="2"/>
@@ -20577,7 +20556,7 @@
       <c r="R927" s="2"/>
       <c r="S927" s="2"/>
     </row>
-    <row r="928" spans="1:19">
+    <row r="928" ht="15.75" customHeight="1">
       <c r="A928" s="2"/>
       <c r="B928" s="2"/>
       <c r="C928" s="2"/>
@@ -20598,7 +20577,7 @@
       <c r="R928" s="2"/>
       <c r="S928" s="2"/>
     </row>
-    <row r="929" spans="1:19">
+    <row r="929" ht="15.75" customHeight="1">
       <c r="A929" s="2"/>
       <c r="B929" s="2"/>
       <c r="C929" s="2"/>
@@ -20619,7 +20598,7 @@
       <c r="R929" s="2"/>
       <c r="S929" s="2"/>
     </row>
-    <row r="930" spans="1:19">
+    <row r="930" ht="15.75" customHeight="1">
       <c r="A930" s="2"/>
       <c r="B930" s="2"/>
       <c r="C930" s="2"/>
@@ -20640,7 +20619,7 @@
       <c r="R930" s="2"/>
       <c r="S930" s="2"/>
     </row>
-    <row r="931" spans="1:19">
+    <row r="931" ht="15.75" customHeight="1">
       <c r="A931" s="2"/>
       <c r="B931" s="2"/>
       <c r="C931" s="2"/>
@@ -20661,7 +20640,7 @@
       <c r="R931" s="2"/>
       <c r="S931" s="2"/>
     </row>
-    <row r="932" spans="1:19">
+    <row r="932" ht="15.75" customHeight="1">
       <c r="A932" s="2"/>
       <c r="B932" s="2"/>
       <c r="C932" s="2"/>
@@ -20682,7 +20661,7 @@
       <c r="R932" s="2"/>
       <c r="S932" s="2"/>
     </row>
-    <row r="933" spans="1:19">
+    <row r="933" ht="15.75" customHeight="1">
       <c r="A933" s="2"/>
       <c r="B933" s="2"/>
       <c r="C933" s="2"/>
@@ -20703,7 +20682,7 @@
       <c r="R933" s="2"/>
       <c r="S933" s="2"/>
     </row>
-    <row r="934" spans="1:19">
+    <row r="934" ht="15.75" customHeight="1">
       <c r="A934" s="2"/>
       <c r="B934" s="2"/>
       <c r="C934" s="2"/>
@@ -20724,7 +20703,7 @@
       <c r="R934" s="2"/>
       <c r="S934" s="2"/>
     </row>
-    <row r="935" spans="1:19">
+    <row r="935" ht="15.75" customHeight="1">
       <c r="A935" s="2"/>
       <c r="B935" s="2"/>
       <c r="C935" s="2"/>
@@ -20745,7 +20724,7 @@
       <c r="R935" s="2"/>
       <c r="S935" s="2"/>
     </row>
-    <row r="936" spans="1:19">
+    <row r="936" ht="15.75" customHeight="1">
       <c r="A936" s="2"/>
       <c r="B936" s="2"/>
       <c r="C936" s="2"/>
@@ -20766,7 +20745,7 @@
       <c r="R936" s="2"/>
       <c r="S936" s="2"/>
     </row>
-    <row r="937" spans="1:19">
+    <row r="937" ht="15.75" customHeight="1">
       <c r="A937" s="2"/>
       <c r="B937" s="2"/>
       <c r="C937" s="2"/>
@@ -20787,7 +20766,7 @@
       <c r="R937" s="2"/>
       <c r="S937" s="2"/>
     </row>
-    <row r="938" spans="1:19">
+    <row r="938" ht="15.75" customHeight="1">
       <c r="A938" s="2"/>
       <c r="B938" s="2"/>
       <c r="C938" s="2"/>
@@ -20808,7 +20787,7 @@
       <c r="R938" s="2"/>
       <c r="S938" s="2"/>
     </row>
-    <row r="939" spans="1:19">
+    <row r="939" ht="15.75" customHeight="1">
       <c r="A939" s="2"/>
       <c r="B939" s="2"/>
       <c r="C939" s="2"/>
@@ -20829,7 +20808,7 @@
       <c r="R939" s="2"/>
       <c r="S939" s="2"/>
     </row>
-    <row r="940" spans="1:19">
+    <row r="940" ht="15.75" customHeight="1">
       <c r="A940" s="2"/>
       <c r="B940" s="2"/>
       <c r="C940" s="2"/>
@@ -20850,7 +20829,7 @@
       <c r="R940" s="2"/>
       <c r="S940" s="2"/>
     </row>
-    <row r="941" spans="1:19">
+    <row r="941" ht="15.75" customHeight="1">
       <c r="A941" s="2"/>
       <c r="B941" s="2"/>
       <c r="C941" s="2"/>
@@ -20871,7 +20850,7 @@
       <c r="R941" s="2"/>
       <c r="S941" s="2"/>
     </row>
-    <row r="942" spans="1:19">
+    <row r="942" ht="15.75" customHeight="1">
       <c r="A942" s="2"/>
       <c r="B942" s="2"/>
       <c r="C942" s="2"/>
@@ -20892,7 +20871,7 @@
       <c r="R942" s="2"/>
       <c r="S942" s="2"/>
     </row>
-    <row r="943" spans="1:19">
+    <row r="943" ht="15.75" customHeight="1">
       <c r="A943" s="2"/>
       <c r="B943" s="2"/>
       <c r="C943" s="2"/>
@@ -20913,7 +20892,7 @@
       <c r="R943" s="2"/>
       <c r="S943" s="2"/>
     </row>
-    <row r="944" spans="1:19">
+    <row r="944" ht="15.75" customHeight="1">
       <c r="A944" s="2"/>
       <c r="B944" s="2"/>
       <c r="C944" s="2"/>
@@ -20934,7 +20913,7 @@
       <c r="R944" s="2"/>
       <c r="S944" s="2"/>
     </row>
-    <row r="945" spans="1:19">
+    <row r="945" ht="15.75" customHeight="1">
       <c r="A945" s="2"/>
       <c r="B945" s="2"/>
       <c r="C945" s="2"/>
@@ -20955,7 +20934,7 @@
       <c r="R945" s="2"/>
       <c r="S945" s="2"/>
     </row>
-    <row r="946" spans="1:19">
+    <row r="946" ht="15.75" customHeight="1">
       <c r="A946" s="2"/>
       <c r="B946" s="2"/>
       <c r="C946" s="2"/>
@@ -20976,7 +20955,7 @@
       <c r="R946" s="2"/>
       <c r="S946" s="2"/>
     </row>
-    <row r="947" spans="1:19">
+    <row r="947" ht="15.75" customHeight="1">
       <c r="A947" s="2"/>
       <c r="B947" s="2"/>
       <c r="C947" s="2"/>
@@ -20997,7 +20976,7 @@
       <c r="R947" s="2"/>
       <c r="S947" s="2"/>
     </row>
-    <row r="948" spans="1:19">
+    <row r="948" ht="15.75" customHeight="1">
       <c r="A948" s="2"/>
       <c r="B948" s="2"/>
       <c r="C948" s="2"/>
@@ -21018,7 +20997,7 @@
       <c r="R948" s="2"/>
       <c r="S948" s="2"/>
     </row>
-    <row r="949" spans="1:19">
+    <row r="949" ht="15.75" customHeight="1">
       <c r="A949" s="2"/>
       <c r="B949" s="2"/>
       <c r="C949" s="2"/>
@@ -21039,7 +21018,7 @@
       <c r="R949" s="2"/>
       <c r="S949" s="2"/>
     </row>
-    <row r="950" spans="1:19">
+    <row r="950" ht="15.75" customHeight="1">
       <c r="A950" s="2"/>
       <c r="B950" s="2"/>
       <c r="C950" s="2"/>
@@ -21060,7 +21039,7 @@
       <c r="R950" s="2"/>
       <c r="S950" s="2"/>
     </row>
-    <row r="951" spans="1:19">
+    <row r="951" ht="15.75" customHeight="1">
       <c r="A951" s="2"/>
       <c r="B951" s="2"/>
       <c r="C951" s="2"/>
@@ -21081,7 +21060,7 @@
       <c r="R951" s="2"/>
       <c r="S951" s="2"/>
     </row>
-    <row r="952" spans="1:19">
+    <row r="952" ht="15.75" customHeight="1">
       <c r="A952" s="2"/>
       <c r="B952" s="2"/>
       <c r="C952" s="2"/>
@@ -21102,7 +21081,7 @@
       <c r="R952" s="2"/>
       <c r="S952" s="2"/>
     </row>
-    <row r="953" spans="1:19">
+    <row r="953" ht="15.75" customHeight="1">
       <c r="A953" s="2"/>
       <c r="B953" s="2"/>
       <c r="C953" s="2"/>
@@ -21123,7 +21102,7 @@
       <c r="R953" s="2"/>
       <c r="S953" s="2"/>
     </row>
-    <row r="954" spans="1:19">
+    <row r="954" ht="15.75" customHeight="1">
       <c r="A954" s="2"/>
       <c r="B954" s="2"/>
       <c r="C954" s="2"/>
@@ -21144,7 +21123,7 @@
       <c r="R954" s="2"/>
       <c r="S954" s="2"/>
     </row>
-    <row r="955" spans="1:19">
+    <row r="955" ht="15.75" customHeight="1">
       <c r="A955" s="2"/>
       <c r="B955" s="2"/>
       <c r="C955" s="2"/>
@@ -21165,7 +21144,7 @@
       <c r="R955" s="2"/>
       <c r="S955" s="2"/>
     </row>
-    <row r="956" spans="1:19">
+    <row r="956" ht="15.75" customHeight="1">
       <c r="A956" s="2"/>
       <c r="B956" s="2"/>
       <c r="C956" s="2"/>
@@ -21186,7 +21165,7 @@
       <c r="R956" s="2"/>
       <c r="S956" s="2"/>
     </row>
-    <row r="957" spans="1:19">
+    <row r="957" ht="15.75" customHeight="1">
       <c r="A957" s="2"/>
       <c r="B957" s="2"/>
       <c r="C957" s="2"/>
@@ -21207,7 +21186,7 @@
       <c r="R957" s="2"/>
       <c r="S957" s="2"/>
     </row>
-    <row r="958" spans="1:19">
+    <row r="958" ht="15.75" customHeight="1">
       <c r="A958" s="2"/>
       <c r="B958" s="2"/>
       <c r="C958" s="2"/>
@@ -21228,7 +21207,7 @@
       <c r="R958" s="2"/>
       <c r="S958" s="2"/>
     </row>
-    <row r="959" spans="1:19">
+    <row r="959" ht="15.75" customHeight="1">
       <c r="A959" s="2"/>
       <c r="B959" s="2"/>
       <c r="C959" s="2"/>
@@ -21249,7 +21228,7 @@
       <c r="R959" s="2"/>
       <c r="S959" s="2"/>
     </row>
-    <row r="960" spans="1:19">
+    <row r="960" ht="15.75" customHeight="1">
       <c r="A960" s="2"/>
       <c r="B960" s="2"/>
       <c r="C960" s="2"/>
@@ -21270,7 +21249,7 @@
       <c r="R960" s="2"/>
       <c r="S960" s="2"/>
     </row>
-    <row r="961" spans="1:19">
+    <row r="961" ht="15.75" customHeight="1">
       <c r="A961" s="2"/>
       <c r="B961" s="2"/>
       <c r="C961" s="2"/>
@@ -21291,7 +21270,7 @@
       <c r="R961" s="2"/>
       <c r="S961" s="2"/>
     </row>
-    <row r="962" spans="1:19">
+    <row r="962" ht="15.75" customHeight="1">
       <c r="A962" s="2"/>
       <c r="B962" s="2"/>
       <c r="C962" s="2"/>
@@ -21312,7 +21291,7 @@
       <c r="R962" s="2"/>
       <c r="S962" s="2"/>
     </row>
-    <row r="963" spans="1:19">
+    <row r="963" ht="15.75" customHeight="1">
       <c r="A963" s="2"/>
       <c r="B963" s="2"/>
       <c r="C963" s="2"/>
@@ -21333,7 +21312,7 @@
       <c r="R963" s="2"/>
       <c r="S963" s="2"/>
     </row>
-    <row r="964" spans="1:19">
+    <row r="964" ht="15.75" customHeight="1">
       <c r="A964" s="2"/>
       <c r="B964" s="2"/>
       <c r="C964" s="2"/>
@@ -21354,7 +21333,7 @@
       <c r="R964" s="2"/>
       <c r="S964" s="2"/>
     </row>
-    <row r="965" spans="1:19">
+    <row r="965" ht="15.75" customHeight="1">
       <c r="A965" s="2"/>
       <c r="B965" s="2"/>
       <c r="C965" s="2"/>
@@ -21375,7 +21354,7 @@
       <c r="R965" s="2"/>
       <c r="S965" s="2"/>
     </row>
-    <row r="966" spans="1:19">
+    <row r="966" ht="15.75" customHeight="1">
       <c r="A966" s="2"/>
       <c r="B966" s="2"/>
       <c r="C966" s="2"/>
@@ -21396,7 +21375,7 @@
       <c r="R966" s="2"/>
       <c r="S966" s="2"/>
     </row>
-    <row r="967" spans="1:19">
+    <row r="967" ht="15.75" customHeight="1">
       <c r="A967" s="2"/>
       <c r="B967" s="2"/>
       <c r="C967" s="2"/>
@@ -21417,7 +21396,7 @@
       <c r="R967" s="2"/>
       <c r="S967" s="2"/>
     </row>
-    <row r="968" spans="1:19">
+    <row r="968" ht="15.75" customHeight="1">
       <c r="A968" s="2"/>
       <c r="B968" s="2"/>
       <c r="C968" s="2"/>
@@ -21438,7 +21417,7 @@
       <c r="R968" s="2"/>
       <c r="S968" s="2"/>
     </row>
-    <row r="969" spans="1:19">
+    <row r="969" ht="15.75" customHeight="1">
       <c r="A969" s="2"/>
       <c r="B969" s="2"/>
       <c r="C969" s="2"/>
@@ -21459,7 +21438,7 @@
       <c r="R969" s="2"/>
       <c r="S969" s="2"/>
     </row>
-    <row r="970" spans="1:19">
+    <row r="970" ht="15.75" customHeight="1">
       <c r="A970" s="2"/>
       <c r="B970" s="2"/>
       <c r="C970" s="2"/>
@@ -21480,7 +21459,7 @@
       <c r="R970" s="2"/>
       <c r="S970" s="2"/>
     </row>
-    <row r="971" spans="1:19">
+    <row r="971" ht="15.75" customHeight="1">
       <c r="A971" s="2"/>
       <c r="B971" s="2"/>
       <c r="C971" s="2"/>
@@ -21501,7 +21480,7 @@
       <c r="R971" s="2"/>
       <c r="S971" s="2"/>
     </row>
-    <row r="972" spans="1:19">
+    <row r="972" ht="15.75" customHeight="1">
       <c r="A972" s="2"/>
       <c r="B972" s="2"/>
       <c r="C972" s="2"/>
@@ -21522,7 +21501,7 @@
       <c r="R972" s="2"/>
       <c r="S972" s="2"/>
     </row>
-    <row r="973" spans="1:19">
+    <row r="973" ht="15.75" customHeight="1">
       <c r="A973" s="2"/>
       <c r="B973" s="2"/>
       <c r="C973" s="2"/>
@@ -21543,7 +21522,7 @@
       <c r="R973" s="2"/>
       <c r="S973" s="2"/>
     </row>
-    <row r="974" spans="1:19">
+    <row r="974" ht="15.75" customHeight="1">
       <c r="A974" s="2"/>
       <c r="B974" s="2"/>
       <c r="C974" s="2"/>
@@ -21564,7 +21543,7 @@
       <c r="R974" s="2"/>
       <c r="S974" s="2"/>
     </row>
-    <row r="975" spans="1:19">
+    <row r="975" ht="15.75" customHeight="1">
       <c r="A975" s="2"/>
       <c r="B975" s="2"/>
       <c r="C975" s="2"/>
@@ -21585,7 +21564,7 @@
       <c r="R975" s="2"/>
       <c r="S975" s="2"/>
     </row>
-    <row r="976" spans="1:19">
+    <row r="976" ht="15.75" customHeight="1">
       <c r="A976" s="2"/>
       <c r="B976" s="2"/>
       <c r="C976" s="2"/>
@@ -21606,7 +21585,7 @@
       <c r="R976" s="2"/>
       <c r="S976" s="2"/>
     </row>
-    <row r="977" spans="1:19">
+    <row r="977" ht="15.75" customHeight="1">
       <c r="A977" s="2"/>
       <c r="B977" s="2"/>
       <c r="C977" s="2"/>
@@ -21627,7 +21606,7 @@
       <c r="R977" s="2"/>
       <c r="S977" s="2"/>
     </row>
-    <row r="978" spans="1:19">
+    <row r="978" ht="15.75" customHeight="1">
       <c r="A978" s="2"/>
       <c r="B978" s="2"/>
       <c r="C978" s="2"/>
@@ -21648,7 +21627,7 @@
       <c r="R978" s="2"/>
       <c r="S978" s="2"/>
     </row>
-    <row r="979" spans="1:19">
+    <row r="979" ht="15.75" customHeight="1">
       <c r="A979" s="2"/>
       <c r="B979" s="2"/>
       <c r="C979" s="2"/>
@@ -21669,7 +21648,7 @@
       <c r="R979" s="2"/>
       <c r="S979" s="2"/>
     </row>
-    <row r="980" spans="1:19">
+    <row r="980" ht="15.75" customHeight="1">
       <c r="A980" s="2"/>
       <c r="B980" s="2"/>
       <c r="C980" s="2"/>
@@ -21690,7 +21669,7 @@
       <c r="R980" s="2"/>
       <c r="S980" s="2"/>
     </row>
-    <row r="981" spans="1:19">
+    <row r="981" ht="15.75" customHeight="1">
       <c r="A981" s="2"/>
       <c r="B981" s="2"/>
       <c r="C981" s="2"/>
@@ -21711,7 +21690,7 @@
       <c r="R981" s="2"/>
       <c r="S981" s="2"/>
     </row>
-    <row r="982" spans="1:19">
+    <row r="982" ht="15.75" customHeight="1">
       <c r="A982" s="2"/>
       <c r="B982" s="2"/>
       <c r="C982" s="2"/>
@@ -21732,7 +21711,7 @@
       <c r="R982" s="2"/>
       <c r="S982" s="2"/>
     </row>
-    <row r="983" spans="1:19">
+    <row r="983" ht="15.75" customHeight="1">
       <c r="A983" s="2"/>
       <c r="B983" s="2"/>
       <c r="C983" s="2"/>
@@ -21753,7 +21732,7 @@
       <c r="R983" s="2"/>
       <c r="S983" s="2"/>
     </row>
-    <row r="984" spans="1:19">
+    <row r="984" ht="15.75" customHeight="1">
       <c r="A984" s="2"/>
       <c r="B984" s="2"/>
       <c r="C984" s="2"/>
@@ -21774,7 +21753,7 @@
       <c r="R984" s="2"/>
       <c r="S984" s="2"/>
     </row>
-    <row r="985" spans="1:19">
+    <row r="985" ht="15.75" customHeight="1">
       <c r="A985" s="2"/>
       <c r="B985" s="2"/>
       <c r="C985" s="2"/>
@@ -21795,7 +21774,7 @@
       <c r="R985" s="2"/>
       <c r="S985" s="2"/>
     </row>
-    <row r="986" spans="1:19">
+    <row r="986" ht="15.75" customHeight="1">
       <c r="A986" s="2"/>
       <c r="B986" s="2"/>
       <c r="C986" s="2"/>
@@ -21816,7 +21795,7 @@
       <c r="R986" s="2"/>
       <c r="S986" s="2"/>
     </row>
-    <row r="987" spans="1:19">
+    <row r="987" ht="15.75" customHeight="1">
       <c r="A987" s="2"/>
       <c r="B987" s="2"/>
       <c r="C987" s="2"/>
@@ -21837,7 +21816,7 @@
       <c r="R987" s="2"/>
       <c r="S987" s="2"/>
     </row>
-    <row r="988" spans="1:19">
+    <row r="988" ht="15.75" customHeight="1">
       <c r="A988" s="2"/>
       <c r="B988" s="2"/>
       <c r="C988" s="2"/>
@@ -21858,7 +21837,7 @@
       <c r="R988" s="2"/>
       <c r="S988" s="2"/>
     </row>
-    <row r="989" spans="1:19">
+    <row r="989" ht="15.75" customHeight="1">
       <c r="A989" s="2"/>
       <c r="B989" s="2"/>
       <c r="C989" s="2"/>
@@ -21879,7 +21858,7 @@
       <c r="R989" s="2"/>
       <c r="S989" s="2"/>
     </row>
-    <row r="990" spans="1:19">
+    <row r="990" ht="15.75" customHeight="1">
       <c r="A990" s="2"/>
       <c r="B990" s="2"/>
       <c r="C990" s="2"/>
@@ -21900,7 +21879,7 @@
       <c r="R990" s="2"/>
       <c r="S990" s="2"/>
     </row>
-    <row r="991" spans="1:19">
+    <row r="991" ht="15.75" customHeight="1">
       <c r="A991" s="2"/>
       <c r="B991" s="2"/>
       <c r="C991" s="2"/>
@@ -21921,7 +21900,7 @@
       <c r="R991" s="2"/>
       <c r="S991" s="2"/>
     </row>
-    <row r="992" spans="1:19">
+    <row r="992" ht="15.75" customHeight="1">
       <c r="A992" s="2"/>
       <c r="B992" s="2"/>
       <c r="C992" s="2"/>
@@ -21942,7 +21921,7 @@
       <c r="R992" s="2"/>
       <c r="S992" s="2"/>
     </row>
-    <row r="993" spans="1:19">
+    <row r="993" ht="15.75" customHeight="1">
       <c r="A993" s="2"/>
       <c r="B993" s="2"/>
       <c r="C993" s="2"/>
@@ -21963,7 +21942,7 @@
       <c r="R993" s="2"/>
       <c r="S993" s="2"/>
     </row>
-    <row r="994" spans="1:19">
+    <row r="994" ht="15.75" customHeight="1">
       <c r="A994" s="2"/>
       <c r="B994" s="2"/>
       <c r="C994" s="2"/>
@@ -21985,7 +21964,6 @@
       <c r="S994" s="2"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter scaleWithDoc="1" alignWithMargins="0" differentFirst="0" differentOddEven="0"/>
+  <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>